--- a/results.xlsx
+++ b/results.xlsx
@@ -122,7 +122,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C16" authorId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="130">
   <si>
     <t xml:space="preserve">Biomass [Gt C]</t>
   </si>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">Humans</t>
   </si>
   <si>
-    <t xml:space="preserve">Birds</t>
+    <t xml:space="preserve">Wild birds</t>
   </si>
   <si>
     <t xml:space="preserve">Wild mammals</t>
@@ -613,14 +613,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00E+00"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
+    <numFmt numFmtId="169" formatCode="0"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -723,6 +724,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin"/>
@@ -766,13 +774,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom/>
@@ -825,7 +826,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -842,18 +843,22 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -870,11 +875,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,7 +887,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -890,175 +899,215 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,59 +1115,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,14 +1151,14 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1197,460 +1202,484 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="n">
+      <c r="F2" s="5" t="n">
+        <f aca="false">SUM(C2:C5)</f>
+        <v>73.8</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="7" t="n">
         <v>9</v>
       </c>
+      <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>1.4</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>1.4</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>1.8</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>7.4</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>3.6</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="10" t="n">
         <v>7.6</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>68.2</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>8.3</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <v>15</v>
       </c>
+      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>2.6</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>6.5</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="10" t="n">
         <v>7.9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="n">
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="n">
         <v>3.5</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5" t="n">
+      <c r="F10" s="5" t="n">
+        <f aca="false">SUM(C10:C12)</f>
+        <v>13.2</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="7" t="n">
         <v>4</v>
       </c>
+      <c r="L10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="D11" s="0"/>
+      <c r="E11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="10" t="n">
         <v>0.6</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9" t="n">
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="5" t="n">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="n">
+        <f aca="false">SUM(C13:C23)</f>
+        <v>2.47165801916787</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="7" t="n">
         <v>5</v>
       </c>
+      <c r="L13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="n">
         <v>14.9</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="8" t="n">
         <v>0.9</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="L15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9" t="n">
         <v>0.02</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <v>0.7</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <v>8.2</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="15" t="n">
+        <v>0.00165801916787227</v>
+      </c>
+      <c r="D22" s="9" t="n">
         <v>0.002</v>
       </c>
-      <c r="D22" s="8" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="9" t="n">
+      <c r="C23" s="16"/>
+      <c r="D23" s="10" t="n">
         <v>0.007</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="17" t="n">
         <v>2.3</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="n">
-        <v>1.75284037501219</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4" t="n">
+      <c r="C24" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="5" t="n">
         <f aca="false">SUM(C24:C26)</f>
-        <v>3.95070839213949</v>
-      </c>
-      <c r="G24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="G24" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7" t="n">
-        <v>1.5978680171273</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>7.80263648320762</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="C25" s="8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="10" t="n">
         <v>0.6</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9" t="n">
+      <c r="D26" s="11"/>
+      <c r="E26" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -1659,18 +1688,18 @@
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="16" t="n">
+      <c r="C27" s="18" t="n">
         <v>0.2</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="E27" s="16" t="n">
+      <c r="E27" s="18" t="n">
         <v>15.4</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="19" t="n">
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1681,18 +1710,18 @@
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="16" t="n">
+      <c r="C28" s="18" t="n">
         <v>450</v>
       </c>
-      <c r="D28" s="17" t="n">
+      <c r="D28" s="19" t="n">
         <v>450</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="E28" s="22" t="n">
         <v>1.19395460482905</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="16" t="n">
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="18" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -1705,12 +1734,12 @@
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">SUM(C2:C29)</f>
-        <v>551.42270839214</v>
-      </c>
-      <c r="G29" s="8" t="n">
+        <v>551.471658019168</v>
+      </c>
+      <c r="G29" s="9" t="n">
         <v>550</v>
       </c>
-      <c r="H29" s="8" t="n">
+      <c r="H29" s="9" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -1756,478 +1785,490 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
         <v>450</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.4</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>12</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.2</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.05</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.1</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="30" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.002</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="13"/>
+        <v>0.00165801916787227</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.2</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>1.6</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="17" t="n">
         <f aca="false">SUM(C2:C13)</f>
-        <v>472.062</v>
-      </c>
-      <c r="E14" s="30" t="n">
+        <v>472.061658019168</v>
+      </c>
+      <c r="E14" s="32" t="n">
         <v>470</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
     <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="0"/>
+      <c r="B16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>1</v>
       </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.4</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.9</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.1</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
-        <v>1.75284037501219</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="13"/>
+        <v>1.8</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.7</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.6</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C26" s="11" t="n">
         <f aca="false">SUM(C17:C25)</f>
-        <v>5.95284037501219</v>
-      </c>
-      <c r="E26" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="E26" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="0"/>
+      <c r="B28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>7</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C2</f>
         <v>58</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C9</f>
         <v>3</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6</f>
         <v>4</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0.6</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.6</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="11" t="n">
         <f aca="false">SUM(C29:C34)</f>
         <v>73.2</v>
       </c>
-      <c r="E35" s="35" t="n">
+      <c r="E35" s="37" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2247,483 +2288,548 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
         <v>450</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.4</v>
       </c>
-      <c r="F4" s="39" t="n">
+      <c r="F4" s="41" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E4</f>
         <v>3.6</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.5</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="35" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E8</f>
         <v>6.5</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="8" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>12</v>
       </c>
-      <c r="F6" s="33" t="n">
+      <c r="F6" s="35" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E10</f>
         <v>3.5</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C25</f>
-        <v>1.5978680171273</v>
-      </c>
-      <c r="F7" s="33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="35" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E25</f>
-        <v>7.80263648320762</v>
-      </c>
-      <c r="G7" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.2</v>
       </c>
-      <c r="F8" s="33" t="n">
+      <c r="F8" s="35" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E14</f>
         <v>14.9</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="13" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.05</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="13" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.1</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="13" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="30" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="35" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E23</f>
         <v>2.3</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="13" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.002</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="13"/>
+        <v>0.00165801916787227</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.2</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="15" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="10" t="n">
         <v>0.01</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="43" t="s">
         <v>59</v>
       </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="17" t="n">
         <f aca="false">B4</f>
         <v>450</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="17" t="n">
         <v>450</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">SUM(E4:E14)</f>
-        <v>22.0598680171273</v>
-      </c>
-      <c r="F17" s="35" t="n">
+        <v>22.0616580191679</v>
+      </c>
+      <c r="F17" s="37" t="n">
         <v>20</v>
       </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.4</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <v>0.14</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="7" t="n">
-        <v>0.423320209770335</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24-SUM(B24:B26)</f>
-        <v>0.743462198657096</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="7" t="n">
-        <v>0.306594194335118</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.9</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="13"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="7" t="n">
-        <v>0.279463772249642</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="13" t="s">
+      <c r="B26" s="8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.7</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="13" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.2</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="13" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.1</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="15" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.6</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15" t="n">
+      <c r="B32" s="17" t="n">
         <f aca="false">SUM(B22:B26)</f>
-        <v>1.2493781763551</v>
-      </c>
-      <c r="C32" s="15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C32" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="17" t="n">
         <f aca="false">SUM(E22:E29)</f>
-        <v>4.9434621986571</v>
-      </c>
-      <c r="F32" s="35" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F32" s="37" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
@@ -2752,282 +2858,282 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="n">
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
         <v>450</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <f aca="false">Fig2B!B22+Fig2B!B23+0.12</f>
         <v>0.36</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="7" t="n">
+      <c r="B3" s="28"/>
+      <c r="C3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.6</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.6</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="7" t="n">
+      <c r="B4" s="28"/>
+      <c r="C4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C25</f>
-        <v>1.5978680171273</v>
-      </c>
-      <c r="D4" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
-        <v>1.75284037501219</v>
-      </c>
-      <c r="E4" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0.6</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.2</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="14" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.9</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.1</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.05</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="33"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="30" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.002</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="33"/>
+        <v>0.00165801916787227</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.2</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="14" t="n">
         <v>0.01</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="14"/>
+      <c r="D12" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.7</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7" t="n">
+      <c r="C13" s="14"/>
+      <c r="D13" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.2</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7" t="n">
+      <c r="C14" s="14"/>
+      <c r="D14" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.1</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="14" t="n">
         <f aca="false">SUM(C5:C14)</f>
-        <v>0.562</v>
-      </c>
-      <c r="D15" s="13" t="n">
+        <v>0.561658019167872</v>
+      </c>
+      <c r="D15" s="14" t="n">
         <f aca="false">SUM(D5:D14)</f>
         <v>1.91</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="14" t="n">
         <f aca="false">SUM(E5:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="13" t="n">
+      <c r="B16" s="28"/>
+      <c r="C16" s="14" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.4</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="14" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="14" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C5</f>
         <v>65</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="15" t="n">
+      <c r="B17" s="31"/>
+      <c r="C17" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.5</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C9</f>
         <v>7</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3058,17 +3164,17 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3080,369 +3186,370 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.4</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <f aca="false">SUM(C2:C3)</f>
         <v>8.8</v>
       </c>
-      <c r="E2" s="25" t="n">
+      <c r="E2" s="27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">SUM(C5:C6)</f>
         <v>0.8</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <f aca="false">SUM(C8:C9)</f>
         <v>12.6</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.6</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.2</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <f aca="false">SUM(C11:C21)</f>
-        <v>2.472</v>
-      </c>
-      <c r="E11" s="25" t="n">
+        <v>2.47165801916787</v>
+      </c>
+      <c r="E11" s="27" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.2</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.9</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.1</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.2</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0.02</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.7</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.1</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.05</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.002</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>0.00165801916787227</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="16" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
-        <v>1.75284037501219</v>
-      </c>
-      <c r="D23" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <f aca="false">SUM(C23:C24)</f>
-        <v>3.35070839213949</v>
-      </c>
-      <c r="E23" s="25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E23" s="27" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C25</f>
-        <v>1.5978680171273</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="18" t="n">
         <f aca="false">2E+030*2E-017/1000000000000000</f>
         <v>0.04</v>
       </c>
-      <c r="D26" s="16" t="n">
+      <c r="D26" s="18" t="n">
         <v>0.04</v>
       </c>
-      <c r="E26" s="38" t="n">
+      <c r="E26" s="40" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="46" t="n">
+      <c r="C28" s="48" t="n">
         <v>152</v>
       </c>
-      <c r="D28" s="46" t="n">
+      <c r="D28" s="48" t="n">
         <v>152</v>
       </c>
-      <c r="E28" s="38" t="n">
+      <c r="E28" s="40" t="n">
         <v>150</v>
       </c>
     </row>
@@ -3477,320 +3584,320 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28*1000000000000000</f>
         <v>4.5E+017</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E28</f>
         <v>1.19395460482905</v>
       </c>
-      <c r="D2" s="48" t="n">
-        <f aca="false">'Table S1'!D34</f>
+      <c r="D2" s="50" t="n">
+        <f aca="false">'Table S1'!D28</f>
         <v>3000000000000</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="49" t="n">
+      <c r="B3" s="51" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28*1000000000000000</f>
         <v>4.5E+017</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E28</f>
         <v>1.19395460482905</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="39" t="n">
+      <c r="D3" s="52"/>
+      <c r="E3" s="41" t="n">
         <v>400000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48" t="n">
+      <c r="B4" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2*1000000000000000</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="n">
+        <v>73800000000000000</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H2</f>
         <v>9</v>
       </c>
-      <c r="D4" s="48" t="e">
+      <c r="D4" s="50" t="e">
         <f aca="false">'Table S1'!F2</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="48" t="n">
+      <c r="B5" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F6*1000000000000000</f>
         <v>8300000000000000</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H6</f>
         <v>15</v>
       </c>
-      <c r="D5" s="48" t="e">
-        <f aca="false">'Table S1'!F7</f>
+      <c r="D5" s="50" t="e">
+        <f aca="false">'Table S1'!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="48" t="n">
+      <c r="B6" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F10*1000000000000000</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="n">
+        <v>13200000000000000</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H10</f>
         <v>4</v>
       </c>
-      <c r="D6" s="48" t="e">
-        <f aca="false">'Table S1'!F12</f>
+      <c r="D6" s="50" t="e">
+        <f aca="false">'Table S1'!F10</f>
         <v>#REF!</v>
       </c>
-      <c r="E6" s="51" t="n">
+      <c r="E6" s="53" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="48" t="n">
+      <c r="B7" s="50" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C14:C15)*1000000000000000</f>
         <v>1100000000000000</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="48" t="e">
+      <c r="D7" s="50" t="e">
+        <f aca="false">'Table S1'!D15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="41" t="n">
+        <v>943383</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="50" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C13*1000000000000000</f>
+        <v>200000000000000</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="50" t="e">
+        <f aca="false">'Table S1'!D13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="41" t="n">
+        <v>13199</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="50" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C17*1000000000000000</f>
+        <v>200000000000000</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="50" t="e">
+        <f aca="false">'Table S1'!D17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <v>41642</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="50" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C16*1000000000000000</f>
+        <v>100000000000000</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="50" t="n">
+        <f aca="false">'Table S1'!D16</f>
+        <v>20000000000000000</v>
+      </c>
+      <c r="E10" s="41" t="n">
+        <v>11490</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="50" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C19*1000000000000000</f>
+        <v>700000000000000</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!E19</f>
+        <v>8.2</v>
+      </c>
+      <c r="D11" s="50" t="e">
+        <f aca="false">'Table S1'!D19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="41" t="n">
+        <v>18223</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="50" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C18*1000000000000000</f>
+        <v>20000000000000</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="50" t="e">
         <f aca="false">'Table S1'!D18</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="39" t="n">
-        <v>943383</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="48" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C13*1000000000000000</f>
-        <v>200000000000000</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" s="48" t="e">
-        <f aca="false">'Table S1'!D16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="39" t="n">
-        <v>13199</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="48" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C17*1000000000000000</f>
-        <v>200000000000000</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="48" t="e">
-        <f aca="false">'Table S1'!D20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="39" t="n">
-        <v>41642</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="48" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C16*1000000000000000</f>
-        <v>100000000000000</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" s="48" t="n">
-        <f aca="false">'Table S1'!D19</f>
-        <v>20000000000000000</v>
-      </c>
-      <c r="E10" s="39" t="n">
-        <v>11490</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="48" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C19*1000000000000000</f>
-        <v>700000000000000</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!E19</f>
-        <v>8.2</v>
-      </c>
-      <c r="D11" s="48" t="e">
-        <f aca="false">'Table S1'!D22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="39" t="n">
-        <v>18223</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="48" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C18*1000000000000000</f>
-        <v>20000000000000</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="48" t="e">
-        <f aca="false">'Table S1'!D21</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="41" t="n">
         <v>9984</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="48" t="n">
+      <c r="B13" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21*1000000000000000</f>
         <v>50000000000000</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="D13" s="48" t="n">
+      <c r="D13" s="50" t="n">
         <v>7000000000</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="48" t="n">
+      <c r="B14" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20*1000000000000000</f>
         <v>100000000000000</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="D14" s="48" t="n">
+      <c r="D14" s="50" t="n">
         <v>30000000000</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="48" t="n">
+      <c r="B15" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F24*1000000000000000</f>
-        <v>3950708392139490</v>
-      </c>
-      <c r="C15" s="7" t="n">
+        <v>4000000000000000</v>
+      </c>
+      <c r="C15" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H24</f>
         <v>7</v>
       </c>
-      <c r="D15" s="48" t="e">
-        <f aca="false">'Table S1'!F28</f>
+      <c r="D15" s="50" t="e">
+        <f aca="false">'Table S1'!F24</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="41" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="48" t="n">
+      <c r="B16" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22*1000000000000000</f>
-        <v>2000000000000</v>
-      </c>
-      <c r="C16" s="7" t="n">
+        <v>1658019167872.27</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="48" t="n">
+      <c r="D16" s="50" t="n">
         <v>300000000000</v>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="41" t="n">
         <v>7480</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="52" t="n">
+      <c r="B17" s="54" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C19:C23)*1000000000000000</f>
-        <v>852000000000000</v>
-      </c>
-      <c r="C17" s="9" t="n">
+        <v>851658019167872</v>
+      </c>
+      <c r="C17" s="10" t="n">
         <v>7.6</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="53" t="n">
+      <c r="D17" s="17"/>
+      <c r="E17" s="55" t="n">
         <v>49693</v>
       </c>
     </row>
@@ -3810,635 +3917,569 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D2</f>
         <v>60</v>
       </c>
-      <c r="D2" s="56" t="e">
+      <c r="D2" s="57" t="e">
         <f aca="false">C2*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" s="57" t="n">
+      <c r="E2" s="58" t="n">
         <v>1E+030</v>
       </c>
-      <c r="F2" s="57" t="e">
+      <c r="F2" s="58" t="e">
         <f aca="false">SUM(D2:D5)</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="58" t="n">
+      <c r="G2" s="59" t="n">
         <v>1E+030</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D3</f>
         <v>1.4</v>
       </c>
-      <c r="D3" s="48" t="e">
+      <c r="D3" s="50" t="e">
         <f aca="false">C3*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="59" t="n">
+      <c r="E3" s="60" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="e">
+      <c r="D4" s="8" t="e">
         <f aca="false">C4*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="59" t="n">
+      <c r="E4" s="60" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="e">
+      <c r="D5" s="10" t="e">
         <f aca="false">C5*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E5" s="60" t="n">
+      <c r="E5" s="61" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D6</f>
         <v>4</v>
       </c>
-      <c r="D7" s="56" t="e">
+      <c r="D6" s="57" t="e">
+        <f aca="false">C6*1000000000000000/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="58" t="n">
+        <v>1E+029</v>
+      </c>
+      <c r="F6" s="58" t="e">
+        <f aca="false">SUM(D6:D9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="59" t="n">
+        <v>1E+029</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!D7</f>
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="50" t="e">
         <f aca="false">C7*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="57" t="n">
-        <v>1E+029</v>
-      </c>
-      <c r="F7" s="57" t="e">
-        <f aca="false">SUM(D7:D10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="58" t="n">
-        <v>1E+029</v>
-      </c>
+      <c r="E7" s="60" t="n">
+        <v>1E+028</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!D7</f>
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="48" t="e">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!D8</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="8" t="e">
         <f aca="false">C8*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="59" t="n">
+      <c r="E8" s="60" t="n">
         <v>1E+028</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!D8</f>
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="7" t="e">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!D9</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="e">
         <f aca="false">C9*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="59" t="n">
-        <v>1E+028</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="E9" s="61" t="n">
+        <v>1E+029</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!D9</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="9" t="e">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="57" t="e">
         <f aca="false">C10*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="60" t="n">
-        <v>1E+029</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58" t="e">
+        <f aca="false">SUM(D10:D12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="59" t="n">
+        <v>1E+027</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7" t="e">
-        <f aca="false">#REF!</f>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="8" t="e">
+        <f aca="false">C11*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" s="56" t="e">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="10" t="e">
         <f aca="false">C12*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57" t="e">
-        <f aca="false">SUM(D12:D14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="58" t="n">
-        <v>1E+027</v>
-      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="7" t="e">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="57" t="e">
         <f aca="false">C13*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="E13" s="58" t="n">
+        <v>1E+018</v>
+      </c>
+      <c r="F13" s="58" t="e">
+        <f aca="false">SUM(D13:D23)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="59" t="n">
+        <v>1E+021</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="9" t="e">
-        <f aca="false">C14*1000000000000000/#REF!</f>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="60" t="n">
+        <v>1E+018</v>
+      </c>
+      <c r="E14" s="60" t="n">
+        <v>1E+018</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="D15" s="50" t="e">
+        <f aca="false">C15*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="E15" s="60" t="n">
+        <v>1E+020</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="n">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D16" s="50" t="n">
+        <v>20000000000000000</v>
+      </c>
+      <c r="E16" s="60" t="n">
+        <v>10000000000000000</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="50" t="e">
+        <f aca="false">C17*1000000000000000/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="60" t="n">
+        <v>1E+018</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="D16" s="56" t="e">
-        <f aca="false">C16*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="57" t="n">
-        <v>1E+018</v>
-      </c>
-      <c r="F16" s="57" t="e">
-        <f aca="false">SUM(D16:D26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="58" t="n">
-        <v>1E+021</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="59" t="n">
-        <v>1E+018</v>
-      </c>
-      <c r="E17" s="59" t="n">
-        <v>1E+018</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D18" s="48" t="e">
+      <c r="D18" s="50" t="e">
         <f aca="false">C18*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E18" s="59" t="n">
-        <v>1E+020</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="60" t="n">
+        <v>1E+021</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D19" s="48" t="n">
-        <v>20000000000000000</v>
-      </c>
-      <c r="E19" s="59" t="n">
-        <v>10000000000000000</v>
-      </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="50" t="e">
+        <f aca="false">C19*1000000000000000/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="60" t="n">
+        <v>1000000000000000</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D20" s="48" t="e">
-        <f aca="false">C20*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="59" t="n">
-        <v>1E+018</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="52" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="E20" s="60" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D21" s="48" t="e">
-        <f aca="false">C21*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="59" t="n">
-        <v>1E+021</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="52" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="E21" s="60" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="48" t="e">
-        <f aca="false">C22*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="59" t="n">
-        <v>1000000000000000</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D22" s="52" t="n">
+        <v>300000000000</v>
+      </c>
+      <c r="E22" s="60" t="n">
+        <v>300000000000</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="50" t="n">
-        <v>30000000000</v>
-      </c>
-      <c r="E23" s="59" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D24" s="50" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="E24" s="59" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D25" s="50" t="n">
-        <v>300000000000</v>
-      </c>
-      <c r="E25" s="59" t="n">
-        <v>300000000000</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C23" s="16" t="n">
         <f aca="false">SUM('Data mentioned in MS'!B29,'Data mentioned in MS'!B32)</f>
         <v>0.007353608</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="57" t="e">
+        <f aca="false">C24*1000000000000000/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58" t="e">
+        <f aca="false">SUM(D24:D26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="59" t="n">
+        <v>1E+027</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D25" s="50" t="n">
+        <v>3E+025</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="62" t="n">
+        <v>1E+031</v>
+      </c>
+      <c r="E27" s="63" t="n">
+        <v>1E+031</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="64" t="n">
+        <v>1E+031</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D28" s="56" t="e">
-        <f aca="false">C28*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57" t="e">
-        <f aca="false">SUM(D28:D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="58" t="n">
-        <v>1E+027</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D29" s="48" t="n">
-        <v>3E+025</v>
-      </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D32" s="61" t="n">
-        <v>1E+031</v>
-      </c>
-      <c r="E32" s="62" t="n">
-        <v>1E+031</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="63" t="n">
-        <v>1E+031</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="45" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C28" s="18" t="n">
         <v>450</v>
       </c>
-      <c r="D34" s="61" t="n">
+      <c r="D28" s="62" t="n">
         <v>3000000000000</v>
       </c>
-      <c r="E34" s="62" t="n">
+      <c r="E28" s="63" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="63" t="n">
+      <c r="F28" s="19"/>
+      <c r="G28" s="64" t="n">
         <v>10000000000000</v>
       </c>
     </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="F16:F26"/>
-    <mergeCell ref="G16:G26"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="F13:F23"/>
+    <mergeCell ref="G13:G23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4459,354 +4500,363 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="66" t="n">
+      <c r="B2" s="67" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F29</f>
-        <v>551.42270839214</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>551.471658019168</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>550</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="29"/>
+      <c r="G2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
         <v>450</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>450</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="67" t="n">
+      <c r="B4" s="68" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28/'Table1 &amp; Fig1'!F29</f>
-        <v>0.816070852997926</v>
-      </c>
-      <c r="C4" s="8" t="n">
+        <v>0.815998417065268</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>0.8</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C5" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="68" t="n">
+      <c r="B6" s="69" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G2/'Table1 &amp; Fig1'!F29</f>
-        <v>0.126944354910789</v>
-      </c>
-      <c r="C6" s="8" t="n">
+        <v>0.126933087099042</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>0.15</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="G6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28-B10</f>
         <v>316</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>320</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
+      <c r="G7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="67" t="n">
+      <c r="B8" s="68" t="n">
         <f aca="false">B7/SUM(B9+B7)</f>
-        <v>0.57992519065989</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>0.579922921636998</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>0.6</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="G8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">B10+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C8+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C25+'Table1 &amp; Fig1'!C26+'Table1 &amp; Fig1'!C13+'Table1 &amp; Fig1'!C2</f>
-        <v>228.897868017127</v>
-      </c>
-      <c r="C9" s="8" t="n">
+        <v>228.9</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>230</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="G9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>134</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>130</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="G10" s="69"/>
+      <c r="D10" s="29"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="66" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">B9-B10</f>
-        <v>94.8978680171273</v>
-      </c>
-      <c r="C11" s="8" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="68" t="n">
+      <c r="B12" s="69" t="n">
         <f aca="false">(B3-B14)/B3</f>
         <v>0.662222222222222</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="67" t="n">
+      <c r="B13" s="68" t="n">
         <f aca="false">Fig2C!E16/SUM(Fig2C!C16:E16)</f>
         <v>0.880758807588076</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <v>0.9</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <f aca="false">FigS1!D28</f>
         <v>152</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>95</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">FigS1!D2</f>
         <v>8.8</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <f aca="false">FigS1!D8</f>
         <v>12.6</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="70" t="n">
+      <c r="B17" s="71" t="n">
         <f aca="false">379*0.15/1000</f>
         <v>0.05685</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.05</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="66" t="s">
         <v>99</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.1</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="70" t="n">
+      <c r="B20" s="71" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="9" t="n">
         <v>0.007</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="70" t="n">
+      <c r="B21" s="71" t="n">
         <v>0.005</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9" t="n">
         <v>0.005</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="70" t="n">
+      <c r="B22" s="71" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
+        <v>0.00165801916787227</v>
+      </c>
+      <c r="C22" s="9" t="n">
         <v>0.002</v>
       </c>
-      <c r="C22" s="8" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="67" t="n">
+      <c r="B23" s="68" t="n">
         <f aca="false">B21/B22</f>
-        <v>2.5</v>
-      </c>
-      <c r="C23" s="8" t="n">
+        <v>3.01564668062099</v>
+      </c>
+      <c r="C23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="68" t="n">
+      <c r="B24" s="69" t="n">
         <f aca="false">SUM(Fig2C!C6,Fig2C!C7)/SUM(Fig2C!C5:C11)</f>
-        <v>0.266903914590747</v>
-      </c>
-      <c r="C24" s="8" t="n">
+        <v>0.267066426332225</v>
+      </c>
+      <c r="C24" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="67" t="n">
+      <c r="B25" s="68" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F13</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="8" t="n">
+        <v>2.47165801916787</v>
+      </c>
+      <c r="C25" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G13</f>
         <v>3</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="66" t="s">
         <v>106</v>
       </c>
       <c r="B26" s="1" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C14:C15)</f>
         <v>1.1</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="66" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="1" t="n">
@@ -4817,256 +4867,256 @@
         <f aca="false">'Table1 &amp; Fig1'!D19</f>
         <v>0.7</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="9" t="n">
         <v>0.022</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="9" t="n">
         <v>0.02</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>0.0029</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="9" t="n">
         <v>0.003</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="67" t="n">
+      <c r="B30" s="68" t="n">
         <f aca="false">B28/B29</f>
         <v>7.58620689655172</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="70" t="n">
+      <c r="B31" s="71" t="n">
         <f aca="false">126185600000000*0.15/1000000000000000</f>
         <v>0.01892784</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="9" t="n">
         <v>0.02</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="71" t="n">
+      <c r="B32" s="72" t="n">
         <f aca="false">29690720000000*0.15/1000000000000000</f>
         <v>0.004453608</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="9" t="n">
         <v>0.004</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="67" t="n">
+      <c r="B33" s="68" t="n">
         <f aca="false">B31/B32</f>
         <v>4.2500013472223</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="67" t="n">
+      <c r="B34" s="68" t="n">
         <f aca="false">(B28+B31)/(B29+B32)</f>
         <v>5.56568149947618</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="67" t="n">
+      <c r="B35" s="68" t="n">
         <f aca="false">SUM(B18,B19,B29,B32)/SUM(B28,B31)</f>
         <v>3.84465947873135</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="70" t="n">
+      <c r="B36" s="71" t="n">
         <f aca="false">B28+B31</f>
         <v>0.04092784</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="70" t="n">
+      <c r="B37" s="71" t="n">
         <f aca="false">B32+B29+B18+B19</f>
         <v>0.157353608</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="9" t="n">
         <v>0.16</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="67" t="n">
+      <c r="B39" s="68" t="n">
         <f aca="false">(916-B3+B2)/B2</f>
-        <v>1.84508670554896</v>
-      </c>
-      <c r="C39" s="8" t="n">
+        <v>1.84501169411648</v>
+      </c>
+      <c r="C39" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="66" t="n">
+      <c r="B40" s="67" t="n">
         <f aca="false">Fig2A!C14</f>
-        <v>472.062</v>
-      </c>
-      <c r="C40" s="8" t="n">
+        <v>472.061658019168</v>
+      </c>
+      <c r="C40" s="9" t="n">
         <v>470</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="66" t="s">
         <v>124</v>
       </c>
       <c r="B41" s="1" t="n">
         <f aca="false">Fig2A!C26</f>
-        <v>5.95284037501219</v>
-      </c>
-      <c r="C41" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="C41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B42" s="1" t="n">
         <f aca="false">Fig2B!B32</f>
-        <v>1.2493781763551</v>
-      </c>
-      <c r="C42" s="8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C42" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="66" t="s">
         <v>126</v>
       </c>
       <c r="B43" s="1" t="n">
         <f aca="false">Fig2B!E32</f>
-        <v>4.9434621986571</v>
-      </c>
-      <c r="C43" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="C43" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="68" t="n">
+      <c r="B44" s="69" t="n">
         <f aca="false">SUM(Fig2B!E22,Fig2B!E23,Fig2B!E24,Fig2B!E29,Fig2B!B24,Fig2B!B25,Fig2B!B26)/SUM(Fig2B!B32,Fig2B!E32)</f>
-        <v>0.65443966412653</v>
-      </c>
-      <c r="C44" s="8" t="n">
+        <v>0.657051282051282</v>
+      </c>
+      <c r="C44" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="73" t="n">
+      <c r="B45" s="74" t="n">
         <f aca="false">Fig2A!C35/SUM(Fig2A!C35,Fig2A!C26,Fig2A!C14)</f>
-        <v>0.132797585693083</v>
-      </c>
-      <c r="C45" s="8" t="n">
+        <v>0.132786307437066</v>
+      </c>
+      <c r="C45" s="9" t="n">
         <v>0.15</v>
       </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="10" t="n">
+      <c r="B46" s="11" t="n">
         <v>0.07</v>
       </c>
-      <c r="C46" s="10" t="n">
+      <c r="C46" s="11" t="n">
         <v>0.05</v>
       </c>
-      <c r="D46" s="35"/>
+      <c r="D46" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="G2" authorId="0">
@@ -54,7 +54,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A24" authorId="0">
@@ -94,7 +94,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0">
@@ -119,10 +119,10 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0">
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="C28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="128">
   <si>
     <t xml:space="preserve">Biomass [Gt C]</t>
   </si>
@@ -328,12 +328,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wild land mammals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annelids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nematodes</t>
   </si>
   <si>
     <t xml:space="preserve">Terrestrial protists</t>
@@ -613,17 +607,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00E+00"/>
-    <numFmt numFmtId="169" formatCode="0"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
+    <numFmt numFmtId="168" formatCode="0"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -656,10 +649,17 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -759,31 +759,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -798,6 +777,27 @@
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -826,7 +826,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,247 +887,235 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,15 +1138,15 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1227,7 +1215,6 @@
       <c r="H2" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
@@ -1246,7 +1233,6 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -1265,7 +1251,6 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="L4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
@@ -1284,7 +1269,6 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -1311,7 +1295,6 @@
       <c r="H6" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -1330,7 +1313,6 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="L7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -1349,7 +1331,6 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
@@ -1368,7 +1349,6 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -1394,7 +1374,6 @@
       <c r="H10" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="L10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
@@ -1404,14 +1383,12 @@
       <c r="C11" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="D11" s="0"/>
       <c r="E11" s="8" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
@@ -1428,7 +1405,6 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="L12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -1446,7 +1422,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="13" t="n">
         <f aca="false">SUM(C13:C23)</f>
-        <v>2.47165801916787</v>
+        <v>2.48341921878613</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>3</v>
@@ -1454,7 +1430,6 @@
       <c r="H13" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="L13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
@@ -1473,7 +1448,6 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="L14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
@@ -1532,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="8" t="n">
-        <v>0.02</v>
+        <v>0.0240749649458041</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>0.02</v>
@@ -1597,8 +1571,8 @@
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="15" t="n">
-        <v>0.00165801916787227</v>
+      <c r="C22" s="8" t="n">
+        <v>0.002</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>0.002</v>
@@ -1613,12 +1587,14 @@
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="15" t="n">
+        <v>0.00734425384032944</v>
+      </c>
       <c r="D23" s="10" t="n">
         <v>0.007</v>
       </c>
-      <c r="E23" s="17" t="n">
-        <v>2.3</v>
+      <c r="E23" s="16" t="n">
+        <v>1.8109271282633</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -1657,7 +1633,6 @@
       <c r="C25" s="8" t="n">
         <v>1.6</v>
       </c>
-      <c r="D25" s="0"/>
       <c r="E25" s="8" t="n">
         <v>10</v>
       </c>
@@ -1688,18 +1663,18 @@
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="D27" s="18" t="n">
         <v>0.2</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="E27" s="17" t="n">
         <v>15.4</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="21" t="n">
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="20" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1710,18 +1685,18 @@
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C28" s="17" t="n">
         <v>450</v>
       </c>
-      <c r="D28" s="19" t="n">
+      <c r="D28" s="18" t="n">
         <v>450</v>
       </c>
-      <c r="E28" s="22" t="n">
+      <c r="E28" s="21" t="n">
         <v>1.19395460482905</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="18" t="n">
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -1734,7 +1709,7 @@
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">SUM(C2:C29)</f>
-        <v>551.471658019168</v>
+        <v>551.483419218786</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>550</v>
@@ -1768,7 +1743,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1782,500 +1757,458 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
         <v>450</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.4</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.5</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.2</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.05</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.1</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="30" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C23</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="29"/>
+      <c r="C9" s="24" t="n">
+        <v>0.00289064584032944</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3.6917824251731</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.00165801916787227</v>
-      </c>
-      <c r="E10" s="29"/>
+        <v>0.002</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>37</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.2</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>38</v>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="29"/>
+        <v>0.0100749649458041</v>
+      </c>
+      <c r="E12" s="23"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>39</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>1.6</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="17" t="n">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="16" t="n">
         <f aca="false">SUM(C2:C13)</f>
-        <v>472.061658019168</v>
-      </c>
-      <c r="E14" s="32" t="n">
+        <v>472.064965610786</v>
+      </c>
+      <c r="E14" s="25" t="n">
         <v>470</v>
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="33" t="s">
+    <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="8" t="n">
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.4</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8" t="n">
+      <c r="E16" s="23"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C18" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.9</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C19" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="8" t="n">
+      <c r="E19" s="23"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.1</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8" t="n">
+      <c r="E20" s="23"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>1.8</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="28" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C22" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.7</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.004453608</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1.4375</v>
+      </c>
+      <c r="E23" s="23"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E24" s="23"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.6</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>40</v>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="11" t="n">
-        <f aca="false">SUM(C17:C25)</f>
+        <f aca="false">SUM(C16:C25)</f>
+        <v>6.018453608</v>
+      </c>
+      <c r="E26" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="37" t="n">
-        <v>6</v>
-      </c>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="E27" s="14"/>
+    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>1</v>
+      </c>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="8" t="n">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>7</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="8" t="n">
+      <c r="C29" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C2</f>
         <v>58</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="8" t="n">
+      <c r="E29" s="23"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C9</f>
         <v>3</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="8" t="n">
+      <c r="E30" s="23"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6</f>
         <v>4</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="28" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C32" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0.6</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="28" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C33" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.6</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <f aca="false">SUM(C29:C34)</f>
+      <c r="E33" s="23"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <f aca="false">SUM(C28:C33)</f>
         <v>73.2</v>
       </c>
-      <c r="E35" s="37" t="n">
+      <c r="E34" s="28" t="n">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A28:A34"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2288,148 +2221,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="C3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="E3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
         <v>450</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>54</v>
+      <c r="C4" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.4</v>
       </c>
-      <c r="F4" s="41" t="n">
+      <c r="F4" s="33" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E4</f>
         <v>3.6</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.5</v>
       </c>
-      <c r="F5" s="35" t="n">
+      <c r="F5" s="27" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E8</f>
         <v>6.5</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="34"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>12</v>
       </c>
-      <c r="F6" s="35" t="n">
+      <c r="F6" s="27" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E10</f>
         <v>3.5</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C25</f>
         <v>1.6</v>
       </c>
-      <c r="F7" s="35" t="n">
+      <c r="F7" s="27" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E25</f>
         <v>10</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="34"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
@@ -2437,17 +2357,15 @@
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.2</v>
       </c>
-      <c r="F8" s="35" t="n">
+      <c r="F8" s="27" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E14</f>
         <v>14.9</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="34"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="14" t="s">
         <v>24</v>
       </c>
@@ -2455,14 +2373,12 @@
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.05</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="14" t="s">
         <v>23</v>
       </c>
@@ -2470,47 +2386,41 @@
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.1</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="34"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="30" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C23</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="35" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!E23</f>
-        <v>2.3</v>
+        <v>36</v>
+      </c>
+      <c r="E11" s="24" t="n">
+        <f aca="false">Fig2A!C9</f>
+        <v>0.00289064584032944</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <f aca="false">Fig2A!D9</f>
+        <v>3.6917824251731</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.00165801916787227</v>
-      </c>
-      <c r="F12" s="35"/>
+        <v>0.002</v>
+      </c>
+      <c r="F12" s="27"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
@@ -2518,199 +2428,168 @@
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.2</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-    </row>
+        <f aca="false">Fig2A!C12</f>
+        <v>0.0100749649458041</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="17" t="n">
+      <c r="A17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="16" t="n">
         <f aca="false">B4</f>
         <v>450</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="16" t="n">
         <v>450</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="17" t="n">
+      <c r="D17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="16" t="n">
         <f aca="false">SUM(E4:E14)</f>
-        <v>22.0616580191679</v>
-      </c>
-      <c r="F17" s="37" t="n">
+        <v>22.0649656107861</v>
+      </c>
+      <c r="F17" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-    </row>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+      <c r="C21" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="40" t="s">
+      <c r="E21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
-        <v>60</v>
+      <c r="A22" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.4</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="8"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>62</v>
+      <c r="A23" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>0.14</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="8"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
-        <v>64</v>
+      <c r="A24" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="B24" s="8" t="n">
         <v>0.42</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24-SUM(B24:B26)</f>
         <v>0.8</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="8"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
-        <v>65</v>
+      <c r="A25" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="B25" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="14" t="s">
         <v>18</v>
       </c>
@@ -2718,18 +2597,18 @@
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.9</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="8"/>
       <c r="H25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
-        <v>66</v>
+      <c r="A26" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>0.28</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="14" t="s">
         <v>22</v>
       </c>
@@ -2737,14 +2616,14 @@
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.7</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="35"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="14" t="s">
         <v>20</v>
       </c>
@@ -2752,81 +2631,104 @@
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.2</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.1</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="17" t="s">
+      <c r="A29" s="34"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <f aca="false">Fig2A!C23</f>
+        <v>0.004453608</v>
+      </c>
+      <c r="F29" s="23" t="n">
+        <f aca="false">Fig2A!D23</f>
+        <v>1.4375</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <f aca="false">Fig2A!C24</f>
+        <v>0.014</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="38"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E31" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.6</v>
       </c>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39"/>
-      <c r="B31" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="17" t="n">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="30"/>
+      <c r="B33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="16" t="n">
         <f aca="false">SUM(B22:B26)</f>
         <v>1.24</v>
       </c>
-      <c r="C32" s="17" t="n">
+      <c r="C34" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="17" t="n">
-        <f aca="false">SUM(E22:E29)</f>
-        <v>5</v>
-      </c>
-      <c r="F32" s="37" t="n">
+      <c r="D34" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="16" t="n">
+        <f aca="false">SUM(E22:E31)</f>
+        <v>5.018453608</v>
+      </c>
+      <c r="F34" s="28" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2841,7 +2743,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2857,20 +2759,20 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
@@ -2878,17 +2780,17 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
         <v>450</v>
@@ -2900,15 +2802,15 @@
       <c r="E2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>68</v>
+      <c r="F2" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>12</v>
@@ -2921,13 +2823,13 @@
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.6</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C25</f>
         <v>1.6</v>
@@ -2940,14 +2842,14 @@
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0.6</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>69</v>
+      <c r="B5" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
@@ -2958,11 +2860,11 @@
         <v>0.9</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="35"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="8" t="n">
@@ -2971,11 +2873,11 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8" t="n">
@@ -2984,37 +2886,40 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="35"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="30" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C23</f>
-        <v>0</v>
+      <c r="C8" s="24" t="n">
+        <f aca="false">Fig2A!C9</f>
+        <v>0.00289064584032944</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="35"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.00165801916787227</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>0.002</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <f aca="false">Fig2A!C23</f>
+        <v>0.004453608</v>
+      </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="8" t="n">
@@ -3023,25 +2928,27 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>0.01</v>
+        <f aca="false">Fig2A!C12</f>
+        <v>0.0100749649458041</v>
       </c>
       <c r="D11" s="14" t="n">
-        <v>0.01</v>
+        <f aca="false">Fig2A!C24</f>
+        <v>0.014</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="14"/>
@@ -3050,11 +2957,11 @@
         <v>0.7</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="14"/>
@@ -3063,12 +2970,12 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="35"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28"/>
-      <c r="B14" s="35" t="s">
-        <v>43</v>
+      <c r="A14" s="32"/>
+      <c r="B14" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="8" t="n">
@@ -3076,32 +2983,32 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="35"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28"/>
-      <c r="B15" s="35" t="s">
-        <v>40</v>
+      <c r="A15" s="32"/>
+      <c r="B15" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="14" t="n">
         <f aca="false">SUM(C5:C14)</f>
-        <v>0.561658019167872</v>
+        <v>0.564965610786134</v>
       </c>
       <c r="D15" s="14" t="n">
         <f aca="false">SUM(D5:D14)</f>
-        <v>1.91</v>
+        <v>1.918453608</v>
       </c>
       <c r="E15" s="14" t="n">
         <f aca="false">SUM(E5:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="14" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.4</v>
@@ -3114,26 +3021,26 @@
         <f aca="false">'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C5</f>
         <v>65</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="17" t="n">
+      <c r="B17" s="35"/>
+      <c r="C17" s="16" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.5</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="16" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="16" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C9</f>
         <v>7</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3147,7 +3054,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3163,30 +3070,30 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -3200,15 +3107,15 @@
         <f aca="false">SUM(C2:C3)</f>
         <v>8.8</v>
       </c>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="22" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="10" t="n">
@@ -3219,18 +3126,18 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
@@ -3240,15 +3147,15 @@
         <f aca="false">SUM(C5:C6)</f>
         <v>0.8</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="n">
@@ -3259,14 +3166,14 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3280,15 +3187,15 @@
         <f aca="false">SUM(C8:C9)</f>
         <v>12.6</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="22" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="n">
@@ -3299,14 +3206,14 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -3318,14 +3225,14 @@
       </c>
       <c r="D11" s="5" t="n">
         <f aca="false">SUM(C11:C21)</f>
-        <v>2.47165801916787</v>
-      </c>
-      <c r="E11" s="27" t="n">
+        <v>2.48341921878613</v>
+      </c>
+      <c r="E11" s="22" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -3339,7 +3246,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3353,7 +3260,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -3367,7 +3274,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -3381,7 +3288,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -3389,13 +3296,13 @@
       </c>
       <c r="C16" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
-        <v>0.02</v>
+        <v>0.0240749649458041</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -3409,7 +3316,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -3423,7 +3330,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -3437,7 +3344,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -3445,34 +3352,34 @@
       </c>
       <c r="C20" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.00165801916787227</v>
+        <v>0.002</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="15" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
-        <v>0</v>
+        <v>0.00734425384032944</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3486,15 +3393,15 @@
         <f aca="false">SUM(C23:C24)</f>
         <v>3.4</v>
       </c>
-      <c r="E23" s="27" t="n">
+      <c r="E23" s="22" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="10" t="n">
@@ -3505,51 +3412,50 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="0"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="18" t="n">
+      <c r="C26" s="17" t="n">
         <f aca="false">2E+030*2E-017/1000000000000000</f>
         <v>0.04</v>
       </c>
-      <c r="D26" s="18" t="n">
+      <c r="D26" s="17" t="n">
         <v>0.04</v>
       </c>
-      <c r="E26" s="40" t="n">
+      <c r="E26" s="31" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="48" t="n">
+      <c r="C28" s="45" t="n">
         <v>152</v>
       </c>
-      <c r="D28" s="48" t="n">
+      <c r="D28" s="45" t="n">
         <v>152</v>
       </c>
-      <c r="E28" s="40" t="n">
+      <c r="E28" s="31" t="n">
         <v>150</v>
       </c>
     </row>
@@ -3568,7 +3474,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3583,37 +3489,37 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="50" t="n">
+      <c r="B2" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28*1000000000000000</f>
         <v>4.5E+017</v>
       </c>
@@ -3621,17 +3527,17 @@
         <f aca="false">'Table1 &amp; Fig1'!E28</f>
         <v>1.19395460482905</v>
       </c>
-      <c r="D2" s="50" t="n">
-        <f aca="false">'Table S1'!D28</f>
+      <c r="D2" s="47" t="n">
+        <f aca="false">'Table S1'!D34</f>
         <v>3000000000000</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="51" t="n">
+      <c r="B3" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28*1000000000000000</f>
         <v>4.5E+017</v>
       </c>
@@ -3639,16 +3545,16 @@
         <f aca="false">'Table1 &amp; Fig1'!E28</f>
         <v>1.19395460482905</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="41" t="n">
+      <c r="D3" s="49"/>
+      <c r="E3" s="33" t="n">
         <v>400000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="n">
+      <c r="B4" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2*1000000000000000</f>
         <v>73800000000000000</v>
       </c>
@@ -3656,17 +3562,17 @@
         <f aca="false">'Table1 &amp; Fig1'!H2</f>
         <v>9</v>
       </c>
-      <c r="D4" s="50" t="e">
+      <c r="D4" s="47" t="e">
         <f aca="false">'Table S1'!F2</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="50" t="n">
+      <c r="B5" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F6*1000000000000000</f>
         <v>8300000000000000</v>
       </c>
@@ -3674,17 +3580,17 @@
         <f aca="false">'Table1 &amp; Fig1'!H6</f>
         <v>15</v>
       </c>
-      <c r="D5" s="50" t="e">
-        <f aca="false">'Table S1'!F6</f>
+      <c r="D5" s="47" t="e">
+        <f aca="false">'Table S1'!F7</f>
         <v>#REF!</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="50" t="n">
+      <c r="B6" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F10*1000000000000000</f>
         <v>13200000000000000</v>
       </c>
@@ -3692,95 +3598,95 @@
         <f aca="false">'Table1 &amp; Fig1'!H10</f>
         <v>4</v>
       </c>
-      <c r="D6" s="50" t="e">
-        <f aca="false">'Table S1'!F10</f>
+      <c r="D6" s="47" t="e">
+        <f aca="false">'Table S1'!F12</f>
         <v>#REF!</v>
       </c>
-      <c r="E6" s="53" t="n">
+      <c r="E6" s="50" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="50" t="n">
+      <c r="A7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="47" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C14:C15)*1000000000000000</f>
         <v>1100000000000000</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="50" t="e">
-        <f aca="false">'Table S1'!D15</f>
+      <c r="D7" s="47" t="e">
+        <f aca="false">'Table S1'!D18</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="33" t="n">
         <v>943383</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="50" t="n">
+      <c r="B8" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13*1000000000000000</f>
         <v>200000000000000</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="50" t="e">
-        <f aca="false">'Table S1'!D13</f>
+      <c r="D8" s="47" t="e">
+        <f aca="false">'Table S1'!D16</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="33" t="n">
         <v>13199</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="50" t="n">
+      <c r="B9" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17*1000000000000000</f>
         <v>200000000000000</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D9" s="50" t="e">
-        <f aca="false">'Table S1'!D17</f>
+      <c r="D9" s="47" t="e">
+        <f aca="false">'Table S1'!D20</f>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="33" t="n">
         <v>41642</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="50" t="n">
+      <c r="B10" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16*1000000000000000</f>
         <v>100000000000000</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="50" t="n">
-        <f aca="false">'Table S1'!D16</f>
+      <c r="D10" s="47" t="n">
+        <f aca="false">'Table S1'!D19</f>
         <v>20000000000000000</v>
       </c>
-      <c r="E10" s="41" t="n">
+      <c r="E10" s="33" t="n">
         <v>11490</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="50" t="n">
+      <c r="B11" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19*1000000000000000</f>
         <v>700000000000000</v>
       </c>
@@ -3788,70 +3694,70 @@
         <f aca="false">'Table1 &amp; Fig1'!E19</f>
         <v>8.2</v>
       </c>
-      <c r="D11" s="50" t="e">
-        <f aca="false">'Table S1'!D19</f>
+      <c r="D11" s="47" t="e">
+        <f aca="false">'Table S1'!D22</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="41" t="n">
+      <c r="E11" s="33" t="n">
         <v>18223</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="50" t="n">
+      <c r="B12" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18*1000000000000000</f>
-        <v>20000000000000</v>
+        <v>24074964945804.1</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="50" t="e">
-        <f aca="false">'Table S1'!D18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="41" t="n">
+      <c r="D12" s="47" t="n">
+        <f aca="false">'Table S1'!D21</f>
+        <v>4.81499298916082E+020</v>
+      </c>
+      <c r="E12" s="33" t="n">
         <v>9984</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="50" t="n">
+      <c r="B13" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21*1000000000000000</f>
         <v>50000000000000</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="D13" s="50" t="n">
+      <c r="D13" s="47" t="n">
         <v>7000000000</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="50" t="n">
+      <c r="B14" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20*1000000000000000</f>
         <v>100000000000000</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="D14" s="50" t="n">
+      <c r="D14" s="47" t="n">
         <v>30000000000</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="50" t="n">
+      <c r="B15" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F24*1000000000000000</f>
         <v>4000000000000000</v>
       </c>
@@ -3859,52 +3765,52 @@
         <f aca="false">'Table1 &amp; Fig1'!H24</f>
         <v>7</v>
       </c>
-      <c r="D15" s="50" t="e">
-        <f aca="false">'Table S1'!F24</f>
+      <c r="D15" s="47" t="e">
+        <f aca="false">'Table S1'!F28</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="41" t="n">
+      <c r="E15" s="33" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="50" t="n">
+      <c r="B16" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22*1000000000000000</f>
-        <v>1658019167872.27</v>
+        <v>2000000000000</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="50" t="n">
+      <c r="D16" s="47" t="n">
         <v>300000000000</v>
       </c>
-      <c r="E16" s="41" t="n">
+      <c r="E16" s="33" t="n">
         <v>7480</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="54" t="n">
+      <c r="A17" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="51" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C19:C23)*1000000000000000</f>
-        <v>851658019167872</v>
+        <v>859344253840330</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>7.6</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="55" t="n">
+      <c r="D17" s="16"/>
+      <c r="E17" s="52" t="n">
         <v>49693</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3917,38 +3823,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3958,23 +3864,23 @@
         <f aca="false">'Table1 &amp; Fig1'!D2</f>
         <v>60</v>
       </c>
-      <c r="D2" s="57" t="e">
+      <c r="D2" s="54" t="e">
         <f aca="false">C2*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" s="58" t="n">
+      <c r="E2" s="55" t="n">
         <v>1E+030</v>
       </c>
-      <c r="F2" s="58" t="e">
+      <c r="F2" s="55" t="e">
         <f aca="false">SUM(D2:D5)</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="59" t="n">
+      <c r="G2" s="56" t="n">
         <v>1E+030</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3982,18 +3888,18 @@
         <f aca="false">'Table1 &amp; Fig1'!D3</f>
         <v>1.4</v>
       </c>
-      <c r="D3" s="50" t="e">
+      <c r="D3" s="47" t="e">
         <f aca="false">C3*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="60" t="n">
+      <c r="E3" s="57" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -4005,14 +3911,14 @@
         <f aca="false">C4*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="60" t="n">
+      <c r="E4" s="57" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4024,466 +3930,509 @@
         <f aca="false">C5*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E5" s="61" t="n">
+      <c r="E5" s="58" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C7" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D6</f>
         <v>4</v>
       </c>
-      <c r="D6" s="57" t="e">
-        <f aca="false">C6*1000000000000000/#REF!</f>
+      <c r="D7" s="54" t="e">
+        <f aca="false">C7*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E6" s="58" t="n">
+      <c r="E7" s="55" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F6" s="58" t="e">
-        <f aca="false">SUM(D6:D9)</f>
+      <c r="F7" s="55" t="e">
+        <f aca="false">SUM(D7:D10)</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G7" s="56" t="n">
         <v>1E+029</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C8" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D7</f>
         <v>0.3</v>
       </c>
-      <c r="D7" s="50" t="e">
-        <f aca="false">C7*1000000000000000/#REF!</f>
+      <c r="D8" s="47" t="e">
+        <f aca="false">C8*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="60" t="n">
+      <c r="E8" s="57" t="n">
         <v>1E+028</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C9" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D8</f>
         <v>0.5</v>
       </c>
-      <c r="D8" s="8" t="e">
-        <f aca="false">C8*1000000000000000/#REF!</f>
+      <c r="D9" s="8" t="e">
+        <f aca="false">C9*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="60" t="n">
+      <c r="E9" s="57" t="n">
         <v>1E+028</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C10" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D9</f>
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="e">
-        <f aca="false">C9*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="61" t="n">
-        <v>1E+029</v>
-      </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D10" s="57" t="e">
+      <c r="D10" s="10" t="e">
         <f aca="false">C10*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58" t="e">
-        <f aca="false">SUM(D10:D12)</f>
+      <c r="E10" s="58" t="n">
+        <v>1E+029</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="e">
+        <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="59" t="n">
-        <v>1E+027</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="8" t="e">
-        <f aca="false">C11*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="10" t="e">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" s="54" t="e">
         <f aca="false">C12*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55" t="e">
+        <f aca="false">SUM(D12:D14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="56" t="n">
+        <v>1E+027</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D13" s="57" t="e">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="8" t="e">
         <f aca="false">C13*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="58" t="n">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="10" t="e">
+        <f aca="false">C14*1000000000000000/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="54" t="e">
+        <f aca="false">C16*1000000000000000/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="55" t="n">
         <v>1E+018</v>
       </c>
-      <c r="F13" s="58" t="e">
-        <f aca="false">SUM(D13:D23)</f>
+      <c r="F16" s="55" t="e">
+        <f aca="false">SUM(D16:D26)</f>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="59" t="n">
+      <c r="G16" s="56" t="n">
         <v>1E+021</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C17" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="D14" s="60" t="n">
+      <c r="D17" s="57" t="n">
         <v>1E+018</v>
       </c>
-      <c r="E14" s="60" t="n">
+      <c r="E17" s="57" t="n">
         <v>1E+018</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C18" s="8" t="n">
         <v>0.56</v>
       </c>
-      <c r="D15" s="50" t="e">
-        <f aca="false">C15*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="60" t="n">
-        <v>1E+020</v>
-      </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D16" s="50" t="n">
-        <v>20000000000000000</v>
-      </c>
-      <c r="E16" s="60" t="n">
-        <v>10000000000000000</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D17" s="50" t="e">
-        <f aca="false">C17*1000000000000000/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="60" t="n">
-        <v>1E+018</v>
-      </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D18" s="50" t="e">
+      <c r="D18" s="47" t="e">
         <f aca="false">C18*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E18" s="60" t="n">
+      <c r="E18" s="57" t="n">
+        <v>1E+020</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D19" s="47" t="n">
+        <v>20000000000000000</v>
+      </c>
+      <c r="E19" s="57" t="n">
+        <v>10000000000000000</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="47" t="e">
+        <f aca="false">C20*1000000000000000/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="57" t="n">
+        <v>1E+018</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" s="47" t="n">
+        <v>4.81499298916082E+020</v>
+      </c>
+      <c r="E21" s="57" t="n">
         <v>1E+021</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C22" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="D19" s="50" t="e">
-        <f aca="false">C19*1000000000000000/#REF!</f>
+      <c r="D22" s="47" t="e">
+        <f aca="false">C22*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E19" s="60" t="n">
+      <c r="E22" s="57" t="n">
         <v>1000000000000000</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C23" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D20" s="52" t="n">
+      <c r="D23" s="49" t="n">
         <v>30000000000</v>
       </c>
-      <c r="E20" s="60" t="n">
+      <c r="E23" s="57" t="n">
         <v>10000000000</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C24" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="D21" s="52" t="n">
+      <c r="D24" s="49" t="n">
         <v>10000000000</v>
       </c>
-      <c r="E21" s="60" t="n">
+      <c r="E24" s="57" t="n">
         <v>10000000000</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C25" s="8" t="n">
         <v>0.002</v>
       </c>
-      <c r="D22" s="52" t="n">
+      <c r="D25" s="49" t="n">
         <v>300000000000</v>
       </c>
-      <c r="E22" s="60" t="n">
+      <c r="E25" s="57" t="n">
         <v>300000000000</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C26" s="15" t="n">
         <f aca="false">SUM('Data mentioned in MS'!B29,'Data mentioned in MS'!B32)</f>
         <v>0.007353608</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C28" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="D24" s="57" t="e">
-        <f aca="false">C24*1000000000000000/#REF!</f>
+      <c r="D28" s="54" t="e">
+        <f aca="false">C28*1000000000000000/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58" t="e">
-        <f aca="false">SUM(D24:D26)</f>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="e">
+        <f aca="false">SUM(D28:D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G28" s="56" t="n">
         <v>1E+027</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C29" s="8" t="n">
         <v>1.6</v>
       </c>
-      <c r="D25" s="50" t="n">
+      <c r="D29" s="47" t="n">
         <v>3E+025</v>
       </c>
-      <c r="E25" s="0"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C30" s="10" t="n">
         <v>0.6</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C32" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="D27" s="62" t="n">
+      <c r="D32" s="59" t="n">
         <v>1E+031</v>
       </c>
-      <c r="E27" s="63" t="n">
+      <c r="E32" s="60" t="n">
         <v>1E+031</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="64" t="n">
+      <c r="F32" s="18"/>
+      <c r="G32" s="61" t="n">
         <v>1E+031</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C34" s="17" t="n">
         <v>450</v>
       </c>
-      <c r="D28" s="62" t="n">
+      <c r="D34" s="59" t="n">
         <v>3000000000000</v>
       </c>
-      <c r="E28" s="63" t="n">
+      <c r="E34" s="60" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="64" t="n">
+      <c r="F34" s="18"/>
+      <c r="G34" s="61" t="n">
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="F13:F23"/>
-    <mergeCell ref="G13:G23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="F16:F26"/>
+    <mergeCell ref="G16:G26"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4499,46 +4448,44 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65"/>
-      <c r="B1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="0"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="67" t="n">
+      <c r="A2" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="64" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F29</f>
-        <v>551.471658019168</v>
+        <v>551.483419218786</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>550</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="G2" s="0"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
-        <v>83</v>
+      <c r="A3" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
@@ -4547,26 +4494,24 @@
       <c r="C3" s="9" t="n">
         <v>450</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="G3" s="0"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="68" t="n">
+      <c r="A4" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="65" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28/'Table1 &amp; Fig1'!F29</f>
-        <v>0.815998417065268</v>
+        <v>0.815981014692075</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>0.8</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="G4" s="0"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
-        <v>85</v>
+      <c r="A5" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2</f>
@@ -4575,26 +4520,24 @@
       <c r="C5" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="G5" s="0"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="69" t="n">
+      <c r="A6" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="66" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G2/'Table1 &amp; Fig1'!F29</f>
-        <v>0.126933087099042</v>
+        <v>0.126930380063212</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>0.15</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="G6" s="0"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
-        <v>87</v>
+      <c r="A7" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28-B10</f>
@@ -4603,26 +4546,24 @@
       <c r="C7" s="9" t="n">
         <v>320</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="G7" s="0"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="68" t="n">
+      <c r="A8" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="65" t="n">
         <f aca="false">B7/SUM(B9+B7)</f>
         <v>0.579922921636998</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>0.6</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="G8" s="0"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
-        <v>89</v>
+      <c r="A9" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">B10+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C8+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C25+'Table1 &amp; Fig1'!C26+'Table1 &amp; Fig1'!C13+'Table1 &amp; Fig1'!C2</f>
@@ -4631,12 +4572,11 @@
       <c r="C9" s="9" t="n">
         <v>230</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="G9" s="0"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
-        <v>90</v>
+      <c r="A10" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>134</v>
@@ -4644,12 +4584,12 @@
       <c r="C10" s="9" t="n">
         <v>130</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="G10" s="70"/>
+      <c r="D10" s="23"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
-        <v>91</v>
+      <c r="A11" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">B9-B10</f>
@@ -4658,37 +4598,37 @@
       <c r="C11" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="69" t="n">
+      <c r="A12" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="66" t="n">
         <f aca="false">(B3-B14)/B3</f>
         <v>0.662222222222222</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="68" t="n">
+      <c r="A13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="65" t="n">
         <f aca="false">Fig2C!E16/SUM(Fig2C!C16:E16)</f>
         <v>0.880758807588076</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>0.9</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
-        <v>94</v>
+      <c r="A14" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="B14" s="9" t="n">
         <f aca="false">FigS1!D28</f>
@@ -4697,11 +4637,11 @@
       <c r="C14" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="s">
-        <v>95</v>
+      <c r="A15" s="63" t="s">
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">FigS1!D2</f>
@@ -4710,11 +4650,11 @@
       <c r="C15" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="66" t="s">
-        <v>96</v>
+      <c r="A16" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="B16" s="9" t="n">
         <f aca="false">FigS1!D8</f>
@@ -4723,24 +4663,24 @@
       <c r="C16" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="71" t="n">
+        <v>95</v>
+      </c>
+      <c r="B17" s="68" t="n">
         <f aca="false">379*0.15/1000</f>
         <v>0.05685</v>
       </c>
       <c r="C17" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="66" t="s">
-        <v>98</v>
+      <c r="A18" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
@@ -4749,11 +4689,11 @@
       <c r="C18" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="66" t="s">
-        <v>99</v>
+      <c r="A19" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
@@ -4762,89 +4702,89 @@
       <c r="C19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="71" t="n">
+      <c r="A20" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="68" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
-        <v>0</v>
+        <v>0.00734425384032944</v>
       </c>
       <c r="C20" s="9" t="n">
         <v>0.007</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="71" t="n">
+      <c r="A21" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="68" t="n">
         <v>0.005</v>
       </c>
       <c r="C21" s="9" t="n">
         <v>0.005</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="71" t="n">
+      <c r="A22" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="68" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
-        <v>0.00165801916787227</v>
+        <v>0.002</v>
       </c>
       <c r="C22" s="9" t="n">
         <v>0.002</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="68" t="n">
+      <c r="A23" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="65" t="n">
         <f aca="false">B21/B22</f>
-        <v>3.01564668062099</v>
+        <v>2.5</v>
       </c>
       <c r="C23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="69" t="n">
+      <c r="A24" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="66" t="n">
         <f aca="false">SUM(Fig2C!C6,Fig2C!C7)/SUM(Fig2C!C5:C11)</f>
-        <v>0.267066426332225</v>
+        <v>0.265502885726583</v>
       </c>
       <c r="C24" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="68" t="n">
+      <c r="A25" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="65" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F13</f>
-        <v>2.47165801916787</v>
+        <v>2.48341921878613</v>
       </c>
       <c r="C25" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G13</f>
         <v>3</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="66" t="s">
-        <v>106</v>
+      <c r="A26" s="63" t="s">
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C14:C15)</f>
@@ -4853,11 +4793,11 @@
       <c r="C26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66" t="s">
-        <v>107</v>
+      <c r="A27" s="63" t="s">
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
@@ -4867,11 +4807,11 @@
         <f aca="false">'Table1 &amp; Fig1'!D19</f>
         <v>0.7</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="66" t="s">
-        <v>108</v>
+      <c r="A28" s="63" t="s">
+        <v>106</v>
       </c>
       <c r="B28" s="9" t="n">
         <v>0.022</v>
@@ -4879,13 +4819,13 @@
       <c r="C28" s="9" t="n">
         <v>0.02</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>109</v>
+      <c r="D28" s="26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66" t="s">
-        <v>110</v>
+      <c r="A29" s="63" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="9" t="n">
         <v>0.0029</v>
@@ -4893,117 +4833,117 @@
       <c r="C29" s="9" t="n">
         <v>0.003</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="68" t="n">
+      <c r="A30" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="65" t="n">
         <f aca="false">B28/B29</f>
         <v>7.58620689655172</v>
       </c>
       <c r="C30" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="71" t="n">
+      <c r="A31" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="68" t="n">
         <f aca="false">126185600000000*0.15/1000000000000000</f>
         <v>0.01892784</v>
       </c>
       <c r="C31" s="9" t="n">
         <v>0.02</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>113</v>
+      <c r="D31" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="72" t="n">
+      <c r="A32" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="69" t="n">
         <f aca="false">29690720000000*0.15/1000000000000000</f>
         <v>0.004453608</v>
       </c>
       <c r="C32" s="9" t="n">
         <v>0.004</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="68" t="n">
+      <c r="A33" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="65" t="n">
         <f aca="false">B31/B32</f>
         <v>4.2500013472223</v>
       </c>
       <c r="C33" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="68" t="n">
+      <c r="A34" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="65" t="n">
         <f aca="false">(B28+B31)/(B29+B32)</f>
         <v>5.56568149947618</v>
       </c>
       <c r="C34" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="68" t="n">
+      <c r="A35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="65" t="n">
         <f aca="false">SUM(B18,B19,B29,B32)/SUM(B28,B31)</f>
         <v>3.84465947873135</v>
       </c>
       <c r="C35" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="71" t="n">
+      <c r="A36" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="68" t="n">
         <f aca="false">B28+B31</f>
         <v>0.04092784</v>
       </c>
       <c r="C36" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="71" t="n">
+      <c r="A37" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="68" t="n">
         <f aca="false">B32+B29+B18+B19</f>
         <v>0.157353608</v>
       </c>
       <c r="C37" s="9" t="n">
         <v>0.16</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="66" t="s">
-        <v>120</v>
+      <c r="A38" s="63" t="s">
+        <v>118</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>0.2</v>
@@ -5011,104 +4951,104 @@
       <c r="C38" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="68" t="n">
+      <c r="A39" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="65" t="n">
         <f aca="false">(916-B3+B2)/B2</f>
-        <v>1.84501169411648</v>
+        <v>1.84499367299224</v>
       </c>
       <c r="C39" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>122</v>
+      <c r="D39" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="67" t="n">
+      <c r="A40" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="64" t="n">
         <f aca="false">Fig2A!C14</f>
-        <v>472.061658019168</v>
+        <v>472.064965610786</v>
       </c>
       <c r="C40" s="9" t="n">
         <v>470</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="66" t="s">
-        <v>124</v>
+      <c r="A41" s="63" t="s">
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="n">
         <f aca="false">Fig2A!C26</f>
-        <v>6</v>
+        <v>6.018453608</v>
       </c>
       <c r="C41" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
-        <v>125</v>
+      <c r="A42" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="n">
-        <f aca="false">Fig2B!B32</f>
+        <f aca="false">Fig2B!B34</f>
         <v>1.24</v>
       </c>
       <c r="C42" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="66" t="s">
-        <v>126</v>
+      <c r="A43" s="63" t="s">
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="n">
-        <f aca="false">Fig2B!E32</f>
-        <v>5</v>
+        <f aca="false">Fig2B!E34</f>
+        <v>5.018453608</v>
       </c>
       <c r="C43" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="69" t="n">
-        <f aca="false">SUM(Fig2B!E22,Fig2B!E23,Fig2B!E24,Fig2B!E29,Fig2B!B24,Fig2B!B25,Fig2B!B26)/SUM(Fig2B!B32,Fig2B!E32)</f>
-        <v>0.657051282051282</v>
+      <c r="A44" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="66" t="n">
+        <f aca="false">SUM(Fig2B!E22,Fig2B!E23,Fig2B!E24,Fig2B!E31,Fig2B!B24,Fig2B!B25,Fig2B!B26)/SUM(Fig2B!B34,Fig2B!E34)</f>
+        <v>0.655113907812481</v>
       </c>
       <c r="C44" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="D44" s="29"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="74" t="n">
-        <f aca="false">Fig2A!C35/SUM(Fig2A!C35,Fig2A!C26,Fig2A!C14)</f>
-        <v>0.132786307437066</v>
+      <c r="A45" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="71" t="n">
+        <f aca="false">Fig2A!C34/SUM(Fig2A!C34,Fig2A!C26,Fig2A!C14)</f>
+        <v>0.132781065869404</v>
       </c>
       <c r="C45" s="9" t="n">
         <v>0.15</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="75" t="s">
-        <v>129</v>
+      <c r="A46" s="72" t="s">
+        <v>127</v>
       </c>
       <c r="B46" s="11" t="n">
         <v>0.07</v>
@@ -5116,12 +5056,12 @@
       <c r="C46" s="11" t="n">
         <v>0.05</v>
       </c>
-      <c r="D46" s="37"/>
+      <c r="D46" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>Biomass [Gt C]</t>
   </si>
@@ -213,7 +213,13 @@
     <t>Marine archaea</t>
   </si>
   <si>
-    <t>Picoplankton</t>
+    <t>Bacterial picophytoplankton</t>
+  </si>
+  <si>
+    <t>Green algae picophytoplankton</t>
+  </si>
+  <si>
+    <t>Protist picophytoplankton</t>
   </si>
   <si>
     <t>Diatoms</t>
@@ -226,9 +232,6 @@
   </si>
   <si>
     <t>Group</t>
-  </si>
-  <si>
-    <t>Biomass [g]</t>
   </si>
   <si>
     <t>Number of individuals</t>
@@ -409,10 +412,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
-    <numFmt formatCode="0.0000" numFmtId="166"/>
+  <numFmts count="4">
+    <numFmt formatCode="#" numFmtId="164"/>
+    <numFmt formatCode="0.0" numFmtId="165"/>
+    <numFmt formatCode="0.000" numFmtId="166"/>
+    <numFmt formatCode="0.0000" numFmtId="167"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -446,7 +450,7 @@
     <font>
       <name val="Cambria"/>
       <charset val="1"/>
-      <family val="1"/>
+      <family val="0"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -548,13 +552,6 @@
     <border>
       <left/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -594,6 +591,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -603,7 +607,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="135">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -619,12 +623,15 @@
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -643,13 +650,13 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -664,105 +671,90 @@
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
@@ -787,41 +779,35 @@
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -833,12 +819,15 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -857,13 +846,13 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -878,111 +867,96 @@
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1007,44 +981,35 @@
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1097,6 +1062,18 @@
   </authors>
   <commentList>
     <comment authorId="0" ref="A24" shapeId="0">
+      <text>
+        <t>Cyanobacteria and picoeukaryotes
+	-Yinon Bar-on</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A25" shapeId="0">
+      <text>
+        <t>Cyanobacteria and picoeukaryotes
+	-Yinon Bar-on</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
       <text>
         <t>Cyanobacteria and picoeukaryotes
 	-Yinon Bar-on</t>
@@ -1443,478 +1420,493 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D28" activeCellId="0" pane="topLeft" sqref="D28"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H28" activeCellId="0" pane="topLeft" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="73" width="10.1224489795918"/>
-    <col customWidth="1" max="3" min="3" style="73" width="6.47959183673469"/>
-    <col customWidth="1" max="1025" min="4" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="2" min="1" style="67" width="9.178571428571431"/>
+    <col customWidth="1" max="3" min="3" style="67" width="10.6632653061225"/>
+    <col customWidth="1" max="1025" min="4" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.85" r="1" s="74" spans="1:26">
-      <c r="A1" s="75" t="n"/>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="76" t="s">
+    <row customHeight="1" ht="26.85" r="1" s="68" spans="1:26">
+      <c r="A1" s="69" t="n"/>
+      <c r="B1" s="69" t="n"/>
+      <c r="C1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="76" t="n"/>
-      <c r="J1" s="76" t="n"/>
-      <c r="K1" s="76" t="n"/>
-      <c r="L1" s="76" t="n"/>
-      <c r="M1" s="76" t="n"/>
-      <c r="N1" s="76" t="n"/>
-      <c r="O1" s="76" t="n"/>
-      <c r="P1" s="76" t="n"/>
-      <c r="Q1" s="76" t="n"/>
-      <c r="R1" s="76" t="n"/>
-      <c r="S1" s="76" t="n"/>
-      <c r="T1" s="76" t="n"/>
-      <c r="U1" s="76" t="n"/>
-      <c r="V1" s="76" t="n"/>
-      <c r="W1" s="76" t="n"/>
-      <c r="X1" s="76" t="n"/>
-      <c r="Y1" s="76" t="n"/>
-      <c r="Z1" s="76" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="74" spans="1:26">
-      <c r="A2" s="76" t="s">
+      <c r="I1" s="70" t="n"/>
+      <c r="J1" s="70" t="n"/>
+      <c r="K1" s="70" t="n"/>
+      <c r="L1" s="70" t="n"/>
+      <c r="M1" s="70" t="n"/>
+      <c r="N1" s="70" t="n"/>
+      <c r="O1" s="70" t="n"/>
+      <c r="P1" s="70" t="n"/>
+      <c r="Q1" s="70" t="n"/>
+      <c r="R1" s="70" t="n"/>
+      <c r="S1" s="70" t="n"/>
+      <c r="T1" s="70" t="n"/>
+      <c r="U1" s="70" t="n"/>
+      <c r="V1" s="70" t="n"/>
+      <c r="W1" s="70" t="n"/>
+      <c r="X1" s="70" t="n"/>
+      <c r="Y1" s="70" t="n"/>
+      <c r="Z1" s="70" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="68" spans="1:26">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="77" t="n">
+      <c r="C2" s="71" t="n">
         <v>58.0692937960801</v>
       </c>
-      <c r="D2" s="78" t="n">
+      <c r="D2" s="72" t="n">
         <v>60</v>
       </c>
-      <c r="E2" s="77" t="n">
-        <v>20.74650551973926</v>
-      </c>
-      <c r="F2" s="77" t="n">
-        <v>73.39674235836893</v>
-      </c>
-      <c r="G2" s="78" t="n">
+      <c r="E2" s="73" t="n">
+        <v>20.5538260603403</v>
+      </c>
+      <c r="F2" s="73" t="n">
+        <v>73.3967423583689</v>
+      </c>
+      <c r="G2" s="72" t="n">
         <v>70</v>
       </c>
-      <c r="H2" s="79" t="n">
-        <v>9.672149615640437</v>
-      </c>
-      <c r="L2" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="74" spans="1:26">
-      <c r="B3" s="76" t="s">
+      <c r="H2" s="74" t="n">
+        <v>9.652677763218991</v>
+      </c>
+      <c r="L2" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" s="68" spans="1:26">
+      <c r="B3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="80" t="n">
-        <v>1.326934095802415</v>
-      </c>
-      <c r="D3" s="81" t="n">
+      <c r="C3" s="75" t="n">
+        <v>1.32693409580242</v>
+      </c>
+      <c r="D3" s="76" t="n">
         <v>1.4</v>
       </c>
-      <c r="E3" s="80" t="n">
-        <v>1.810178495591956</v>
-      </c>
-      <c r="L3" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="74" spans="1:26">
-      <c r="B4" s="76" t="s">
+      <c r="E3" s="75" t="n">
+        <v>1.80552442757551</v>
+      </c>
+      <c r="L3" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="68" spans="1:26">
+      <c r="B4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="80" t="n">
+      <c r="C4" s="75" t="n">
         <v>7.35229786351681</v>
       </c>
-      <c r="D4" s="81" t="n">
+      <c r="D4" s="76" t="n">
         <v>7</v>
       </c>
-      <c r="E4" s="80" t="n">
-        <v>6.385458504090012</v>
-      </c>
-      <c r="L4" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" s="74" spans="1:26">
-      <c r="B5" s="76" t="s">
+      <c r="E4" s="75" t="n">
+        <v>6.400667623129038</v>
+      </c>
+      <c r="L4" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" s="68" spans="1:26">
+      <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="82" t="n">
-        <v>6.648216602969592</v>
-      </c>
-      <c r="D5" s="83" t="n">
+      <c r="C5" s="77" t="n">
+        <v>6.64821660296959</v>
+      </c>
+      <c r="D5" s="78" t="n">
         <v>7</v>
       </c>
-      <c r="E5" s="82" t="n">
-        <v>7.643074564723517</v>
-      </c>
-      <c r="L5" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="74" spans="1:26">
-      <c r="A6" s="76" t="s">
+      <c r="E5" s="77" t="n">
+        <v>7.64307456472352</v>
+      </c>
+      <c r="L5" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="68" spans="1:26">
+      <c r="A6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="77" t="n">
+      <c r="C6" s="73" t="n">
         <v>3.7065506678349</v>
       </c>
-      <c r="D6" s="78" t="n">
+      <c r="D6" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="77" t="n">
-        <v>62.0115692516205</v>
-      </c>
-      <c r="F6" s="77" t="n">
-        <v>7.403225209692062</v>
-      </c>
-      <c r="G6" s="78" t="n">
+      <c r="E6" s="73" t="n">
+        <v>63.7532734397059</v>
+      </c>
+      <c r="F6" s="73" t="n">
+        <v>7.40322520969206</v>
+      </c>
+      <c r="G6" s="72" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="79" t="n">
-        <v>12.82607225365901</v>
-      </c>
-      <c r="L6" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" s="74" spans="1:26">
-      <c r="B7" s="76" t="s">
+      <c r="H6" s="74" t="n">
+        <v>13.3792589067184</v>
+      </c>
+      <c r="L6" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="68" spans="1:26">
+      <c r="B7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="80" t="n">
-        <v>0.3317335239506038</v>
-      </c>
-      <c r="D7" s="81" t="n">
+      <c r="C7" s="75" t="n">
+        <v>0.331733523950604</v>
+      </c>
+      <c r="D7" s="76" t="n">
         <v>0.3</v>
       </c>
-      <c r="E7" s="80" t="n">
-        <v>2.687097511704079</v>
-      </c>
-      <c r="L7" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="74" spans="1:26">
-      <c r="B8" s="76" t="s">
+      <c r="E7" s="75" t="n">
+        <v>2.6829534991907</v>
+      </c>
+      <c r="L7" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="68" spans="1:26">
+      <c r="B8" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="80" t="n">
+      <c r="C8" s="75" t="n">
         <v>0.5157053309195897</v>
       </c>
-      <c r="D8" s="81" t="n">
+      <c r="D8" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="E8" s="80" t="n">
-        <v>3.643262521702277</v>
-      </c>
-      <c r="L8" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" s="74" spans="1:26">
-      <c r="B9" s="76" t="s">
+      <c r="E8" s="75" t="n">
+        <v>3.645819085188347</v>
+      </c>
+      <c r="L8" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="68" spans="1:26">
+      <c r="B9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="82" t="n">
-        <v>2.849235686986968</v>
-      </c>
-      <c r="D9" s="83" t="n">
+      <c r="C9" s="77" t="n">
+        <v>2.84923568698697</v>
+      </c>
+      <c r="D9" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="82" t="n">
-        <v>7.931544706207121</v>
-      </c>
-      <c r="L9" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="10" s="74" spans="1:26">
-      <c r="A10" s="76" t="s">
+      <c r="E9" s="77" t="n">
+        <v>7.93154470620712</v>
+      </c>
+      <c r="L9" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" s="68" spans="1:26">
+      <c r="A10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="77" t="n">
+      <c r="C10" s="73" t="n">
         <v>11.8020047916546</v>
       </c>
-      <c r="D10" s="78" t="n"/>
-      <c r="E10" s="77" t="n">
-        <v>3.459751147414018</v>
-      </c>
-      <c r="F10" s="77" t="n"/>
-      <c r="G10" s="78" t="n">
+      <c r="D10" s="72" t="n"/>
+      <c r="E10" s="73" t="n">
+        <v>3.45975114741402</v>
+      </c>
+      <c r="F10" s="73">
+        <f>SUM(C10:C11)</f>
+        <v/>
+      </c>
+      <c r="G10" s="72" t="n">
         <v>13</v>
       </c>
-      <c r="H10" s="79" t="n">
-        <v>3.324420317656535</v>
-      </c>
-      <c r="L10" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" s="74" spans="1:26">
-      <c r="B11" s="76" t="s">
+      <c r="H10" s="74" t="n">
+        <v>3.32854109486224</v>
+      </c>
+      <c r="L10" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" s="68" spans="1:26">
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="80" t="n">
+      <c r="C11" s="75" t="n">
         <v>0.324820149643526</v>
       </c>
-      <c r="D11" s="73" t="n"/>
-      <c r="E11" s="80" t="n">
+      <c r="D11" s="67" t="n"/>
+      <c r="E11" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="L11" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" s="74" spans="1:26">
-      <c r="A12" s="76" t="s">
+      <c r="L11" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" s="68" spans="1:26">
+      <c r="A12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="77" t="n">
+      <c r="C12" s="73" t="n">
         <v>0.1985064472372225</v>
       </c>
-      <c r="D12" s="78" t="n">
+      <c r="D12" s="72" t="n">
         <v>0.2</v>
       </c>
-      <c r="E12" s="84" t="n"/>
-      <c r="F12" s="85" t="n">
+      <c r="E12" s="79" t="n"/>
+      <c r="F12" s="80" t="n">
         <v>2.46722362238391</v>
       </c>
-      <c r="G12" s="78" t="n">
+      <c r="G12" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="79" t="n">
-        <v>4.858731618901326</v>
-      </c>
-      <c r="L12" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" s="74" spans="1:26">
-      <c r="B13" s="76" t="s">
+      <c r="H12" s="74" t="n">
+        <v>4.8331759574918</v>
+      </c>
+      <c r="L12" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="68" spans="1:26">
+      <c r="B13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="80" t="n">
-        <v>0.2115679503978081</v>
-      </c>
-      <c r="D13" s="81" t="n">
+      <c r="C13" s="75" t="n">
+        <v>0.211567950397808</v>
+      </c>
+      <c r="D13" s="76" t="n">
         <v>0.2</v>
       </c>
-      <c r="E13" s="80" t="n">
-        <v>14.88134743574687</v>
-      </c>
-      <c r="L13" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="74" spans="1:26">
-      <c r="B14" s="76" t="s">
+      <c r="E13" s="75" t="n">
+        <v>14.8813474357469</v>
+      </c>
+      <c r="L13" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="68" spans="1:26">
+      <c r="B14" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="80" t="n">
-        <v>0.9223399959596873</v>
-      </c>
-      <c r="D14" s="81" t="n">
+      <c r="C14" s="75" t="n">
+        <v>0.922339995959687</v>
+      </c>
+      <c r="D14" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="80" t="n">
+      <c r="E14" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="L14" s="81" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" s="74" spans="1:26">
-      <c r="B15" s="76" t="s">
+      <c r="L14" s="76" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="68" spans="1:26">
+      <c r="B15" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="80" t="n">
-        <v>0.08961683000340352</v>
-      </c>
-      <c r="D15" s="81" t="n">
+      <c r="C15" s="75" t="n">
+        <v>0.08961683000340349</v>
+      </c>
+      <c r="D15" s="76" t="n">
         <v>0.1</v>
       </c>
-      <c r="E15" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="16" s="74" spans="1:26">
-      <c r="B16" s="76" t="s">
+      <c r="E15" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" s="68" spans="1:26">
+      <c r="B16" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="80" t="n">
-        <v>0.1819848476151713</v>
-      </c>
-      <c r="D16" s="81" t="n">
+      <c r="C16" s="75" t="n">
+        <v>0.181984847615171</v>
+      </c>
+      <c r="D16" s="76" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="74" spans="1:26">
-      <c r="B17" s="76" t="s">
+      <c r="E16" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="68" spans="1:26">
+      <c r="B17" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="80" t="n">
+      <c r="C17" s="75" t="n">
         <v>0.0240749649458041</v>
       </c>
-      <c r="D17" s="81" t="n">
+      <c r="D17" s="76" t="n">
         <v>0.02</v>
       </c>
-      <c r="E17" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="74" spans="1:26">
-      <c r="B18" s="76" t="s">
+      <c r="E17" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" s="68" spans="1:26">
+      <c r="B18" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="80" t="n">
-        <v>0.6676108835351025</v>
-      </c>
-      <c r="D18" s="81" t="n">
+      <c r="C18" s="75" t="n">
+        <v>0.667610883535102</v>
+      </c>
+      <c r="D18" s="76" t="n">
         <v>0.7</v>
       </c>
-      <c r="E18" s="80" t="n">
-        <v>8.201454103553289</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="74" spans="1:26">
-      <c r="B19" s="76" t="s">
+      <c r="E18" s="75" t="n">
+        <v>8.26103681538425</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" s="68" spans="1:26">
+      <c r="B19" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="80" t="n">
+      <c r="C19" s="75" t="n">
         <v>0.10714686353151</v>
       </c>
-      <c r="D19" s="81" t="n">
+      <c r="D19" s="76" t="n">
         <v>0.1</v>
       </c>
-      <c r="E19" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" s="74" spans="1:26">
-      <c r="B20" s="76" t="s">
+      <c r="E19" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" s="68" spans="1:26">
+      <c r="B20" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="80" t="n">
+      <c r="C20" s="75" t="n">
         <v>0.05537256615</v>
       </c>
-      <c r="D20" s="81" t="n">
+      <c r="D20" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="E20" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21" s="74" spans="1:26">
-      <c r="B21" s="76" t="s">
+      <c r="E20" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" s="68" spans="1:26">
+      <c r="B21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="80" t="n">
-        <v>0.001658019167872274</v>
-      </c>
-      <c r="D21" s="81" t="n">
+      <c r="C21" s="75" t="n">
+        <v>0.00165801916787227</v>
+      </c>
+      <c r="D21" s="76" t="n">
         <v>0.002</v>
       </c>
-      <c r="E21" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="22" s="74" spans="1:26">
-      <c r="B22" s="76" t="s">
+      <c r="E21" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="22" s="68" spans="1:26">
+      <c r="B22" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="87" t="n">
-        <v>0.007344253840329439</v>
-      </c>
-      <c r="D22" s="82" t="n">
+      <c r="C22" s="82" t="n">
+        <v>0.00734425384032944</v>
+      </c>
+      <c r="D22" s="77" t="n">
         <v>0.007</v>
       </c>
-      <c r="E22" s="88" t="n">
-        <v>1.804546311324095</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="74" spans="1:26">
-      <c r="A23" s="76" t="s">
+      <c r="E22" s="83" t="n">
+        <v>1.81026824322344</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="68" spans="1:26">
+      <c r="A23" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="77" t="n">
+      <c r="C23" s="73" t="n">
         <v>2.05971539836255</v>
       </c>
-      <c r="D23" s="78" t="n"/>
-      <c r="E23" s="77" t="n">
+      <c r="D23" s="72" t="n"/>
+      <c r="E23" s="73" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="77" t="n"/>
-      <c r="G23" s="78" t="n">
+      <c r="F23" s="73">
+        <f>SUM(C23:C24)</f>
+        <v/>
+      </c>
+      <c r="G23" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="H23" s="79" t="n">
-        <v>5.546839323640068</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="24" s="74" spans="1:26">
-      <c r="B24" s="76" t="s">
+      <c r="H23" s="74" t="n">
+        <v>5.69433809693218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="24" s="68" spans="1:26">
+      <c r="B24" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="80" t="n">
+      <c r="C24" s="75" t="n">
         <v>1.5978680171273</v>
       </c>
-      <c r="D24" s="73" t="n"/>
-      <c r="E24" s="80" t="n">
-        <v>7.48855540551831</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="25" s="74" spans="1:26">
-      <c r="A25" s="76" t="s">
+      <c r="D24" s="67" t="n"/>
+      <c r="E24" s="75" t="n">
+        <v>8.018253954568349</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="25" s="68" spans="1:26">
+      <c r="A25" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="89" t="n">
-        <v>0.2202156725861814</v>
-      </c>
-      <c r="D25" s="90" t="n">
+      <c r="C25" s="84" t="n">
+        <v>5.791335376745896e+29</v>
+      </c>
+      <c r="D25" s="85" t="n">
         <v>0.2</v>
       </c>
-      <c r="E25" s="89" t="n">
-        <v>15.07198588320886</v>
-      </c>
-      <c r="F25" s="91" t="n"/>
-      <c r="G25" s="90" t="n"/>
-      <c r="H25" s="92" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="26" s="74" spans="1:26">
-      <c r="A26" s="76" t="s">
+      <c r="E25" s="84" t="n">
+        <v>43.22056442554865</v>
+      </c>
+      <c r="F25" s="86" t="n"/>
+      <c r="G25" s="85" t="n"/>
+      <c r="H25" s="84" t="n">
+        <v>43.22056442554865</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="26" s="68" spans="1:26">
+      <c r="A26" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="89" t="n">
+      <c r="C26" s="84" t="n">
         <v>450</v>
       </c>
-      <c r="D26" s="90" t="n">
+      <c r="D26" s="85" t="n">
         <v>450</v>
       </c>
-      <c r="E26" s="93" t="n">
+      <c r="E26" s="87" t="n">
         <v>1.193954604829045</v>
       </c>
-      <c r="F26" s="91" t="n"/>
-      <c r="G26" s="90" t="n"/>
-      <c r="H26" s="89" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="74" spans="1:26">
-      <c r="A27" s="76" t="s">
+      <c r="F26" s="86" t="n"/>
+      <c r="G26" s="85" t="n"/>
+      <c r="H26" s="87" t="n">
+        <v>1.193954604829045</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="68" spans="1:26">
+      <c r="A27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="73" t="n"/>
-      <c r="G27" s="81" t="n">
+      <c r="F27" s="67">
+        <f>SUM(C2:C27)</f>
+        <v/>
+      </c>
+      <c r="G27" s="76" t="n">
         <v>550</v>
       </c>
-      <c r="H27" s="81" t="n"/>
+      <c r="H27" s="76" t="n">
+        <v>1.670250522420989</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1960,343 +1952,460 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="73" width="15.5255102040816"/>
-    <col customWidth="1" max="1025" min="2" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="1" min="1" style="67" width="14.0408163265306"/>
+    <col customWidth="1" max="1025" min="2" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.95" r="1" s="74" spans="1:6">
-      <c r="A1" s="76" t="s">
+    <row customHeight="1" ht="26.95" r="1" s="68" spans="1:6">
+      <c r="A1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="76" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="74" spans="1:6">
-      <c r="A2" s="76" t="s">
+      <c r="F1" s="70" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="68" spans="1:6">
+      <c r="A2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="77" t="n"/>
-      <c r="D2" s="96" t="n"/>
-      <c r="E2" s="97" t="n"/>
-      <c r="F2" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="74" spans="1:6">
-      <c r="B3" s="76" t="s">
+      <c r="C2" s="73">
+        <f>'Table1 &amp; Fig1'!C26</f>
+        <v/>
+      </c>
+      <c r="D2" s="90">
+        <f>'Table1 &amp; Fig1'!E26</f>
+        <v/>
+      </c>
+      <c r="E2" s="91" t="n"/>
+      <c r="F2" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="3" s="68" spans="1:6">
+      <c r="B3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="80" t="n"/>
-      <c r="D3" s="73" t="n"/>
-      <c r="E3" s="98" t="n"/>
-      <c r="F3" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="4" s="74" spans="1:6">
-      <c r="B4" s="76" t="s">
+      <c r="C3" s="75">
+        <f>'Table1 &amp; Fig1'!C4</f>
+        <v/>
+      </c>
+      <c r="D3" s="67">
+        <f>'Table1 &amp; Fig1'!E4</f>
+        <v/>
+      </c>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="4" s="68" spans="1:6">
+      <c r="B4" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80" t="n"/>
-      <c r="D4" s="73" t="n"/>
-      <c r="E4" s="98" t="n"/>
-      <c r="F4" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="74" spans="1:6">
-      <c r="B5" s="76" t="s">
+      <c r="C4" s="75">
+        <f>'Table1 &amp; Fig1'!C8</f>
+        <v/>
+      </c>
+      <c r="D4" s="67">
+        <f>'Table1 &amp; Fig1'!E8</f>
+        <v/>
+      </c>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="68" spans="1:6">
+      <c r="B5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="80" t="n"/>
-      <c r="D5" s="73" t="n"/>
-      <c r="E5" s="98" t="n"/>
-      <c r="F5" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="6" s="74" spans="1:6">
-      <c r="B6" s="76" t="s">
+      <c r="C5" s="75">
+        <f>'Table1 &amp; Fig1'!C10</f>
+        <v/>
+      </c>
+      <c r="D5" s="67">
+        <f>'Table1 &amp; Fig1'!E10</f>
+        <v/>
+      </c>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="6" s="68" spans="1:6">
+      <c r="B6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="80" t="n"/>
-      <c r="D6" s="73" t="n"/>
-      <c r="E6" s="98" t="n"/>
-      <c r="F6" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="7" s="74" spans="1:6">
-      <c r="B7" s="76" t="s">
+      <c r="C6" s="75">
+        <f>'Table1 &amp; Fig1'!C13</f>
+        <v/>
+      </c>
+      <c r="D6" s="67" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="7" s="68" spans="1:6">
+      <c r="B7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="80" t="n"/>
-      <c r="D7" s="73" t="n"/>
-      <c r="E7" s="98" t="n"/>
-      <c r="F7" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="8" s="74" spans="1:6">
-      <c r="B8" s="76" t="s">
+      <c r="C7" s="75">
+        <f>'Table1 &amp; Fig1'!C20</f>
+        <v/>
+      </c>
+      <c r="D7" s="67" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="8" s="68" spans="1:6">
+      <c r="B8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="80" t="n"/>
-      <c r="D8" s="73" t="n"/>
-      <c r="E8" s="98" t="n"/>
-      <c r="F8" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="9" s="74" spans="1:6">
-      <c r="B9" s="76" t="s">
+      <c r="C8" s="75">
+        <f>'Table1 &amp; Fig1'!C19</f>
+        <v/>
+      </c>
+      <c r="D8" s="67" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="68" spans="1:6">
+      <c r="B9" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="99" t="n">
+      <c r="C9" s="93" t="n">
         <v>0.00289064584032944</v>
       </c>
-      <c r="D9" s="73" t="n">
-        <v>3.691782425173102</v>
-      </c>
-      <c r="E9" s="98" t="n"/>
-      <c r="F9" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="10" s="74" spans="1:6">
-      <c r="B10" s="76" t="s">
+      <c r="D9" s="67" t="n">
+        <v>3.6917824251731</v>
+      </c>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="10" s="68" spans="1:6">
+      <c r="B10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="80" t="n"/>
-      <c r="D10" s="73" t="n"/>
-      <c r="E10" s="98" t="n"/>
-      <c r="F10" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="11" s="74" spans="1:6">
-      <c r="B11" s="76" t="s">
+      <c r="C10" s="75">
+        <f>'Table1 &amp; Fig1'!C21</f>
+        <v/>
+      </c>
+      <c r="D10" s="67" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="11" s="68" spans="1:6">
+      <c r="B11" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="80" t="n"/>
-      <c r="D11" s="73" t="n"/>
-      <c r="E11" s="98" t="n"/>
-      <c r="F11" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="12" s="74" spans="1:6">
-      <c r="B12" s="76" t="s">
+      <c r="C11" s="75">
+        <f>'Table1 &amp; Fig1'!C12</f>
+        <v/>
+      </c>
+      <c r="D11" s="67" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="68" spans="1:6">
+      <c r="B12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="80" t="n">
+      <c r="C12" s="75" t="n">
         <v>0.0100749649458041</v>
       </c>
-      <c r="D12" s="73" t="n"/>
-      <c r="E12" s="98" t="n"/>
-      <c r="F12" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="13" s="74" spans="1:6">
-      <c r="B13" s="76" t="s">
+      <c r="D12" s="67" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="13" s="68" spans="1:6">
+      <c r="B13" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="80" t="n"/>
-      <c r="D13" s="73" t="n"/>
-      <c r="E13" s="98" t="n"/>
-      <c r="F13" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="14" s="74" spans="1:6">
-      <c r="B14" s="76" t="s">
+      <c r="C13" s="75">
+        <f>'Table1 &amp; Fig1'!C24</f>
+        <v/>
+      </c>
+      <c r="D13" s="67">
+        <f>'Table1 &amp; Fig1'!E24</f>
+        <v/>
+      </c>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="14" s="68" spans="1:6">
+      <c r="B14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="88" t="n"/>
-      <c r="D14" s="73" t="n"/>
-      <c r="E14" s="100" t="n">
+      <c r="C14" s="83">
+        <f>SUM(C2:C13)</f>
+        <v/>
+      </c>
+      <c r="D14" s="67" t="n"/>
+      <c r="E14" s="94" t="n">
         <v>470</v>
       </c>
-      <c r="F14" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.95" r="15" s="74" spans="1:6">
-      <c r="A15" s="76" t="s">
+      <c r="F14" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.95" r="15" s="68" spans="1:6">
+      <c r="A15" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="73" t="n"/>
-      <c r="E15" s="101" t="s">
+      <c r="D15" s="67" t="n"/>
+      <c r="E15" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="16" s="74" spans="1:6">
-      <c r="A16" s="76" t="s">
+      <c r="F15" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="16" s="68" spans="1:6">
+      <c r="A16" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="80" t="n"/>
-      <c r="D16" s="73" t="n"/>
-      <c r="E16" s="98" t="n"/>
-      <c r="F16" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="17" s="74" spans="1:6">
-      <c r="B17" s="76" t="s">
+      <c r="C16" s="75">
+        <f>'Table1 &amp; Fig1'!C3</f>
+        <v/>
+      </c>
+      <c r="D16" s="67">
+        <f>'Table1 &amp; Fig1'!E3</f>
+        <v/>
+      </c>
+      <c r="E16" s="92" t="n"/>
+      <c r="F16" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="17" s="68" spans="1:6">
+      <c r="B17" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="80" t="n"/>
-      <c r="D17" s="73" t="n"/>
-      <c r="E17" s="98" t="n"/>
-      <c r="F17" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="18" s="74" spans="1:6">
-      <c r="B18" s="76" t="s">
+      <c r="C17" s="75">
+        <f>'Table1 &amp; Fig1'!C7</f>
+        <v/>
+      </c>
+      <c r="D17" s="67">
+        <f>'Table1 &amp; Fig1'!E7</f>
+        <v/>
+      </c>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="75" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="18" s="68" spans="1:6">
+      <c r="B18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="80" t="n"/>
-      <c r="D18" s="73" t="n"/>
-      <c r="E18" s="98" t="n"/>
-      <c r="F18" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="19" s="74" spans="1:6">
-      <c r="B19" s="76" t="s">
+      <c r="C18" s="75">
+        <f>'Table1 &amp; Fig1'!C14</f>
+        <v/>
+      </c>
+      <c r="D18" s="67">
+        <f>'Table1 &amp; Fig1'!E14</f>
+        <v/>
+      </c>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="75" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="19" s="68" spans="1:6">
+      <c r="B19" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="80" t="n"/>
-      <c r="D19" s="73" t="n"/>
-      <c r="E19" s="98" t="n"/>
-      <c r="F19" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="20" s="74" spans="1:6">
-      <c r="B20" s="76" t="s">
+      <c r="C19" s="75">
+        <f>'Table1 &amp; Fig1'!C16</f>
+        <v/>
+      </c>
+      <c r="D19" s="67" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="20" s="68" spans="1:6">
+      <c r="B20" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="80" t="n"/>
-      <c r="D20" s="73" t="n"/>
-      <c r="E20" s="98" t="n"/>
-      <c r="F20" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="21" s="74" spans="1:6">
-      <c r="B21" s="76" t="s">
+      <c r="C20" s="75">
+        <f>'Table1 &amp; Fig1'!C15</f>
+        <v/>
+      </c>
+      <c r="D20" s="67" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="21" s="68" spans="1:6">
+      <c r="B21" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="80" t="n"/>
-      <c r="D21" s="73" t="n"/>
-      <c r="E21" s="98" t="n"/>
-      <c r="F21" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="22" s="74" spans="1:6">
-      <c r="B22" s="76" t="s">
+      <c r="C21" s="75">
+        <f>'Table1 &amp; Fig1'!C23</f>
+        <v/>
+      </c>
+      <c r="D21" s="67">
+        <f>'Table1 &amp; Fig1'!E23</f>
+        <v/>
+      </c>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="22" s="68" spans="1:6">
+      <c r="B22" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="80" t="n"/>
-      <c r="D22" s="73" t="n"/>
-      <c r="E22" s="98" t="n"/>
-      <c r="F22" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="23" s="74" spans="1:6">
-      <c r="B23" s="76" t="s">
+      <c r="C22" s="75">
+        <f>'Table1 &amp; Fig1'!C18</f>
+        <v/>
+      </c>
+      <c r="D22" s="67" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="23" s="68" spans="1:6">
+      <c r="B23" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="80" t="n">
+      <c r="C23" s="75" t="n">
         <v>0.004453608</v>
       </c>
-      <c r="D23" s="73" t="n">
+      <c r="D23" s="67" t="n">
         <v>1.4375</v>
       </c>
-      <c r="E23" s="98" t="n"/>
-      <c r="F23" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="24" s="74" spans="1:6">
-      <c r="B24" s="76" t="s">
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="24" s="68" spans="1:6">
+      <c r="B24" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="80" t="n">
+      <c r="C24" s="75" t="n">
         <v>0.014</v>
       </c>
-      <c r="D24" s="73" t="n"/>
-      <c r="E24" s="98" t="n"/>
-      <c r="F24" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="25" s="74" spans="1:6">
-      <c r="B25" s="76" t="s">
+      <c r="D24" s="67" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="25" s="68" spans="1:6">
+      <c r="B25" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="80" t="n"/>
-      <c r="D25" s="73" t="n"/>
-      <c r="E25" s="102" t="n"/>
-      <c r="F25" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="26" s="74" spans="1:6">
-      <c r="B26" s="76" t="s">
+      <c r="C25" s="75">
+        <f>'Table1 &amp; Fig1'!C11</f>
+        <v/>
+      </c>
+      <c r="D25" s="67">
+        <f>'Table1 &amp; Fig1'!E11</f>
+        <v/>
+      </c>
+      <c r="E25" s="96" t="n"/>
+      <c r="F25" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="26" s="68" spans="1:6">
+      <c r="B26" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="83" t="n"/>
-      <c r="D26" s="73" t="n"/>
-      <c r="E26" s="103" t="n">
+      <c r="C26" s="78">
+        <f>SUM(C16:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="67" t="n"/>
+      <c r="E26" s="97" t="n">
         <v>6</v>
       </c>
-      <c r="F26" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.95" r="27" s="74" spans="1:6">
-      <c r="A27" s="76" t="s">
+      <c r="F26" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.95" r="27" s="68" spans="1:6">
+      <c r="A27" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="73" t="n"/>
-      <c r="E27" s="101" t="s">
+      <c r="D27" s="67" t="n"/>
+      <c r="E27" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="28" s="74" spans="1:6">
-      <c r="A28" s="76" t="s">
+      <c r="F27" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="28" s="68" spans="1:6">
+      <c r="A28" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="80" t="n"/>
-      <c r="D28" s="73" t="n"/>
-      <c r="E28" s="98" t="n"/>
-      <c r="F28" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="29" s="74" spans="1:6">
-      <c r="B29" s="76" t="s">
+      <c r="C28" s="75">
+        <f>'Table1 &amp; Fig1'!C5</f>
+        <v/>
+      </c>
+      <c r="D28" s="67">
+        <f>'Table1 &amp; Fig1'!E5</f>
+        <v/>
+      </c>
+      <c r="E28" s="92" t="n"/>
+      <c r="F28" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="29" s="68" spans="1:6">
+      <c r="B29" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="80" t="n"/>
-      <c r="D29" s="73" t="n"/>
-      <c r="E29" s="98" t="n"/>
-      <c r="F29" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="30" s="74" spans="1:6">
-      <c r="B30" s="76" t="s">
+      <c r="C29" s="75">
+        <f>'Table1 &amp; Fig1'!C2</f>
+        <v/>
+      </c>
+      <c r="D29" s="67">
+        <f>'Table1 &amp; Fig1'!E2</f>
+        <v/>
+      </c>
+      <c r="E29" s="92" t="n"/>
+      <c r="F29" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="30" s="68" spans="1:6">
+      <c r="B30" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="80" t="n"/>
-      <c r="D30" s="73" t="n"/>
-      <c r="E30" s="98" t="n"/>
-      <c r="F30" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="31" s="74" spans="1:6">
-      <c r="B31" s="76" t="s">
+      <c r="C30" s="75">
+        <f>'Table1 &amp; Fig1'!C9</f>
+        <v/>
+      </c>
+      <c r="D30" s="67">
+        <f>'Table1 &amp; Fig1'!E9</f>
+        <v/>
+      </c>
+      <c r="E30" s="92" t="n"/>
+      <c r="F30" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="31" s="68" spans="1:6">
+      <c r="B31" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="80" t="n"/>
-      <c r="D31" s="73" t="n"/>
-      <c r="E31" s="98" t="n"/>
-      <c r="F31" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="32" s="74" spans="1:6">
-      <c r="B32" s="76" t="s">
+      <c r="C31" s="75">
+        <f>'Table1 &amp; Fig1'!C6</f>
+        <v/>
+      </c>
+      <c r="D31" s="67">
+        <f>'Table1 &amp; Fig1'!E6</f>
+        <v/>
+      </c>
+      <c r="E31" s="92" t="n"/>
+      <c r="F31" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="32" s="68" spans="1:6">
+      <c r="B32" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="83" t="n"/>
-      <c r="E32" s="103" t="n">
+      <c r="C32" s="78">
+        <f>SUM(C28:C31)</f>
+        <v/>
+      </c>
+      <c r="E32" s="97" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2326,176 +2435,263 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="1025" min="1" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="74" spans="1:6">
-      <c r="A1" s="104" t="s">
+    <row customHeight="1" ht="15.75" r="1" s="68" spans="1:6">
+      <c r="A1" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="99" t="s">
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="74" spans="1:6">
-      <c r="A2" s="106" t="s">
+    <row customHeight="1" ht="15.75" r="2" s="68" spans="1:6">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="80" t="n"/>
-      <c r="D2" s="80" t="n"/>
-      <c r="E2" s="80" t="n">
+      <c r="C2" s="75">
+        <f>'Table1 &amp; Fig1'!C26</f>
+        <v/>
+      </c>
+      <c r="D2" s="75">
+        <f>Fig2C!B22+Fig2C!B23+0.12</f>
+        <v/>
+      </c>
+      <c r="E2" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="96" t="s">
         <v>48</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3" s="74" spans="1:6">
-      <c r="A3" s="106" t="s">
+    <row customHeight="1" ht="15.75" r="3" s="68" spans="1:6">
+      <c r="A3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80" t="n"/>
-      <c r="D3" s="80" t="n"/>
-      <c r="E3" s="80" t="n"/>
-      <c r="F3" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="74" spans="1:6">
-      <c r="A4" s="106" t="s">
+      <c r="C3" s="75">
+        <f>'Table1 &amp; Fig1'!C10</f>
+        <v/>
+      </c>
+      <c r="D3" s="75">
+        <f>'Table1 &amp; Fig1'!C11</f>
+        <v/>
+      </c>
+      <c r="E3" s="75" t="n"/>
+      <c r="F3" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="68" spans="1:6">
+      <c r="A4" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="80" t="n"/>
-      <c r="D4" s="80" t="n"/>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" s="74" spans="1:6">
-      <c r="A5" s="106" t="s">
+      <c r="C4" s="75">
+        <f>'Table1 &amp; Fig1'!C24</f>
+        <v/>
+      </c>
+      <c r="D4" s="75">
+        <f>'Table1 &amp; Fig1'!C23</f>
+        <v/>
+      </c>
+      <c r="E4" s="75" t="n"/>
+      <c r="F4" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" s="68" spans="1:6">
+      <c r="A5" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="80" t="n"/>
-      <c r="D5" s="86" t="n"/>
-      <c r="E5" s="86" t="n"/>
-      <c r="F5" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="74" spans="1:6">
-      <c r="B6" s="102" t="s">
+      <c r="C5" s="75">
+        <f>'Table1 &amp; Fig1'!C13</f>
+        <v/>
+      </c>
+      <c r="D5" s="81">
+        <f>'Table1 &amp; Fig1'!C14</f>
+        <v/>
+      </c>
+      <c r="E5" s="81" t="n"/>
+      <c r="F5" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="68" spans="1:6">
+      <c r="B6" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="80" t="n"/>
-      <c r="D6" s="86" t="n"/>
-      <c r="E6" s="86" t="n"/>
-      <c r="F6" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" s="74" spans="1:6">
-      <c r="B7" s="102" t="s">
+      <c r="C6" s="75">
+        <f>'Table1 &amp; Fig1'!C19</f>
+        <v/>
+      </c>
+      <c r="D6" s="81" t="n"/>
+      <c r="E6" s="81" t="n"/>
+      <c r="F6" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="68" spans="1:6">
+      <c r="B7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="80" t="n"/>
-      <c r="D7" s="86" t="n"/>
-      <c r="E7" s="86" t="n"/>
-      <c r="F7" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="74" spans="1:6">
-      <c r="B8" s="102" t="s">
+      <c r="C7" s="75">
+        <f>'Table1 &amp; Fig1'!C20</f>
+        <v/>
+      </c>
+      <c r="D7" s="81" t="n"/>
+      <c r="E7" s="81" t="n"/>
+      <c r="F7" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="68" spans="1:6">
+      <c r="B8" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="99" t="n"/>
-      <c r="D8" s="86" t="n"/>
-      <c r="E8" s="86" t="n"/>
-      <c r="F8" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" s="74" spans="1:6">
-      <c r="B9" s="102" t="s">
+      <c r="C8" s="93">
+        <f>Fig2A!C9</f>
+        <v/>
+      </c>
+      <c r="D8" s="81">
+        <f>Fig2A!C23</f>
+        <v/>
+      </c>
+      <c r="E8" s="81" t="n"/>
+      <c r="F8" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="68" spans="1:6">
+      <c r="B9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="80" t="n"/>
-      <c r="D9" s="86" t="n"/>
-      <c r="E9" s="86" t="n"/>
-      <c r="F9" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="10" s="74" spans="1:6">
-      <c r="B10" s="102" t="s">
+      <c r="C9" s="75">
+        <f>'Table1 &amp; Fig1'!C21</f>
+        <v/>
+      </c>
+      <c r="D9" s="81">
+        <f>Fig2A!C23</f>
+        <v/>
+      </c>
+      <c r="E9" s="81" t="n"/>
+      <c r="F9" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" s="68" spans="1:6">
+      <c r="B10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="80" t="n"/>
-      <c r="D10" s="86" t="n"/>
-      <c r="E10" s="86" t="n"/>
-      <c r="F10" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" s="74" spans="1:6">
-      <c r="B11" s="102" t="s">
+      <c r="C10" s="75">
+        <f>'Table1 &amp; Fig1'!C12</f>
+        <v/>
+      </c>
+      <c r="D10" s="81" t="n"/>
+      <c r="E10" s="81" t="n"/>
+      <c r="F10" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" s="68" spans="1:6">
+      <c r="B11" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="80" t="n"/>
-      <c r="D11" s="86" t="n"/>
-      <c r="E11" s="86" t="n"/>
-      <c r="F11" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" s="74" spans="1:6">
-      <c r="B12" s="102" t="s">
+      <c r="C11" s="75">
+        <f>Fig2A!C12</f>
+        <v/>
+      </c>
+      <c r="D11" s="81">
+        <f>Fig2A!C24</f>
+        <v/>
+      </c>
+      <c r="E11" s="81" t="n"/>
+      <c r="F11" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" s="68" spans="1:6">
+      <c r="B12" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="86" t="n"/>
-      <c r="D12" s="80" t="n"/>
-      <c r="E12" s="86" t="n"/>
-      <c r="F12" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" s="74" spans="1:6">
-      <c r="B13" s="102" t="s">
+      <c r="C12" s="81" t="n"/>
+      <c r="D12" s="75">
+        <f>'Table1 &amp; Fig1'!C18</f>
+        <v/>
+      </c>
+      <c r="E12" s="81" t="n"/>
+      <c r="F12" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="68" spans="1:6">
+      <c r="B13" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="86" t="n"/>
-      <c r="D13" s="80" t="n"/>
-      <c r="E13" s="86" t="n"/>
-      <c r="F13" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="74" spans="1:6">
-      <c r="B14" s="102" t="s">
+      <c r="C13" s="81" t="n"/>
+      <c r="D13" s="75">
+        <f>'Table1 &amp; Fig1'!C16</f>
+        <v/>
+      </c>
+      <c r="E13" s="81" t="n"/>
+      <c r="F13" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="68" spans="1:6">
+      <c r="B14" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="86" t="n"/>
-      <c r="D14" s="80" t="n"/>
-      <c r="E14" s="86" t="n"/>
-      <c r="F14" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" s="74" spans="1:6">
-      <c r="B15" s="102" t="s">
+      <c r="C14" s="81" t="n"/>
+      <c r="D14" s="75">
+        <f>'Table1 &amp; Fig1'!C15</f>
+        <v/>
+      </c>
+      <c r="E14" s="81" t="n"/>
+      <c r="F14" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="68" spans="1:6">
+      <c r="B15" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="86" t="n"/>
-      <c r="D15" s="86" t="n"/>
-      <c r="E15" s="86" t="n"/>
-      <c r="F15" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="16" s="74" spans="1:6">
-      <c r="A16" s="106" t="s">
+      <c r="C15" s="81">
+        <f>SUM(C5:C14)</f>
+        <v/>
+      </c>
+      <c r="D15" s="81">
+        <f>SUM(D5:D14)</f>
+        <v/>
+      </c>
+      <c r="E15" s="81">
+        <f>SUM(E5:E14)</f>
+        <v/>
+      </c>
+      <c r="F15" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" s="68" spans="1:6">
+      <c r="A16" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="86" t="n"/>
-      <c r="D16" s="86" t="n"/>
-      <c r="E16" s="86" t="n"/>
-      <c r="F16" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="74" spans="1:6">
-      <c r="A17" s="107" t="s">
+      <c r="C16" s="81">
+        <f>'Table1 &amp; Fig1'!C4</f>
+        <v/>
+      </c>
+      <c r="D16" s="81">
+        <f>'Table1 &amp; Fig1'!C3</f>
+        <v/>
+      </c>
+      <c r="E16" s="81">
+        <f>'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C5</f>
+        <v/>
+      </c>
+      <c r="F16" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="68" spans="1:6">
+      <c r="A17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="88" t="n"/>
-      <c r="D17" s="88" t="n"/>
-      <c r="E17" s="88" t="n"/>
-      <c r="F17" s="100" t="n"/>
+      <c r="C17" s="83">
+        <f>'Table1 &amp; Fig1'!C8</f>
+        <v/>
+      </c>
+      <c r="D17" s="83">
+        <f>'Table1 &amp; Fig1'!C7</f>
+        <v/>
+      </c>
+      <c r="E17" s="83">
+        <f>'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C9</f>
+        <v/>
+      </c>
+      <c r="F17" s="94" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2523,477 +2719,603 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I29" activeCellId="0" pane="topLeft" sqref="I29"/>
+      <selection activeCell="C29" activeCellId="0" pane="topLeft" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="1025" min="1" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="74" spans="1:8">
-      <c r="A1" s="108" t="s">
+    <row customHeight="1" ht="15.75" r="1" s="68" spans="1:8">
+      <c r="A1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="73" t="n"/>
-      <c r="H1" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="74" spans="1:8">
-      <c r="A2" s="108" t="s">
+      <c r="G1" s="67" t="n"/>
+      <c r="H1" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="68" spans="1:8">
+      <c r="A2" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="86" t="n"/>
-      <c r="H2" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="74" spans="1:8">
-      <c r="A3" s="109" t="s">
+      <c r="G2" s="81" t="n"/>
+      <c r="H2" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" s="68" spans="1:8">
+      <c r="A3" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="73" t="n"/>
-      <c r="H3" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="74" spans="1:8">
-      <c r="A4" s="106" t="s">
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="68" spans="1:8">
+      <c r="A4" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="80" t="n"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="75">
+        <f>'Table1 &amp; Fig1'!C26</f>
+        <v/>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="111" t="n"/>
-      <c r="G4" s="80" t="n"/>
-      <c r="H4" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" s="74" spans="1:8">
-      <c r="A5" s="112" t="n"/>
-      <c r="B5" s="73" t="n"/>
-      <c r="C5" s="98" t="n"/>
-      <c r="D5" s="81" t="s">
+      <c r="E4" s="75">
+        <f>'Table1 &amp; Fig1'!C4</f>
+        <v/>
+      </c>
+      <c r="F4" s="105">
+        <f>'Table1 &amp; Fig1'!E4</f>
+        <v/>
+      </c>
+      <c r="G4" s="75" t="n"/>
+      <c r="H4" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" s="68" spans="1:8">
+      <c r="A5" s="106" t="n"/>
+      <c r="B5" s="67" t="n"/>
+      <c r="C5" s="92" t="n"/>
+      <c r="D5" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="73" t="n"/>
-      <c r="F5" s="102" t="n"/>
-      <c r="G5" s="86" t="n"/>
-      <c r="H5" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="74" spans="1:8">
-      <c r="A6" s="112" t="n"/>
-      <c r="B6" s="73" t="n"/>
-      <c r="C6" s="98" t="n"/>
-      <c r="D6" s="81" t="s">
+      <c r="E5" s="67">
+        <f>'Table1 &amp; Fig1'!C8</f>
+        <v/>
+      </c>
+      <c r="F5" s="96">
+        <f>'Table1 &amp; Fig1'!E8</f>
+        <v/>
+      </c>
+      <c r="G5" s="81" t="n"/>
+      <c r="H5" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="68" spans="1:8">
+      <c r="A6" s="106" t="n"/>
+      <c r="B6" s="67" t="n"/>
+      <c r="C6" s="92" t="n"/>
+      <c r="D6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="73" t="n"/>
-      <c r="F6" s="102" t="n"/>
-      <c r="G6" s="86" t="n"/>
-      <c r="H6" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" s="74" spans="1:8">
-      <c r="A7" s="112" t="n"/>
-      <c r="B7" s="73" t="n"/>
-      <c r="C7" s="98" t="n"/>
-      <c r="D7" s="86" t="s">
+      <c r="E6" s="67">
+        <f>'Table1 &amp; Fig1'!C10</f>
+        <v/>
+      </c>
+      <c r="F6" s="96">
+        <f>'Table1 &amp; Fig1'!E10</f>
+        <v/>
+      </c>
+      <c r="G6" s="81" t="n"/>
+      <c r="H6" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="68" spans="1:8">
+      <c r="A7" s="106" t="n"/>
+      <c r="B7" s="67" t="n"/>
+      <c r="C7" s="92" t="n"/>
+      <c r="D7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="102" t="n"/>
-      <c r="G7" s="86" t="n"/>
-      <c r="H7" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="74" spans="1:8">
-      <c r="A8" s="112" t="n"/>
-      <c r="B8" s="73" t="n"/>
-      <c r="C8" s="98" t="n"/>
-      <c r="D8" s="86" t="s">
+      <c r="E7" s="75">
+        <f>'Table1 &amp; Fig1'!C24</f>
+        <v/>
+      </c>
+      <c r="F7" s="96">
+        <f>'Table1 &amp; Fig1'!E24</f>
+        <v/>
+      </c>
+      <c r="G7" s="81" t="n"/>
+      <c r="H7" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="68" spans="1:8">
+      <c r="A8" s="106" t="n"/>
+      <c r="B8" s="67" t="n"/>
+      <c r="C8" s="92" t="n"/>
+      <c r="D8" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="80" t="n"/>
-      <c r="F8" s="102" t="n"/>
-      <c r="G8" s="86" t="n"/>
-      <c r="H8" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" s="74" spans="1:8">
-      <c r="A9" s="112" t="n"/>
-      <c r="B9" s="73" t="n"/>
-      <c r="C9" s="98" t="n"/>
-      <c r="D9" s="86" t="s">
+      <c r="E8" s="75">
+        <f>'Table1 &amp; Fig1'!C13</f>
+        <v/>
+      </c>
+      <c r="F8" s="96">
+        <f>'Table1 &amp; Fig1'!E13</f>
+        <v/>
+      </c>
+      <c r="G8" s="81" t="n"/>
+      <c r="H8" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="68" spans="1:8">
+      <c r="A9" s="106" t="n"/>
+      <c r="B9" s="67" t="n"/>
+      <c r="C9" s="92" t="n"/>
+      <c r="D9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="80" t="n"/>
-      <c r="F9" s="102" t="n"/>
-      <c r="G9" s="86" t="n"/>
-      <c r="H9" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="10" s="74" spans="1:8">
-      <c r="A10" s="112" t="n"/>
-      <c r="B10" s="73" t="n"/>
-      <c r="C10" s="98" t="n"/>
-      <c r="D10" s="86" t="s">
+      <c r="E9" s="75">
+        <f>'Table1 &amp; Fig1'!C20</f>
+        <v/>
+      </c>
+      <c r="F9" s="96" t="n"/>
+      <c r="G9" s="81" t="n"/>
+      <c r="H9" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" s="68" spans="1:8">
+      <c r="A10" s="106" t="n"/>
+      <c r="B10" s="67" t="n"/>
+      <c r="C10" s="92" t="n"/>
+      <c r="D10" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="80" t="n"/>
-      <c r="F10" s="102" t="n"/>
-      <c r="G10" s="86" t="n"/>
-      <c r="H10" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" s="74" spans="1:8">
-      <c r="A11" s="112" t="n"/>
-      <c r="B11" s="73" t="n"/>
-      <c r="C11" s="98" t="n"/>
-      <c r="D11" s="86" t="s">
+      <c r="E10" s="75">
+        <f>'Table1 &amp; Fig1'!C19</f>
+        <v/>
+      </c>
+      <c r="F10" s="96" t="n"/>
+      <c r="G10" s="81" t="n"/>
+      <c r="H10" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" s="68" spans="1:8">
+      <c r="A11" s="106" t="n"/>
+      <c r="B11" s="67" t="n"/>
+      <c r="C11" s="92" t="n"/>
+      <c r="D11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="99" t="n"/>
-      <c r="F11" s="102" t="n"/>
-      <c r="G11" s="86" t="n"/>
-      <c r="H11" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" s="74" spans="1:8">
-      <c r="A12" s="112" t="n"/>
-      <c r="B12" s="73" t="n"/>
-      <c r="C12" s="98" t="n"/>
-      <c r="D12" s="86" t="s">
+      <c r="E11" s="93">
+        <f>Fig2A!C9</f>
+        <v/>
+      </c>
+      <c r="F11" s="96">
+        <f>Fig2A!D9</f>
+        <v/>
+      </c>
+      <c r="G11" s="81" t="n"/>
+      <c r="H11" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" s="68" spans="1:8">
+      <c r="A12" s="106" t="n"/>
+      <c r="B12" s="67" t="n"/>
+      <c r="C12" s="92" t="n"/>
+      <c r="D12" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="80" t="n"/>
-      <c r="F12" s="102" t="n"/>
-      <c r="G12" s="86" t="n"/>
-      <c r="H12" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" s="74" spans="1:8">
-      <c r="A13" s="112" t="n"/>
-      <c r="B13" s="73" t="n"/>
-      <c r="C13" s="98" t="n"/>
-      <c r="D13" s="86" t="s">
+      <c r="E12" s="75">
+        <f>'Table1 &amp; Fig1'!C21</f>
+        <v/>
+      </c>
+      <c r="F12" s="96" t="n"/>
+      <c r="G12" s="81" t="n"/>
+      <c r="H12" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="68" spans="1:8">
+      <c r="A13" s="106" t="n"/>
+      <c r="B13" s="67" t="n"/>
+      <c r="C13" s="92" t="n"/>
+      <c r="D13" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="80" t="n"/>
-      <c r="F13" s="98" t="n"/>
-      <c r="G13" s="73" t="n"/>
-      <c r="H13" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="74" spans="1:8">
-      <c r="A14" s="107" t="n"/>
-      <c r="B14" s="88" t="n"/>
-      <c r="C14" s="100" t="n"/>
-      <c r="D14" s="88" t="s">
+      <c r="E13" s="75">
+        <f>'Table1 &amp; Fig1'!C12</f>
+        <v/>
+      </c>
+      <c r="F13" s="92" t="n"/>
+      <c r="G13" s="67" t="n"/>
+      <c r="H13" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="68" spans="1:8">
+      <c r="A14" s="101" t="n"/>
+      <c r="B14" s="83" t="n"/>
+      <c r="C14" s="94" t="n"/>
+      <c r="D14" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="82" t="n"/>
-      <c r="F14" s="103" t="n"/>
-      <c r="G14" s="73" t="n"/>
-      <c r="H14" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" s="74" spans="1:8">
-      <c r="A15" s="73" t="n"/>
-      <c r="B15" s="73" t="n"/>
-      <c r="C15" s="73" t="n"/>
-      <c r="D15" s="73" t="n"/>
-      <c r="E15" s="73" t="n"/>
-      <c r="F15" s="73" t="n"/>
-      <c r="G15" s="73" t="n"/>
-      <c r="H15" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="37.5" r="16" s="74" spans="1:8">
-      <c r="A16" s="109" t="n"/>
-      <c r="B16" s="90" t="s">
+      <c r="E14" s="77">
+        <f>Fig2A!C12</f>
+        <v/>
+      </c>
+      <c r="F14" s="97" t="n"/>
+      <c r="G14" s="67" t="n"/>
+      <c r="H14" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="68" spans="1:8">
+      <c r="A15" s="67" t="n"/>
+      <c r="B15" s="67" t="n"/>
+      <c r="C15" s="67" t="n"/>
+      <c r="D15" s="67" t="n"/>
+      <c r="E15" s="67" t="n"/>
+      <c r="F15" s="67" t="n"/>
+      <c r="G15" s="67" t="n"/>
+      <c r="H15" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="37.5" r="16" s="68" spans="1:8">
+      <c r="A16" s="103" t="n"/>
+      <c r="B16" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="109" t="n"/>
-      <c r="E16" s="90" t="s">
+      <c r="D16" s="103" t="n"/>
+      <c r="E16" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="73" t="n"/>
-      <c r="H16" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="74" spans="1:8">
-      <c r="A17" s="107" t="s">
+      <c r="G16" s="67" t="n"/>
+      <c r="H16" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="68" spans="1:8">
+      <c r="A17" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="88" t="n"/>
-      <c r="C17" s="88" t="n">
+      <c r="B17" s="83">
+        <f>B4</f>
+        <v/>
+      </c>
+      <c r="C17" s="83" t="n">
         <v>450</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="88" t="n"/>
-      <c r="F17" s="103" t="n">
+      <c r="E17" s="83">
+        <f>SUM(E4:E14)</f>
+        <v/>
+      </c>
+      <c r="F17" s="97" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="73" t="n"/>
-      <c r="H17" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="74" spans="1:8">
-      <c r="A18" s="73" t="n"/>
-      <c r="B18" s="73" t="n"/>
-      <c r="C18" s="73" t="n"/>
-      <c r="D18" s="73" t="n"/>
-      <c r="E18" s="73" t="n"/>
-      <c r="F18" s="73" t="n"/>
-      <c r="G18" s="73" t="n"/>
-      <c r="H18" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="74" spans="1:8">
-      <c r="A19" s="108" t="s">
+      <c r="G17" s="67" t="n"/>
+      <c r="H17" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" s="68" spans="1:8">
+      <c r="A18" s="67" t="n"/>
+      <c r="B18" s="67" t="n"/>
+      <c r="C18" s="67" t="n"/>
+      <c r="D18" s="67" t="n"/>
+      <c r="E18" s="67" t="n"/>
+      <c r="F18" s="67" t="n"/>
+      <c r="G18" s="67" t="n"/>
+      <c r="H18" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" s="68" spans="1:8">
+      <c r="A19" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="73" t="n"/>
-      <c r="H19" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" s="74" spans="1:8">
-      <c r="A20" s="108" t="s">
+      <c r="G19" s="67" t="n"/>
+      <c r="H19" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" s="68" spans="1:8">
+      <c r="A20" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="73" t="n"/>
-      <c r="H20" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21" s="74" spans="1:8">
-      <c r="A21" s="109" t="s">
+      <c r="G20" s="67" t="n"/>
+      <c r="H20" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" s="68" spans="1:8">
+      <c r="A21" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="73" t="n"/>
-      <c r="H21" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="22" s="74" spans="1:8">
-      <c r="A22" s="106" t="s">
+      <c r="G21" s="67" t="n"/>
+      <c r="H21" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="22" s="68" spans="1:8">
+      <c r="A22" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="80" t="n">
+      <c r="B22" s="75" t="n">
         <v>0.1125</v>
       </c>
-      <c r="C22" s="98" t="n">
+      <c r="C22" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="98" t="n"/>
-      <c r="G22" s="80" t="n"/>
-      <c r="H22" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="74" spans="1:8">
-      <c r="A23" s="106" t="s">
+      <c r="E22" s="75">
+        <f>'Table1 &amp; Fig1'!C3</f>
+        <v/>
+      </c>
+      <c r="F22" s="92">
+        <f>'Table1 &amp; Fig1'!E3</f>
+        <v/>
+      </c>
+      <c r="G22" s="75" t="n"/>
+      <c r="H22" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="68" spans="1:8">
+      <c r="A23" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="80" t="n">
+      <c r="B23" s="75" t="n">
         <v>0.1382931668593936</v>
       </c>
-      <c r="C23" s="98" t="n">
+      <c r="C23" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="98" t="n"/>
-      <c r="G23" s="80" t="n"/>
-      <c r="H23" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="24" s="74" spans="1:8">
-      <c r="A24" s="106" t="s">
+      <c r="E23" s="75">
+        <f>'Table1 &amp; Fig1'!C7</f>
+        <v/>
+      </c>
+      <c r="F23" s="92">
+        <f>'Table1 &amp; Fig1'!E7</f>
+        <v/>
+      </c>
+      <c r="G23" s="75" t="n"/>
+      <c r="H23" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="24" s="68" spans="1:8">
+      <c r="A24" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="80" t="n">
-        <v>0.4233202097703351</v>
-      </c>
-      <c r="C24" s="98" t="n">
+      <c r="B24" s="75" t="n">
+        <v>0.1230726614646813</v>
+      </c>
+      <c r="C24" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="73" t="n"/>
-      <c r="F24" s="98" t="n"/>
-      <c r="G24" s="80" t="n"/>
-      <c r="H24" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="25" s="74" spans="1:8">
-      <c r="A25" s="106" t="s">
+      <c r="E24" s="67">
+        <f>'Table1 &amp; Fig1'!C23-SUM(B24:B26)</f>
+        <v/>
+      </c>
+      <c r="F24" s="92">
+        <f>'Table1 &amp; Fig1'!E23</f>
+        <v/>
+      </c>
+      <c r="G24" s="75" t="n"/>
+      <c r="H24" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="25" s="68" spans="1:8">
+      <c r="A25" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="80" t="n">
+      <c r="B25" s="75" t="n">
+        <v>0.1771748868409725</v>
+      </c>
+      <c r="C25" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="75">
+        <f>'Table1 &amp; Fig1'!C14</f>
+        <v/>
+      </c>
+      <c r="F25" s="92">
+        <f>'Table1 &amp; Fig1'!E14</f>
+        <v/>
+      </c>
+      <c r="G25" s="75" t="n"/>
+      <c r="H25" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="26" s="68" spans="1:8">
+      <c r="A26" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="75" t="n">
+        <v>0.1230726614646813</v>
+      </c>
+      <c r="C26" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="75">
+        <f>'Table1 &amp; Fig1'!C18</f>
+        <v/>
+      </c>
+      <c r="F26" s="92">
+        <f>'Table1 &amp; Fig1'!E18</f>
+        <v/>
+      </c>
+      <c r="G26" s="81" t="n"/>
+      <c r="H26" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="68" spans="1:8">
+      <c r="A27" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="81" t="n">
         <v>0.3065941943351184</v>
       </c>
-      <c r="C25" s="98" t="n">
+      <c r="C27" s="96" t="n">
         <v>10</v>
       </c>
-      <c r="D25" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="98" t="n"/>
-      <c r="G25" s="80" t="n"/>
-      <c r="H25" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="26" s="74" spans="1:8">
-      <c r="A26" s="106" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="80" t="n">
+      <c r="D27" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="75">
+        <f>'Table1 &amp; Fig1'!C16</f>
+        <v/>
+      </c>
+      <c r="F27" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="81" t="n"/>
+      <c r="H27" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="28" s="68" spans="1:8">
+      <c r="A28" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="67" t="n">
         <v>0.2794637722496416</v>
       </c>
-      <c r="C26" s="98" t="n">
+      <c r="C28" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="D26" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="98" t="n"/>
-      <c r="G26" s="86" t="n"/>
-      <c r="H26" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="74" spans="1:8">
-      <c r="A27" s="106" t="n"/>
-      <c r="B27" s="86" t="n"/>
-      <c r="C27" s="102" t="n"/>
-      <c r="D27" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="80" t="n"/>
-      <c r="F27" s="98" t="n">
+      <c r="D28" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="75">
+        <f>'Table1 &amp; Fig1'!C15</f>
+        <v/>
+      </c>
+      <c r="F28" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="G27" s="86" t="n"/>
-      <c r="H27" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="28" s="74" spans="1:8">
-      <c r="A28" s="112" t="n"/>
-      <c r="B28" s="73" t="n"/>
-      <c r="C28" s="98" t="n"/>
-      <c r="D28" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="98" t="n">
+      <c r="G28" s="81" t="n"/>
+      <c r="H28" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="29" s="68" spans="1:8">
+      <c r="A29" s="106" t="n"/>
+      <c r="B29" s="67" t="n"/>
+      <c r="C29" s="92" t="n"/>
+      <c r="D29" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="75">
+        <f>Fig2A!C23</f>
+        <v/>
+      </c>
+      <c r="F29" s="92">
+        <f>Fig2A!D23</f>
+        <v/>
+      </c>
+      <c r="G29" s="81" t="n"/>
+      <c r="H29" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="30" s="68" spans="1:8">
+      <c r="A30" s="106" t="n"/>
+      <c r="B30" s="67" t="n"/>
+      <c r="C30" s="92" t="n"/>
+      <c r="D30" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="75">
+        <f>Fig2A!C24</f>
+        <v/>
+      </c>
+      <c r="F30" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="86" t="n"/>
-      <c r="H28" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="29" s="74" spans="1:8">
-      <c r="A29" s="112" t="n"/>
-      <c r="B29" s="73" t="n"/>
-      <c r="C29" s="98" t="n"/>
-      <c r="D29" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="80" t="n"/>
-      <c r="F29" s="98" t="n"/>
-      <c r="G29" s="86" t="n"/>
-      <c r="H29" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="30" s="74" spans="1:8">
-      <c r="A30" s="112" t="n"/>
-      <c r="B30" s="73" t="n"/>
-      <c r="C30" s="98" t="n"/>
-      <c r="D30" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="80" t="n"/>
-      <c r="F30" s="98" t="n">
+      <c r="G30" s="81" t="n"/>
+      <c r="H30" s="81" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="31" s="68" spans="1:8">
+      <c r="A31" s="109" t="n"/>
+      <c r="B31" s="78" t="n"/>
+      <c r="C31" s="97" t="n"/>
+      <c r="D31" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="77">
+        <f>'Table1 &amp; Fig1'!C11</f>
+        <v/>
+      </c>
+      <c r="F31" s="97" t="n">
         <v>10</v>
       </c>
-      <c r="G30" s="86" t="n"/>
-      <c r="H30" s="86" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="31" s="74" spans="1:8">
-      <c r="A31" s="115" t="n"/>
-      <c r="B31" s="83" t="n"/>
-      <c r="C31" s="103" t="n"/>
-      <c r="D31" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="82" t="n"/>
-      <c r="F31" s="103" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="32" s="74" spans="1:8">
-      <c r="A32" s="73" t="n"/>
-      <c r="B32" s="73" t="n"/>
-      <c r="C32" s="73" t="n"/>
-      <c r="D32" s="73" t="n"/>
-      <c r="E32" s="73" t="n"/>
-      <c r="F32" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="37.5" r="33" s="74" spans="1:8">
-      <c r="A33" s="109" t="n"/>
-      <c r="B33" s="90" t="s">
+    </row>
+    <row customHeight="1" ht="15.75" r="32" s="68" spans="1:8">
+      <c r="A32" s="67" t="n"/>
+      <c r="B32" s="67" t="n"/>
+      <c r="C32" s="67" t="n"/>
+      <c r="D32" s="67" t="n"/>
+      <c r="E32" s="67" t="n"/>
+      <c r="F32" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="37.5" r="33" s="68" spans="1:8">
+      <c r="A33" s="103" t="n"/>
+      <c r="B33" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="109" t="n"/>
-      <c r="E33" s="90" t="s">
+      <c r="D33" s="103" t="n"/>
+      <c r="E33" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="108" t="s">
         <v>58</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="34" s="74" spans="1:8">
-      <c r="A34" s="107" t="s">
+    <row customHeight="1" ht="15.75" r="34" s="68" spans="1:8">
+      <c r="A34" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="88" t="n"/>
-      <c r="C34" s="88" t="n">
+      <c r="B34" s="83">
+        <f>SUM(B22:B28)</f>
+        <v/>
+      </c>
+      <c r="C34" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="88" t="n"/>
-      <c r="F34" s="103" t="n">
+      <c r="E34" s="83">
+        <f>SUM(E22:E31)</f>
+        <v/>
+      </c>
+      <c r="F34" s="97" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3027,227 +3349,343 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="1025" min="1" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="37.5" r="1" s="74" spans="1:5">
-      <c r="A1" s="76" t="n">
+    <row customHeight="1" ht="37.5" r="1" s="68" spans="1:5">
+      <c r="A1" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="n">
+      <c r="B1" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="74" spans="1:5">
-      <c r="A2" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="2" s="68" spans="1:5">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="77" t="n"/>
-      <c r="D2" s="77" t="n"/>
-      <c r="E2" s="97" t="n">
+      <c r="C2" s="73">
+        <f>'Table1 &amp; Fig1'!C3</f>
+        <v/>
+      </c>
+      <c r="D2" s="73">
+        <f>SUM(C2:C3)</f>
+        <v/>
+      </c>
+      <c r="E2" s="91" t="n">
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3" s="74" spans="1:5">
-      <c r="B3" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="3" s="68" spans="1:5">
+      <c r="A3" s="70" t="s"/>
+      <c r="B3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="82" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="74" spans="1:5">
-      <c r="A4" s="76" t="s">
+      <c r="C3" s="77">
+        <f>'Table1 &amp; Fig1'!C4</f>
+        <v/>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="68" spans="1:5">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="77" t="n"/>
-      <c r="D4" s="77" t="n"/>
-      <c r="E4" s="97" t="n">
+      <c r="B4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="73">
+        <f>'Table1 &amp; Fig1'!C7</f>
+        <v/>
+      </c>
+      <c r="D4" s="73">
+        <f>SUM(C4:C5)</f>
+        <v/>
+      </c>
+      <c r="E4" s="91" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5" s="74" spans="1:5">
-      <c r="B5" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="5" s="68" spans="1:5">
+      <c r="A5" s="70" t="s"/>
+      <c r="B5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="82" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="74" spans="1:5">
-      <c r="A6" s="76" t="s">
+      <c r="C5" s="77">
+        <f>'Table1 &amp; Fig1'!C8</f>
+        <v/>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="68" spans="1:5">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="77" t="n"/>
-      <c r="D6" s="77" t="n"/>
-      <c r="E6" s="97" t="n">
+      <c r="C6" s="73">
+        <f>'Table1 &amp; Fig1'!C10</f>
+        <v/>
+      </c>
+      <c r="D6" s="73">
+        <f>SUM(C6:C7)</f>
+        <v/>
+      </c>
+      <c r="E6" s="91" t="n">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="7" s="74" spans="1:5">
-      <c r="B7" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="7" s="68" spans="1:5">
+      <c r="A7" s="70" t="s"/>
+      <c r="B7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="82" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="74" spans="1:5">
-      <c r="A8" s="76" t="s">
+      <c r="C7" s="77">
+        <f>'Table1 &amp; Fig1'!C11</f>
+        <v/>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="68" spans="1:5">
+      <c r="A8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="77" t="n"/>
-      <c r="D8" s="77" t="n"/>
-      <c r="E8" s="97" t="n">
+      <c r="C8" s="73">
+        <f>'Table1 &amp; Fig1'!C12</f>
+        <v/>
+      </c>
+      <c r="D8" s="73">
+        <f>SUM(C8:C18)</f>
+        <v/>
+      </c>
+      <c r="E8" s="91" t="n">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="9" s="74" spans="1:5">
-      <c r="B9" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="9" s="68" spans="1:5">
+      <c r="A9" s="70" t="s"/>
+      <c r="B9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="10" s="74" spans="1:5">
-      <c r="B10" s="76" t="s">
+      <c r="C9" s="75">
+        <f>'Table1 &amp; Fig1'!C13</f>
+        <v/>
+      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" s="68" spans="1:5">
+      <c r="A10" s="70" t="n"/>
+      <c r="B10" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" s="74" spans="1:5">
-      <c r="B11" s="76" t="s">
+      <c r="C10" s="75">
+        <f>'Table1 &amp; Fig1'!C14</f>
+        <v/>
+      </c>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" s="68" spans="1:5">
+      <c r="A11" s="70" t="n"/>
+      <c r="B11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" s="74" spans="1:5">
-      <c r="B12" s="76" t="s">
+      <c r="C11" s="75">
+        <f>'Table1 &amp; Fig1'!C15</f>
+        <v/>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" s="68" spans="1:5">
+      <c r="A12" s="70" t="n"/>
+      <c r="B12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" s="74" spans="1:5">
-      <c r="B13" s="76" t="s">
+      <c r="C12" s="75">
+        <f>'Table1 &amp; Fig1'!C16</f>
+        <v/>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="68" spans="1:5">
+      <c r="A13" s="70" t="n"/>
+      <c r="B13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="74" spans="1:5">
-      <c r="B14" s="76" t="s">
+      <c r="C13" s="75">
+        <f>'Table1 &amp; Fig1'!C17</f>
+        <v/>
+      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="68" spans="1:5">
+      <c r="A14" s="70" t="n"/>
+      <c r="B14" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" s="74" spans="1:5">
-      <c r="B15" s="76" t="s">
+      <c r="C14" s="75">
+        <f>'Table1 &amp; Fig1'!C18</f>
+        <v/>
+      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="68" spans="1:5">
+      <c r="A15" s="70" t="n"/>
+      <c r="B15" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="16" s="74" spans="1:5">
-      <c r="B16" s="76" t="s">
+      <c r="C15" s="75">
+        <f>'Table1 &amp; Fig1'!C19</f>
+        <v/>
+      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" s="68" spans="1:5">
+      <c r="A16" s="70" t="n"/>
+      <c r="B16" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="74" spans="1:5">
-      <c r="B17" s="76" t="s">
+      <c r="C16" s="75">
+        <f>'Table1 &amp; Fig1'!C20</f>
+        <v/>
+      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="68" spans="1:5">
+      <c r="A17" s="70" t="n"/>
+      <c r="B17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="80" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="74" spans="1:5">
-      <c r="B18" s="76" t="s">
+      <c r="C17" s="75">
+        <f>'Table1 &amp; Fig1'!C21</f>
+        <v/>
+      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" s="68" spans="1:5">
+      <c r="A18" s="70" t="n"/>
+      <c r="B18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="87" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="74" spans="1:5">
-      <c r="A19" s="76" t="s">
+      <c r="C18" s="82">
+        <f>'Table1 &amp; Fig1'!C22</f>
+        <v/>
+      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" s="68" spans="1:5">
+      <c r="A19" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="77" t="n"/>
-      <c r="D19" s="77" t="n"/>
-      <c r="E19" s="97" t="n">
+      <c r="C19" s="73">
+        <f>'Table1 &amp; Fig1'!C23</f>
+        <v/>
+      </c>
+      <c r="D19" s="73">
+        <f>SUM(C19:C20)</f>
+        <v/>
+      </c>
+      <c r="E19" s="91" t="n">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="20" s="74" spans="1:5">
-      <c r="B20" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="20" s="68" spans="1:5">
+      <c r="A20" s="70" t="s"/>
+      <c r="B20" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="82" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21" s="74" spans="1:5">
-      <c r="A21" s="76" t="s">
+      <c r="C20" s="77">
+        <f>'Table1 &amp; Fig1'!C24</f>
+        <v/>
+      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" s="68" spans="1:5">
+      <c r="A21" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="89" t="n"/>
-      <c r="D21" s="89" t="n"/>
-      <c r="E21" s="110" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="22" s="74" spans="1:5">
-      <c r="A22" s="76" t="s">
+      <c r="C21" s="84" t="n">
+        <v>0.0607263039426008</v>
+      </c>
+      <c r="D21" s="84" t="s"/>
+      <c r="E21" s="104" t="s"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="22" s="68" spans="1:5">
+      <c r="A22" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="119" t="n">
-        <v>152.0937148551444</v>
-      </c>
-      <c r="D22" s="119" t="n">
+      <c r="C22" s="110" t="n">
+        <v>152.093714855144</v>
+      </c>
+      <c r="D22" s="110" t="n">
         <v>152</v>
       </c>
-      <c r="E22" s="110" t="n">
+      <c r="E22" s="104" t="n">
         <v>150</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="23" s="74" spans="1:5">
-      <c r="A23" s="76" t="n"/>
-      <c r="B23" s="76" t="n"/>
-      <c r="C23" s="86" t="n"/>
-      <c r="D23" s="86" t="n"/>
-      <c r="E23" s="98" t="n"/>
+    <row customHeight="1" ht="15.75" r="23" s="68" spans="1:5">
+      <c r="A23" s="70" t="s"/>
+      <c r="B23" s="70" t="s"/>
+      <c r="C23" s="81" t="s"/>
+      <c r="D23" s="81" t="s"/>
+      <c r="E23" s="92" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A18"/>
     <mergeCell ref="D8:D18"/>
     <mergeCell ref="E8:E18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A18"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.9840277777777779" footer="0.511805555555555" header="0.511805555555555" left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779"/>
@@ -3264,212 +3702,323 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E27" activeCellId="0" pane="topLeft" sqref="E27"/>
+      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="1025" min="1" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" s="74" spans="1:5">
-      <c r="A1" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="76" t="s">
+    <row customHeight="1" ht="26.25" r="1" s="68" spans="1:5">
+      <c r="A1" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="88" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="74" spans="1:5">
-      <c r="A2" s="76" t="s">
+      <c r="E1" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="121" t="n"/>
-      <c r="C2" s="80" t="n"/>
-      <c r="D2" s="121" t="n"/>
-      <c r="E2" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="74" spans="1:5">
-      <c r="A3" s="76" t="s">
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="68" spans="1:5">
+      <c r="A2" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="111">
+        <f>'Table1 &amp; Fig1'!C26*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C2" s="75">
+        <f>'Table1 &amp; Fig1'!E26</f>
+        <v/>
+      </c>
+      <c r="D2" s="111">
+        <f>'Table S1'!D25</f>
+        <v/>
+      </c>
+      <c r="E2" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" s="68" spans="1:5">
+      <c r="A3" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="122" t="n"/>
-      <c r="C3" s="80" t="n"/>
-      <c r="D3" s="123" t="n"/>
-      <c r="E3" s="111" t="n">
+      <c r="B3" s="112">
+        <f>'Table1 &amp; Fig1'!C26*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C3" s="75">
+        <f>'Table1 &amp; Fig1'!E26</f>
+        <v/>
+      </c>
+      <c r="D3" s="113" t="n"/>
+      <c r="E3" s="105" t="n">
         <v>400000</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="4" s="74" spans="1:5">
-      <c r="A4" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="4" s="68" spans="1:5">
+      <c r="A4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="121" t="n"/>
-      <c r="C4" s="80" t="n"/>
-      <c r="D4" s="121" t="n"/>
-      <c r="E4" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" s="74" spans="1:5">
-      <c r="A5" s="76" t="s">
+      <c r="B4" s="111">
+        <f>'Table1 &amp; Fig1'!F2*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C4" s="75">
+        <f>'Table1 &amp; Fig1'!H2</f>
+        <v/>
+      </c>
+      <c r="D4" s="111">
+        <f>'Table S1'!F2</f>
+        <v/>
+      </c>
+      <c r="E4" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" s="68" spans="1:5">
+      <c r="A5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="121" t="n"/>
-      <c r="C5" s="80" t="n"/>
-      <c r="D5" s="121" t="n"/>
-      <c r="E5" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="74" spans="1:5">
-      <c r="A6" s="76" t="s">
+      <c r="B5" s="111">
+        <f>'Table1 &amp; Fig1'!F6*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C5" s="75">
+        <f>'Table1 &amp; Fig1'!H6</f>
+        <v/>
+      </c>
+      <c r="D5" s="111">
+        <f>'Table S1'!F6</f>
+        <v/>
+      </c>
+      <c r="E5" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="68" spans="1:5">
+      <c r="A6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="121" t="n"/>
-      <c r="C6" s="80" t="n"/>
-      <c r="D6" s="121" t="n"/>
-      <c r="E6" s="124" t="n">
+      <c r="B6" s="111">
+        <f>'Table1 &amp; Fig1'!F10*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C6" s="75">
+        <f>'Table1 &amp; Fig1'!H10</f>
+        <v/>
+      </c>
+      <c r="D6" s="111">
+        <f>'Table S1'!F10</f>
+        <v/>
+      </c>
+      <c r="E6" s="114" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="7" s="74" spans="1:5">
-      <c r="A7" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="7" s="68" spans="1:5">
+      <c r="A7" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="121" t="n"/>
-      <c r="C7" s="80" t="n">
-        <v>7.737787868674564</v>
-      </c>
-      <c r="D7" s="121" t="n"/>
-      <c r="E7" s="111" t="n">
+      <c r="B7" s="111">
+        <f>SUM('Table1 &amp; Fig1'!C13:C14)*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C7" s="75" t="n">
+        <v>7.6600817821125</v>
+      </c>
+      <c r="D7" s="111">
+        <f>'Table S1'!D14</f>
+        <v/>
+      </c>
+      <c r="E7" s="105" t="n">
         <v>943383</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="8" s="74" spans="1:5">
-      <c r="A8" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="8" s="68" spans="1:5">
+      <c r="A8" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="121" t="n"/>
-      <c r="C8" s="80" t="n">
+      <c r="B8" s="111">
+        <f>'Table1 &amp; Fig1'!C12*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C8" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="121" t="n"/>
-      <c r="E8" s="111" t="n">
+      <c r="D8" s="111">
+        <f>'Table S1'!D12</f>
+        <v/>
+      </c>
+      <c r="E8" s="105" t="n">
         <v>13199</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="9" s="74" spans="1:5">
-      <c r="A9" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="9" s="68" spans="1:5">
+      <c r="A9" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="121" t="n"/>
-      <c r="C9" s="80" t="n">
+      <c r="B9" s="111">
+        <f>'Table1 &amp; Fig1'!C16*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C9" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="D9" s="121" t="n"/>
-      <c r="E9" s="111" t="n">
+      <c r="D9" s="111">
+        <f>'Table S1'!D16</f>
+        <v/>
+      </c>
+      <c r="E9" s="105" t="n">
         <v>41642</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="10" s="74" spans="1:5">
-      <c r="A10" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="10" s="68" spans="1:5">
+      <c r="A10" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="121" t="n"/>
-      <c r="C10" s="80" t="n">
+      <c r="B10" s="111">
+        <f>'Table1 &amp; Fig1'!C15*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C10" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="121" t="n"/>
-      <c r="E10" s="111" t="n">
+      <c r="D10" s="111">
+        <f>'Table S1'!D15</f>
+        <v/>
+      </c>
+      <c r="E10" s="105" t="n">
         <v>11490</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="11" s="74" spans="1:5">
-      <c r="A11" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="11" s="68" spans="1:5">
+      <c r="A11" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="121" t="n"/>
-      <c r="C11" s="80" t="n"/>
-      <c r="D11" s="121" t="n"/>
-      <c r="E11" s="111" t="n">
+      <c r="B11" s="111">
+        <f>'Table1 &amp; Fig1'!C18*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C11" s="75">
+        <f>'Table1 &amp; Fig1'!E18</f>
+        <v/>
+      </c>
+      <c r="D11" s="111">
+        <f>'Table S1'!D18</f>
+        <v/>
+      </c>
+      <c r="E11" s="105" t="n">
         <v>18223</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="12" s="74" spans="1:5">
-      <c r="A12" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="12" s="68" spans="1:5">
+      <c r="A12" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="121" t="n"/>
-      <c r="C12" s="80" t="n">
+      <c r="B12" s="111">
+        <f>'Table1 &amp; Fig1'!C17*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C12" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="121" t="n"/>
-      <c r="E12" s="111" t="n">
+      <c r="D12" s="111">
+        <f>'Table S1'!D17</f>
+        <v/>
+      </c>
+      <c r="E12" s="105" t="n">
         <v>9984</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="13" s="74" spans="1:5">
-      <c r="A13" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="13" s="68" spans="1:5">
+      <c r="A13" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="121" t="n"/>
-      <c r="C13" s="80" t="n">
+      <c r="B13" s="111">
+        <f>'Table1 &amp; Fig1'!C20*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C13" s="75" t="n">
         <v>1.1</v>
       </c>
-      <c r="D13" s="121" t="n"/>
-      <c r="E13" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="74" spans="1:5">
-      <c r="A14" s="76" t="s">
+      <c r="D13" s="111">
+        <f>'Table S1'!D20</f>
+        <v/>
+      </c>
+      <c r="E13" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="68" spans="1:5">
+      <c r="A14" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="121" t="n"/>
-      <c r="C14" s="80" t="n">
+      <c r="B14" s="111">
+        <f>'Table1 &amp; Fig1'!C19*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C14" s="75" t="n">
         <v>1.1</v>
       </c>
-      <c r="D14" s="121" t="n"/>
-      <c r="E14" s="102" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" s="74" spans="1:5">
-      <c r="A15" s="76" t="s">
+      <c r="D14" s="111">
+        <f>'Table S1'!D19</f>
+        <v/>
+      </c>
+      <c r="E14" s="96" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="68" spans="1:5">
+      <c r="A15" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="121" t="n"/>
-      <c r="C15" s="80" t="n"/>
-      <c r="D15" s="121" t="n"/>
-      <c r="E15" s="111" t="n">
+      <c r="B15" s="111">
+        <f>'Table1 &amp; Fig1'!F23*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C15" s="75">
+        <f>'Table1 &amp; Fig1'!H23</f>
+        <v/>
+      </c>
+      <c r="D15" s="111">
+        <f>'Table S1'!F23</f>
+        <v/>
+      </c>
+      <c r="E15" s="105" t="n">
         <v>100000</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="16" s="74" spans="1:5">
-      <c r="A16" s="76" t="s">
+    <row customHeight="1" ht="15.75" r="16" s="68" spans="1:5">
+      <c r="A16" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="121" t="n"/>
-      <c r="C16" s="80" t="n">
+      <c r="B16" s="111">
+        <f>'Table1 &amp; Fig1'!C21*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C16" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="121" t="n"/>
-      <c r="E16" s="111" t="n">
+      <c r="D16" s="111">
+        <f>'Table S1'!D21</f>
+        <v/>
+      </c>
+      <c r="E16" s="105" t="n">
         <v>7480</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="17" s="74" spans="1:5">
-      <c r="A17" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="125" t="n"/>
-      <c r="C17" s="82" t="n">
-        <v>9.066483511495402</v>
-      </c>
-      <c r="D17" s="88" t="n"/>
-      <c r="E17" s="126" t="n">
+    <row customHeight="1" ht="15.75" r="17" s="68" spans="1:5">
+      <c r="A17" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="115">
+        <f>SUM('Table1 &amp; Fig1'!C18:C22)*1000000000000000</f>
+        <v/>
+      </c>
+      <c r="C17" s="77" t="n">
+        <v>9.136678839082039</v>
+      </c>
+      <c r="D17" s="83" t="n"/>
+      <c r="E17" s="116" t="n">
         <v>49693</v>
       </c>
     </row>
@@ -3489,369 +4038,456 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D25" activeCellId="0" pane="topLeft" sqref="D25"/>
+      <selection activeCell="E14" activeCellId="0" pane="topLeft" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="1025" min="1" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="39.55" r="1" s="74" spans="1:7">
-      <c r="A1" s="127" t="n"/>
-      <c r="B1" s="127" t="n"/>
-      <c r="C1" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="76" t="s">
+    <row customHeight="1" ht="39.55" r="1" s="68" spans="1:7">
+      <c r="A1" s="117" t="n"/>
+      <c r="B1" s="117" t="n"/>
+      <c r="C1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="D1" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="70" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="74" spans="1:7">
-      <c r="A2" s="76" t="s">
+      <c r="G1" s="70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="68" spans="1:7">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="77" t="n"/>
-      <c r="D2" s="128" t="n">
-        <v>2.233434376772312e+30</v>
-      </c>
-      <c r="E2" s="129" t="n">
+      <c r="C2" s="73">
+        <f>'Table1 &amp; Fig1'!D2</f>
+        <v/>
+      </c>
+      <c r="D2" s="118" t="n">
+        <v>2.23343437677231e+30</v>
+      </c>
+      <c r="E2" s="119" t="n">
         <v>1e+30</v>
       </c>
-      <c r="F2" s="129" t="n"/>
-      <c r="G2" s="130" t="n">
+      <c r="F2" s="119">
+        <f>SUM(D2:D5)</f>
+        <v/>
+      </c>
+      <c r="G2" s="120" t="n">
         <v>1e+30</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="74" spans="1:7">
-      <c r="B3" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="3" s="68" spans="1:7">
+      <c r="B3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="80" t="n"/>
-      <c r="D3" s="121" t="n">
+      <c r="C3" s="75">
+        <f>'Table1 &amp; Fig1'!D3</f>
+        <v/>
+      </c>
+      <c r="D3" s="111" t="n">
         <v>9.8546603616924e+28</v>
       </c>
-      <c r="E3" s="131" t="n">
+      <c r="E3" s="121" t="n">
         <v>9.999999999999999e+28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="74" spans="1:7">
-      <c r="B4" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="4" s="68" spans="1:7">
+      <c r="B4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="80" t="n"/>
-      <c r="D4" s="80" t="n">
+      <c r="C4" s="75">
+        <f>'Table1 &amp; Fig1'!D4</f>
+        <v/>
+      </c>
+      <c r="D4" s="75" t="n">
         <v>2.450765954505604e+29</v>
       </c>
-      <c r="E4" s="131" t="n">
+      <c r="E4" s="121" t="n">
         <v>9.999999999999999e+28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="74" spans="1:7">
-      <c r="B5" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="5" s="68" spans="1:7">
+      <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="82" t="n"/>
-      <c r="D5" s="82" t="n">
+      <c r="C5" s="77">
+        <f>'Table1 &amp; Fig1'!C5</f>
+        <v/>
+      </c>
+      <c r="D5" s="77" t="n">
         <v>2.77009025123733e+29</v>
       </c>
-      <c r="E5" s="132" t="n">
+      <c r="E5" s="122" t="n">
         <v>9.999999999999999e+28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="74" spans="1:7">
-      <c r="A6" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="6" s="68" spans="1:7">
+      <c r="A6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="77" t="n"/>
-      <c r="D6" s="128" t="n">
-        <v>1.425596410705731e+29</v>
-      </c>
-      <c r="E6" s="129" t="n">
+      <c r="C6" s="73">
+        <f>'Table1 &amp; Fig1'!D6</f>
+        <v/>
+      </c>
+      <c r="D6" s="118" t="n">
+        <v>1.42559641070573e+29</v>
+      </c>
+      <c r="E6" s="119" t="n">
         <v>9.999999999999999e+28</v>
       </c>
-      <c r="F6" s="129" t="n"/>
-      <c r="G6" s="130" t="n">
+      <c r="F6" s="119">
+        <f>SUM(D6:D9)</f>
+        <v/>
+      </c>
+      <c r="G6" s="120" t="n">
         <v>9.999999999999999e+28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="74" spans="1:7">
-      <c r="B7" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="7" s="68" spans="1:7">
+      <c r="B7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="80" t="n"/>
-      <c r="D7" s="121" t="n">
+      <c r="C7" s="75">
+        <f>'Table1 &amp; Fig1'!D7</f>
+        <v/>
+      </c>
+      <c r="D7" s="111" t="n">
         <v>2.4636650904231e+28</v>
       </c>
-      <c r="E7" s="131" t="n">
+      <c r="E7" s="121" t="n">
         <v>1e+28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="74" spans="1:7">
-      <c r="B8" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="8" s="68" spans="1:7">
+      <c r="B8" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="80" t="n"/>
-      <c r="D8" s="80" t="n">
+      <c r="C8" s="75">
+        <f>'Table1 &amp; Fig1'!D8</f>
+        <v/>
+      </c>
+      <c r="D8" s="75" t="n">
         <v>1.719017769731966e+28</v>
       </c>
-      <c r="E8" s="131" t="n">
+      <c r="E8" s="121" t="n">
         <v>1e+28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="74" spans="1:7">
-      <c r="B9" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="9" s="68" spans="1:7">
+      <c r="B9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="82" t="n"/>
-      <c r="D9" s="82" t="n">
+      <c r="C9" s="77">
+        <f>'Table1 &amp; Fig1'!D9</f>
+        <v/>
+      </c>
+      <c r="D9" s="77" t="n">
         <v>1.18718153624457e+29</v>
       </c>
-      <c r="E9" s="132" t="n">
+      <c r="E9" s="122" t="n">
         <v>9.999999999999999e+28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="74" spans="1:7">
-      <c r="A10" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="10" s="68" spans="1:7">
+      <c r="A10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="77" t="n"/>
-      <c r="D10" s="128" t="n">
+      <c r="C10" s="73">
+        <f>'Table1 &amp; Fig1'!D10</f>
+        <v/>
+      </c>
+      <c r="D10" s="118" t="n">
         <v>7.8680031944364e+26</v>
       </c>
-      <c r="E10" s="129" t="n"/>
-      <c r="F10" s="129" t="n"/>
-      <c r="G10" s="130" t="n">
+      <c r="E10" s="119" t="n"/>
+      <c r="F10" s="119">
+        <f>SUM(D10:D11)</f>
+        <v/>
+      </c>
+      <c r="G10" s="120" t="n">
         <v>1e+27</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="74" spans="1:7">
-      <c r="B11" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="11" s="68" spans="1:7">
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="80" t="n"/>
-      <c r="D11" s="80" t="n">
-        <v>2.165467664290173e+25</v>
-      </c>
-      <c r="E11" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="12" s="74" spans="1:7">
-      <c r="A12" s="76" t="s">
+      <c r="C11" s="75">
+        <f>'Table1 &amp; Fig1'!D11</f>
+        <v/>
+      </c>
+      <c r="D11" s="75" t="n">
+        <v>2.16546766429017e+25</v>
+      </c>
+      <c r="E11" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="68" spans="1:7">
+      <c r="A12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="77" t="n"/>
-      <c r="D12" s="128" t="n">
+      <c r="C12" s="73">
+        <f>'Table1 &amp; Fig1'!D12</f>
+        <v/>
+      </c>
+      <c r="D12" s="118" t="n">
         <v>7.714345037655521e+17</v>
       </c>
-      <c r="E12" s="129" t="n">
+      <c r="E12" s="119" t="n">
         <v>1e+18</v>
       </c>
-      <c r="F12" s="129" t="n"/>
-      <c r="G12" s="130" t="n">
+      <c r="F12" s="119">
+        <f>SUM(D12:D22)</f>
+        <v/>
+      </c>
+      <c r="G12" s="120" t="n">
         <v>1e+21</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="74" spans="1:7">
-      <c r="B13" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="13" s="68" spans="1:7">
+      <c r="B13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="80" t="n"/>
-      <c r="D13" s="131" t="n">
+      <c r="C13" s="75">
+        <f>'Table1 &amp; Fig1'!D13</f>
+        <v/>
+      </c>
+      <c r="D13" s="121" t="n">
         <v>1e+18</v>
       </c>
-      <c r="E13" s="131" t="n">
+      <c r="E13" s="121" t="n">
         <v>1e+18</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="74" spans="1:7">
-      <c r="B14" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="14" s="68" spans="1:7">
+      <c r="B14" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="80" t="n"/>
-      <c r="D14" s="121" t="n">
+      <c r="C14" s="75">
+        <f>'Table1 &amp; Fig1'!D14</f>
+        <v/>
+      </c>
+      <c r="D14" s="111" t="n">
         <v>1.4115435961363e+20</v>
       </c>
-      <c r="E14" s="131" t="n">
+      <c r="E14" s="121" t="n">
         <v>1e+20</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="74" spans="1:7">
-      <c r="B15" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="15" s="68" spans="1:7">
+      <c r="B15" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="80" t="n"/>
-      <c r="D15" s="121" t="n">
-        <v>1.965667357448014e+16</v>
-      </c>
-      <c r="E15" s="131" t="n">
+      <c r="C15" s="75">
+        <f>'Table1 &amp; Fig1'!D15</f>
+        <v/>
+      </c>
+      <c r="D15" s="111" t="n">
+        <v>1.96566735744801e+16</v>
+      </c>
+      <c r="E15" s="121" t="n">
         <v>1e+16</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="74" spans="1:7">
-      <c r="B16" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="16" s="68" spans="1:7">
+      <c r="B16" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="80" t="n"/>
-      <c r="D16" s="121" t="n">
-        <v>4.972305267351656e+17</v>
-      </c>
-      <c r="E16" s="131" t="n">
+      <c r="C16" s="75">
+        <f>'Table1 &amp; Fig1'!D16</f>
+        <v/>
+      </c>
+      <c r="D16" s="111" t="n">
+        <v>4.97230526735166e+17</v>
+      </c>
+      <c r="E16" s="121" t="n">
         <v>1e+18</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="74" spans="1:7">
-      <c r="B17" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="17" s="68" spans="1:7">
+      <c r="B17" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="80" t="n"/>
-      <c r="D17" s="121" t="n">
+      <c r="C17" s="75">
+        <f>'Table1 &amp; Fig1'!D17</f>
+        <v/>
+      </c>
+      <c r="D17" s="111" t="n">
         <v>4.814992989160821e+20</v>
       </c>
-      <c r="E17" s="131" t="n">
+      <c r="E17" s="121" t="n">
         <v>1e+21</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="74" spans="1:7">
-      <c r="B18" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="18" s="68" spans="1:7">
+      <c r="B18" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="80" t="n"/>
-      <c r="D18" s="121" t="n">
-        <v>1115687524901094</v>
-      </c>
-      <c r="E18" s="131" t="n">
+      <c r="C18" s="75">
+        <f>'Table1 &amp; Fig1'!D18</f>
+        <v/>
+      </c>
+      <c r="D18" s="111" t="n">
+        <v>1115687524901090</v>
+      </c>
+      <c r="E18" s="121" t="n">
         <v>1000000000000000</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="74" spans="1:7">
-      <c r="B19" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="19" s="68" spans="1:7">
+      <c r="B19" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="80" t="n"/>
-      <c r="D19" s="123" t="n">
+      <c r="C19" s="75">
+        <f>'Table1 &amp; Fig1'!D19</f>
+        <v/>
+      </c>
+      <c r="D19" s="113" t="n">
         <v>4806634619</v>
       </c>
-      <c r="E19" s="131" t="n">
+      <c r="E19" s="121" t="n">
         <v>10000000000</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="74" spans="1:7">
-      <c r="B20" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="20" s="68" spans="1:7">
+      <c r="B20" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="80" t="n"/>
-      <c r="D20" s="123" t="n">
+      <c r="C20" s="75">
+        <f>'Table1 &amp; Fig1'!D20</f>
+        <v/>
+      </c>
+      <c r="D20" s="113" t="n">
         <v>7383008820</v>
       </c>
-      <c r="E20" s="131" t="n">
+      <c r="E20" s="121" t="n">
         <v>10000000000</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="74" spans="1:7">
-      <c r="B21" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="21" s="68" spans="1:7">
+      <c r="B21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="80" t="n"/>
-      <c r="D21" s="123" t="n">
+      <c r="C21" s="75">
+        <f>'Table1 &amp; Fig1'!D21</f>
+        <v/>
+      </c>
+      <c r="D21" s="113" t="n">
         <v>300000000000</v>
       </c>
-      <c r="E21" s="131" t="n">
+      <c r="E21" s="121" t="n">
         <v>300000000000</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="74" spans="1:7">
-      <c r="B22" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="22" s="68" spans="1:7">
+      <c r="B22" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="87" t="n"/>
-      <c r="D22" s="88" t="n"/>
-      <c r="E22" s="83" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="23" s="74" spans="1:7">
-      <c r="A23" s="76" t="s">
+      <c r="C22" s="82">
+        <f>'Table1 &amp; Fig1'!D22</f>
+        <v/>
+      </c>
+      <c r="D22" s="83" t="n"/>
+      <c r="E22" s="78" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="23" s="68" spans="1:7">
+      <c r="A23" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="77" t="n"/>
-      <c r="D23" s="128" t="n">
-        <v>4.721214697267057e+26</v>
-      </c>
-      <c r="E23" s="129" t="n"/>
-      <c r="F23" s="129" t="n"/>
-      <c r="G23" s="130" t="n">
+      <c r="C23" s="73">
+        <f>'Table1 &amp; Fig1'!G23</f>
+        <v/>
+      </c>
+      <c r="D23" s="118" t="n">
+        <v>4.72121469726706e+26</v>
+      </c>
+      <c r="E23" s="119" t="n"/>
+      <c r="F23" s="119">
+        <f>SUM(D23:D23)</f>
+        <v/>
+      </c>
+      <c r="G23" s="120" t="n">
         <v>1e+27</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="74" spans="1:7">
-      <c r="A24" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="24" s="68" spans="1:7">
+      <c r="A24" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="89" t="n"/>
-      <c r="D24" s="133" t="n">
+      <c r="C24" s="84">
+        <f>'Table1 &amp; Fig1'!D25</f>
+        <v/>
+      </c>
+      <c r="D24" s="123" t="n">
         <v>9.53678225208622e+30</v>
       </c>
-      <c r="E24" s="134" t="n">
+      <c r="E24" s="124" t="n">
         <v>1e+31</v>
       </c>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="135" t="n">
+      <c r="F24" s="85" t="n"/>
+      <c r="G24" s="125" t="n">
         <v>1e+31</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="74" spans="1:7">
-      <c r="A25" s="76" t="s">
+    <row customHeight="1" ht="13.8" r="25" s="68" spans="1:7">
+      <c r="A25" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="89" t="n"/>
-      <c r="D25" s="133" t="n">
+      <c r="C25" s="84">
+        <f>'Table1 &amp; Fig1'!D26</f>
+        <v/>
+      </c>
+      <c r="D25" s="123" t="n">
         <v>3000000000000</v>
       </c>
-      <c r="E25" s="134" t="n">
+      <c r="E25" s="124" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="F25" s="90" t="n"/>
-      <c r="G25" s="135" t="n">
+      <c r="F25" s="85" t="n"/>
+      <c r="G25" s="125" t="n">
         <v>10000000000000</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048568" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048569" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048570" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048571" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048572" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048573" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048574" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048575" s="74" spans="1:7"/>
-    <row customHeight="1" ht="12.8" r="1048576" s="74" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048568" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048569" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048570" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048571" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048572" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048573" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048574" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048575" s="68" spans="1:7"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="68" spans="1:7"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:A5"/>
@@ -3882,505 +4518,628 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A22" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B31" activeCellId="0" pane="topLeft" sqref="B31"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A4" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L39" activeCellId="0" pane="topLeft" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="73" width="31.0459183673469"/>
-    <col customWidth="1" max="3" min="2" style="73" width="10.1224489795918"/>
-    <col customWidth="1" max="4" min="4" style="73" width="8.36734693877551"/>
-    <col customWidth="1" max="1025" min="5" style="73" width="10.1224489795918"/>
+    <col customWidth="1" max="1" min="1" style="67" width="28.2142857142857"/>
+    <col customWidth="1" max="3" min="2" style="67" width="9.178571428571431"/>
+    <col customWidth="1" max="4" min="4" style="67" width="7.4234693877551"/>
+    <col customWidth="1" max="1025" min="5" style="67" width="9.178571428571431"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="37.5" r="1" s="74" spans="1:7">
-      <c r="A1" s="136" t="n"/>
-      <c r="B1" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="76" t="s">
+    <row customHeight="1" ht="37.5" r="1" s="68" spans="1:7">
+      <c r="A1" s="126" t="n"/>
+      <c r="B1" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="C1" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="76" t="n"/>
-      <c r="F1" s="76" t="n"/>
-      <c r="G1" s="76" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="74" spans="1:7">
-      <c r="A2" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="138" t="n"/>
-      <c r="C2" s="81" t="n">
+      <c r="E1" s="88" t="n"/>
+      <c r="F1" s="88" t="n"/>
+      <c r="G1" s="88" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="68" spans="1:7">
+      <c r="A2" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="127">
+        <f>'Table1 &amp; Fig1'!F27</f>
+        <v/>
+      </c>
+      <c r="C2" s="76" t="n">
         <v>550</v>
       </c>
-      <c r="D2" s="98" t="n"/>
-      <c r="G2" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="74" spans="1:7">
-      <c r="A3" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="73" t="n"/>
-      <c r="C3" s="81" t="n">
+      <c r="D2" s="92" t="n"/>
+      <c r="G2" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" s="68" spans="1:7">
+      <c r="A3" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="67">
+        <f>'Table1 &amp; Fig1'!C26</f>
+        <v/>
+      </c>
+      <c r="C3" s="76" t="n">
         <v>450</v>
       </c>
-      <c r="D3" s="98" t="n"/>
-      <c r="G3" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="74" spans="1:7">
-      <c r="A4" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="139" t="n"/>
-      <c r="C4" s="81" t="n">
+      <c r="D3" s="92" t="n"/>
+      <c r="G3" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="68" spans="1:7">
+      <c r="A4" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="128">
+        <f>'Table1 &amp; Fig1'!C26/'Table1 &amp; Fig1'!F27</f>
+        <v/>
+      </c>
+      <c r="C4" s="76" t="n">
         <v>0.8</v>
       </c>
-      <c r="D4" s="98" t="n"/>
-      <c r="G4" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" s="74" spans="1:7">
-      <c r="A5" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="73" t="n"/>
-      <c r="C5" s="81" t="n">
+      <c r="D4" s="92" t="n"/>
+      <c r="G4" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" s="68" spans="1:7">
+      <c r="A5" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="67">
+        <f>'Table1 &amp; Fig1'!F2</f>
+        <v/>
+      </c>
+      <c r="C5" s="76" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="98" t="n"/>
-      <c r="G5" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="74" spans="1:7">
-      <c r="A6" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="140" t="n"/>
-      <c r="C6" s="81" t="n">
+      <c r="D5" s="92" t="n"/>
+      <c r="G5" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="68" spans="1:7">
+      <c r="A6" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="129">
+        <f>'Table1 &amp; Fig1'!G2/'Table1 &amp; Fig1'!F27</f>
+        <v/>
+      </c>
+      <c r="C6" s="76" t="n">
         <v>0.15</v>
       </c>
-      <c r="D6" s="98" t="n"/>
-      <c r="G6" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" s="74" spans="1:7">
-      <c r="A7" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="73" t="n"/>
-      <c r="C7" s="81" t="n">
+      <c r="D6" s="92" t="n"/>
+      <c r="G6" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="68" spans="1:7">
+      <c r="A7" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="67">
+        <f>'Table1 &amp; Fig1'!C26-B10</f>
+        <v/>
+      </c>
+      <c r="C7" s="76" t="n">
         <v>320</v>
       </c>
-      <c r="D7" s="98" t="n"/>
-      <c r="G7" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="74" spans="1:7">
-      <c r="A8" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="139" t="n"/>
-      <c r="C8" s="81" t="n">
+      <c r="D7" s="92" t="n"/>
+      <c r="G7" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="68" spans="1:7">
+      <c r="A8" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="128">
+        <f>B7/SUM(B9+B7)</f>
+        <v/>
+      </c>
+      <c r="C8" s="76" t="n">
         <v>0.6</v>
       </c>
-      <c r="D8" s="98" t="n"/>
-      <c r="G8" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" s="74" spans="1:7">
-      <c r="A9" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="73" t="n"/>
-      <c r="C9" s="81" t="n">
+      <c r="D8" s="92" t="n"/>
+      <c r="G8" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="68" spans="1:7">
+      <c r="A9" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="67">
+        <f>B10+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C7+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C14+'Table1 &amp; Fig1'!C29+'Table1 &amp; Fig1'!C30+'Table1 &amp; Fig1'!C16+'Table1 &amp; Fig1'!C2</f>
+        <v/>
+      </c>
+      <c r="C9" s="76" t="n">
         <v>230</v>
       </c>
-      <c r="D9" s="98" t="n"/>
-      <c r="G9" s="73" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="10" s="74" spans="1:7">
-      <c r="A10" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="81" t="n">
-        <v>133.7928574951385</v>
-      </c>
-      <c r="C10" s="81" t="n">
+      <c r="D9" s="92" t="n"/>
+      <c r="G9" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" s="68" spans="1:7">
+      <c r="A10" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="76" t="n">
+        <v>133.792857495139</v>
+      </c>
+      <c r="C10" s="76" t="n">
         <v>130</v>
       </c>
-      <c r="D10" s="98" t="n"/>
-      <c r="G10" s="141" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" s="74" spans="1:7">
-      <c r="A11" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="73" t="n"/>
-      <c r="C11" s="81" t="n">
+      <c r="D10" s="92" t="n"/>
+      <c r="G10" s="130" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" s="68" spans="1:7">
+      <c r="A11" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="67">
+        <f>B9-B10</f>
+        <v/>
+      </c>
+      <c r="C11" s="76" t="n">
         <v>100</v>
       </c>
-      <c r="D11" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" s="74" spans="1:7">
-      <c r="A12" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="140" t="n"/>
-      <c r="C12" s="81" t="n">
+      <c r="D11" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" s="68" spans="1:7">
+      <c r="A12" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="129">
+        <f>(B3-B14)/B3</f>
+        <v/>
+      </c>
+      <c r="C12" s="76" t="n">
         <v>0.7</v>
       </c>
-      <c r="D12" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="13" s="74" spans="1:7">
-      <c r="A13" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="139" t="n"/>
-      <c r="C13" s="81" t="n">
+      <c r="D12" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="13" s="68" spans="1:7">
+      <c r="A13" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="128">
+        <f>Fig2B!E16/SUM(Fig2B!C16:E16)</f>
+        <v/>
+      </c>
+      <c r="C13" s="76" t="n">
         <v>0.9</v>
       </c>
-      <c r="D13" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="74" spans="1:7">
-      <c r="A14" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="81" t="n"/>
-      <c r="C14" s="81" t="n">
+      <c r="D13" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="68" spans="1:7">
+      <c r="A14" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="76">
+        <f>FigS1!D22</f>
+        <v/>
+      </c>
+      <c r="C14" s="76" t="n">
         <v>150</v>
       </c>
-      <c r="D14" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" s="74" spans="1:7">
-      <c r="A15" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="73" t="n"/>
-      <c r="C15" s="81" t="n">
+      <c r="D14" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="68" spans="1:7">
+      <c r="A15" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="67">
+        <f>FigS1!D2</f>
+        <v/>
+      </c>
+      <c r="C15" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="16" s="74" spans="1:7">
-      <c r="A16" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="81" t="n"/>
-      <c r="C16" s="81" t="n">
+      <c r="D15" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" s="68" spans="1:7">
+      <c r="A16" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="76">
+        <f>FigS1!D6</f>
+        <v/>
+      </c>
+      <c r="C16" s="76" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="74" spans="1:7">
-      <c r="A17" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="142" t="n"/>
-      <c r="C17" s="81" t="n">
+      <c r="D16" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="68" spans="1:7">
+      <c r="A17" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="131">
+        <f>379*0.15/1000</f>
+        <v/>
+      </c>
+      <c r="C17" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="D17" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="74" spans="1:7">
-      <c r="A18" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="73" t="n"/>
-      <c r="C18" s="81" t="n">
+      <c r="D17" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" s="68" spans="1:7">
+      <c r="A18" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="67">
+        <f>'Table1 &amp; Fig1'!C20</f>
+        <v/>
+      </c>
+      <c r="C18" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="D18" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="74" spans="1:7">
-      <c r="A19" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="73" t="n"/>
-      <c r="C19" s="81" t="n">
+      <c r="D18" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" s="68" spans="1:7">
+      <c r="A19" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="67">
+        <f>'Table1 &amp; Fig1'!C19</f>
+        <v/>
+      </c>
+      <c r="C19" s="76" t="n">
         <v>0.01</v>
       </c>
-      <c r="D19" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" s="74" spans="1:7">
-      <c r="A20" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="142" t="n"/>
-      <c r="C20" s="81" t="n">
+      <c r="D19" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" s="68" spans="1:7">
+      <c r="A20" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="131">
+        <f>'Table1 &amp; Fig1'!C22</f>
+        <v/>
+      </c>
+      <c r="C20" s="76" t="n">
         <v>0.007</v>
       </c>
-      <c r="D20" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21" s="74" spans="1:7">
-      <c r="A21" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="142" t="n">
+      <c r="D20" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" s="68" spans="1:7">
+      <c r="A21" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="131" t="n">
         <v>0.00460820469</v>
       </c>
-      <c r="C21" s="81" t="n">
+      <c r="C21" s="76" t="n">
         <v>0.005</v>
       </c>
-      <c r="D21" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="22" s="74" spans="1:7">
-      <c r="A22" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="142" t="n"/>
-      <c r="C22" s="81" t="n">
+      <c r="D21" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="22" s="68" spans="1:7">
+      <c r="A22" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="131">
+        <f>'Table1 &amp; Fig1'!C21</f>
+        <v/>
+      </c>
+      <c r="C22" s="76" t="n">
         <v>0.002</v>
       </c>
-      <c r="D22" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="74" spans="1:7">
-      <c r="A23" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="139" t="n"/>
-      <c r="C23" s="81" t="n">
+      <c r="D22" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="68" spans="1:7">
+      <c r="A23" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="128">
+        <f>B21/B22</f>
+        <v/>
+      </c>
+      <c r="C23" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="24" s="74" spans="1:7">
-      <c r="A24" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="140" t="n"/>
-      <c r="C24" s="81" t="n">
+      <c r="D23" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="24" s="68" spans="1:7">
+      <c r="A24" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="129">
+        <f>SUM(Fig2B!C6,Fig2B!C7)/SUM(Fig2B!C5:C11)</f>
+        <v/>
+      </c>
+      <c r="C24" s="76" t="n">
         <v>0.25</v>
       </c>
-      <c r="D24" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="25" s="74" spans="1:7">
-      <c r="A25" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="139" t="n"/>
-      <c r="C25" s="81" t="n"/>
-      <c r="D25" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="26" s="74" spans="1:7">
-      <c r="A26" s="76" t="s">
+      <c r="D24" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="25" s="68" spans="1:7">
+      <c r="A25" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="73" t="n"/>
-      <c r="C26" s="81" t="n">
+      <c r="B25" s="128">
+        <f>'Table1 &amp; Fig1'!F12</f>
+        <v/>
+      </c>
+      <c r="C25" s="76">
+        <f>'Table1 &amp; Fig1'!G12</f>
+        <v/>
+      </c>
+      <c r="D25" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="26" s="68" spans="1:7">
+      <c r="A26" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="67">
+        <f>SUM('Table1 &amp; Fig1'!C13:C14)</f>
+        <v/>
+      </c>
+      <c r="C26" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="74" spans="1:7">
-      <c r="A27" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="73" t="n"/>
-      <c r="C27" s="73" t="n"/>
-      <c r="D27" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="28" s="74" spans="1:7">
-      <c r="A28" s="76" t="s">
+      <c r="D26" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="68" spans="1:7">
+      <c r="A27" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="81" t="n">
-        <v>0.02193265761685073</v>
-      </c>
-      <c r="C28" s="81" t="n">
+      <c r="B27" s="67">
+        <f>'Table1 &amp; Fig1'!C18</f>
+        <v/>
+      </c>
+      <c r="C27" s="67">
+        <f>'Table1 &amp; Fig1'!D18</f>
+        <v/>
+      </c>
+      <c r="D27" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="28" s="68" spans="1:7">
+      <c r="A28" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="76" t="n">
+        <v>0.0219326576168507</v>
+      </c>
+      <c r="C28" s="76" t="n">
         <v>0.02</v>
       </c>
-      <c r="D28" s="101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="29" s="74" spans="1:7">
-      <c r="A29" s="76" t="s">
+      <c r="D28" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="142" t="n"/>
-      <c r="C29" s="81" t="n">
+    </row>
+    <row customHeight="1" ht="15.75" r="29" s="68" spans="1:7">
+      <c r="A29" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="131">
+        <f>Fig2A!C9</f>
+        <v/>
+      </c>
+      <c r="C29" s="76" t="n">
         <v>0.003</v>
       </c>
-      <c r="D29" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="30" s="74" spans="1:7">
-      <c r="A30" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="139" t="n"/>
-      <c r="C30" s="81" t="n">
+      <c r="D29" s="95" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="30" s="68" spans="1:7">
+      <c r="A30" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="128">
+        <f>B28/B29</f>
+        <v/>
+      </c>
+      <c r="C30" s="76" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="31" s="74" spans="1:7">
-      <c r="A31" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="142" t="n">
+      <c r="D30" s="95" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="31" s="68" spans="1:7">
+      <c r="A31" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="131" t="n">
         <v>0.01892784</v>
       </c>
-      <c r="C31" s="81" t="n">
+      <c r="C31" s="76" t="n">
         <v>0.02</v>
       </c>
-      <c r="D31" s="101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="32" s="74" spans="1:7">
-      <c r="A32" s="76" t="s">
+      <c r="D31" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="143" t="n"/>
-      <c r="C32" s="81" t="n">
+    </row>
+    <row customHeight="1" ht="15.75" r="32" s="68" spans="1:7">
+      <c r="A32" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="132">
+        <f>Fig2B!D8</f>
+        <v/>
+      </c>
+      <c r="C32" s="76" t="n">
         <v>0.004</v>
       </c>
-      <c r="D32" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="33" s="74" spans="1:7">
-      <c r="A33" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="139" t="n"/>
-      <c r="C33" s="81" t="n">
+      <c r="D32" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="33" s="68" spans="1:7">
+      <c r="A33" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="128">
+        <f>B31/B32</f>
+        <v/>
+      </c>
+      <c r="C33" s="76" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="34" s="74" spans="1:7">
-      <c r="A34" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="139" t="n"/>
-      <c r="C34" s="81" t="n">
+      <c r="D33" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="34" s="68" spans="1:7">
+      <c r="A34" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="128">
+        <f>(B28+B31)/(B29+B32)</f>
+        <v/>
+      </c>
+      <c r="C34" s="76" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="35" s="74" spans="1:7">
-      <c r="A35" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="139" t="n"/>
-      <c r="C35" s="81" t="n">
+      <c r="D34" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="35" s="68" spans="1:7">
+      <c r="A35" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="128">
+        <f>SUM(B18,B19,B29,B32)/SUM(B28,B31)</f>
+        <v/>
+      </c>
+      <c r="C35" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="36" s="74" spans="1:7">
-      <c r="A36" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="142" t="n"/>
-      <c r="C36" s="81" t="n">
+      <c r="D35" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="36" s="68" spans="1:7">
+      <c r="A36" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="131">
+        <f>B28+B31</f>
+        <v/>
+      </c>
+      <c r="C36" s="76" t="n">
         <v>0.04</v>
       </c>
-      <c r="D36" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="37" s="74" spans="1:7">
-      <c r="A37" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="142" t="n"/>
-      <c r="C37" s="81" t="n">
+      <c r="D36" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="37" s="68" spans="1:7">
+      <c r="A37" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="131">
+        <f>B32+B29+B18+B19</f>
+        <v/>
+      </c>
+      <c r="C37" s="76" t="n">
         <v>0.16</v>
       </c>
-      <c r="D37" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="38" s="74" spans="1:7">
-      <c r="A38" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="81" t="n">
-        <v>0.1192307692307693</v>
-      </c>
-      <c r="C38" s="81" t="n">
+      <c r="D37" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="38" s="68" spans="1:7">
+      <c r="A38" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="76" t="n">
+        <v>0.119230769230769</v>
+      </c>
+      <c r="C38" s="76" t="n">
         <v>0.2</v>
       </c>
-      <c r="D38" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="60" r="39" s="74" spans="1:7">
-      <c r="A39" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="139" t="n"/>
-      <c r="C39" s="81" t="n">
+      <c r="D38" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="60" r="39" s="68" spans="1:7">
+      <c r="A39" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="128">
+        <f>(916-B3+B2)/B2</f>
+        <v/>
+      </c>
+      <c r="C39" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="40" s="74" spans="1:7">
-      <c r="A40" s="76" t="s">
+      <c r="D39" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="138" t="n"/>
-      <c r="C40" s="81" t="n">
+    </row>
+    <row customHeight="1" ht="15.75" r="40" s="68" spans="1:7">
+      <c r="A40" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="127">
+        <f>Fig2A!C14</f>
+        <v/>
+      </c>
+      <c r="C40" s="76" t="n">
         <v>470</v>
       </c>
-      <c r="D40" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="41" s="74" spans="1:7">
-      <c r="A41" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="73" t="n"/>
-      <c r="C41" s="81" t="n">
+      <c r="D40" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="41" s="68" spans="1:7">
+      <c r="A41" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="67">
+        <f>Fig2A!C26</f>
+        <v/>
+      </c>
+      <c r="C41" s="76" t="n">
         <v>6</v>
       </c>
-      <c r="D41" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="42" s="74" spans="1:7">
-      <c r="A42" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="73" t="n"/>
-      <c r="C42" s="81" t="n">
+      <c r="D41" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="42" s="68" spans="1:7">
+      <c r="A42" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="67">
+        <f>Fig2C!B34</f>
+        <v/>
+      </c>
+      <c r="C42" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="43" s="74" spans="1:7">
-      <c r="A43" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="73" t="n"/>
-      <c r="C43" s="81" t="n">
+      <c r="D42" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="43" s="68" spans="1:7">
+      <c r="A43" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="67">
+        <f>Fig2C!E34</f>
+        <v/>
+      </c>
+      <c r="C43" s="76" t="n">
         <v>5</v>
       </c>
-      <c r="D43" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="44" s="74" spans="1:7">
-      <c r="A44" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="140" t="n"/>
-      <c r="C44" s="81" t="n">
+      <c r="D43" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="44" s="68" spans="1:7">
+      <c r="A44" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="129">
+        <f>SUM(Fig2C!E22,Fig2C!E23,Fig2C!E24,Fig2C!E31,Fig2C!B24,Fig2C!B25,Fig2C!B26,Fig2C!B27,Fig2C!B28)/SUM(Fig2C!B34,Fig2C!E34)</f>
+        <v/>
+      </c>
+      <c r="C44" s="76" t="n">
         <v>0.7</v>
       </c>
-      <c r="D44" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="45" s="74" spans="1:7">
-      <c r="A45" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="145" t="n"/>
-      <c r="C45" s="81" t="n">
+      <c r="D44" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="45" s="68" spans="1:7">
+      <c r="A45" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="134">
+        <f>Fig2A!C32/SUM(Fig2A!C32,Fig2A!C26,Fig2A!C14)</f>
+        <v/>
+      </c>
+      <c r="C45" s="76" t="n">
         <v>0.15</v>
       </c>
-      <c r="D45" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="46" s="74" spans="1:7">
-      <c r="A46" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="83" t="n">
+      <c r="D45" s="92" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46" s="68" spans="1:7">
+      <c r="A46" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="78" t="n">
         <v>0.06701412</v>
       </c>
-      <c r="C46" s="83" t="n">
+      <c r="C46" s="78" t="n">
         <v>0.05</v>
       </c>
-      <c r="D46" s="103" t="n"/>
+      <c r="D46" s="97" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data mentioned in MS" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2705,15 +2705,27 @@
       <c r="A1" s="103" t="s">
         <v>13</v>
       </c>
+      <c r="B1" t="s"/>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s"/>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="68" spans="1:8">
       <c r="A2" s="103" t="s">
         <v>50</v>
       </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="81" t="n"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" s="81" t="s"/>
+      <c r="H2" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="68" spans="1:8">
       <c r="A3" s="104" t="s">
@@ -2734,6 +2746,8 @@
       <c r="F3" s="105" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" s="68" spans="1:8">
       <c r="A4" s="101" t="s">
@@ -2757,11 +2771,13 @@
         <f>'Table1 &amp; Fig1'!E4</f>
         <v/>
       </c>
-      <c r="G4" s="75" t="n"/>
+      <c r="G4" s="75" t="s"/>
+      <c r="H4" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="5" s="68" spans="1:8">
-      <c r="A5" s="107" t="n"/>
-      <c r="C5" s="93" t="n"/>
+      <c r="A5" s="107" t="s"/>
+      <c r="B5" t="s"/>
+      <c r="C5" s="93" t="s"/>
       <c r="D5" s="76" t="s">
         <v>55</v>
       </c>
@@ -2773,11 +2789,13 @@
         <f>'Table1 &amp; Fig1'!E8</f>
         <v/>
       </c>
-      <c r="G5" s="81" t="n"/>
+      <c r="G5" s="81" t="s"/>
+      <c r="H5" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="68" spans="1:8">
-      <c r="A6" s="107" t="n"/>
-      <c r="C6" s="93" t="n"/>
+      <c r="A6" s="107" t="s"/>
+      <c r="B6" t="s"/>
+      <c r="C6" s="93" t="s"/>
       <c r="D6" s="76" t="s">
         <v>56</v>
       </c>
@@ -2789,11 +2807,13 @@
         <f>'Table1 &amp; Fig1'!E10</f>
         <v/>
       </c>
-      <c r="G6" s="81" t="n"/>
+      <c r="G6" s="81" t="s"/>
+      <c r="H6" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="68" spans="1:8">
-      <c r="A7" s="107" t="n"/>
-      <c r="C7" s="93" t="n"/>
+      <c r="A7" s="107" t="s"/>
+      <c r="B7" t="s"/>
+      <c r="C7" s="93" t="s"/>
       <c r="D7" s="81" t="s">
         <v>57</v>
       </c>
@@ -2805,11 +2825,13 @@
         <f>'Table1 &amp; Fig1'!E24</f>
         <v/>
       </c>
-      <c r="G7" s="81" t="n"/>
+      <c r="G7" s="81" t="s"/>
+      <c r="H7" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="68" spans="1:8">
-      <c r="A8" s="107" t="n"/>
-      <c r="C8" s="93" t="n"/>
+      <c r="A8" s="107" t="s"/>
+      <c r="B8" t="s"/>
+      <c r="C8" s="93" t="s"/>
       <c r="D8" s="81" t="s">
         <v>16</v>
       </c>
@@ -2821,11 +2843,13 @@
         <f>'Table1 &amp; Fig1'!E13</f>
         <v/>
       </c>
-      <c r="G8" s="81" t="n"/>
+      <c r="G8" s="81" t="s"/>
+      <c r="H8" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="68" spans="1:8">
-      <c r="A9" s="107" t="n"/>
-      <c r="C9" s="93" t="n"/>
+      <c r="A9" s="107" t="s"/>
+      <c r="B9" t="s"/>
+      <c r="C9" s="93" t="s"/>
       <c r="D9" s="81" t="s">
         <v>23</v>
       </c>
@@ -2833,12 +2857,14 @@
         <f>'Table1 &amp; Fig1'!C20</f>
         <v/>
       </c>
-      <c r="F9" s="97" t="n"/>
-      <c r="G9" s="81" t="n"/>
+      <c r="F9" s="97" t="s"/>
+      <c r="G9" s="81" t="s"/>
+      <c r="H9" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="68" spans="1:8">
-      <c r="A10" s="107" t="n"/>
-      <c r="C10" s="93" t="n"/>
+      <c r="A10" s="107" t="s"/>
+      <c r="B10" t="s"/>
+      <c r="C10" s="93" t="s"/>
       <c r="D10" s="81" t="s">
         <v>22</v>
       </c>
@@ -2846,12 +2872,14 @@
         <f>'Table1 &amp; Fig1'!C19</f>
         <v/>
       </c>
-      <c r="F10" s="97" t="n"/>
-      <c r="G10" s="81" t="n"/>
+      <c r="F10" s="97" t="s"/>
+      <c r="G10" s="81" t="s"/>
+      <c r="H10" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="68" spans="1:8">
-      <c r="A11" s="107" t="n"/>
-      <c r="C11" s="93" t="n"/>
+      <c r="A11" s="107" t="s"/>
+      <c r="B11" t="s"/>
+      <c r="C11" s="93" t="s"/>
       <c r="D11" s="81" t="s">
         <v>34</v>
       </c>
@@ -2863,11 +2891,13 @@
         <f>Fig2A!D9</f>
         <v/>
       </c>
-      <c r="G11" s="81" t="n"/>
+      <c r="G11" s="81" t="s"/>
+      <c r="H11" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="68" spans="1:8">
-      <c r="A12" s="107" t="n"/>
-      <c r="C12" s="93" t="n"/>
+      <c r="A12" s="107" t="s"/>
+      <c r="B12" t="s"/>
+      <c r="C12" s="93" t="s"/>
       <c r="D12" s="81" t="s">
         <v>24</v>
       </c>
@@ -2875,12 +2905,14 @@
         <f>'Table1 &amp; Fig1'!C21</f>
         <v/>
       </c>
-      <c r="F12" s="97" t="n"/>
-      <c r="G12" s="81" t="n"/>
+      <c r="F12" s="97" t="s"/>
+      <c r="G12" s="81" t="s"/>
+      <c r="H12" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="68" spans="1:8">
-      <c r="A13" s="107" t="n"/>
-      <c r="C13" s="93" t="n"/>
+      <c r="A13" s="107" t="s"/>
+      <c r="B13" t="s"/>
+      <c r="C13" s="93" t="s"/>
       <c r="D13" s="81" t="s">
         <v>15</v>
       </c>
@@ -2888,12 +2920,14 @@
         <f>'Table1 &amp; Fig1'!C12</f>
         <v/>
       </c>
-      <c r="F13" s="93" t="n"/>
+      <c r="F13" s="93" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="14" s="68" spans="1:8">
-      <c r="A14" s="102" t="n"/>
-      <c r="B14" s="83" t="n"/>
-      <c r="C14" s="95" t="n"/>
+      <c r="A14" s="102" t="s"/>
+      <c r="B14" s="83" t="s"/>
+      <c r="C14" s="95" t="s"/>
       <c r="D14" s="83" t="s">
         <v>20</v>
       </c>
@@ -2901,23 +2935,37 @@
         <f>Fig2A!C12</f>
         <v/>
       </c>
-      <c r="F14" s="98" t="n"/>
+      <c r="F14" s="98" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s"/>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
     </row>
     <row customHeight="1" ht="37.5" r="16" s="68" spans="1:8">
-      <c r="A16" s="104" t="n"/>
+      <c r="A16" s="104" t="s"/>
       <c r="B16" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="104" t="n"/>
+      <c r="D16" s="104" t="s"/>
       <c r="E16" s="85" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="108" t="s">
         <v>58</v>
       </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="68" spans="1:8">
       <c r="A17" s="102" t="s">
@@ -2940,19 +2988,44 @@
       <c r="F17" s="98" t="n">
         <v>20</v>
       </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s"/>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="68" spans="1:8">
       <c r="A19" s="103" t="s">
         <v>8</v>
       </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="68" spans="1:8">
       <c r="A20" s="103" t="s">
         <v>50</v>
       </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" s="103" t="s">
         <v>51</v>
       </c>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="68" spans="1:8">
       <c r="A21" s="104" t="s">
@@ -2973,6 +3046,8 @@
       <c r="F21" s="105" t="s">
         <v>2</v>
       </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="68" spans="1:8">
       <c r="A22" s="101" t="s">
@@ -2995,8 +3070,8 @@
         <f>'Table1 &amp; Fig1'!E3</f>
         <v/>
       </c>
-      <c r="G22" s="75" t="n"/>
-      <c r="H22" s="81" t="n"/>
+      <c r="G22" s="75" t="s"/>
+      <c r="H22" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="68" spans="1:8">
       <c r="A23" s="101" t="s">
@@ -3019,15 +3094,15 @@
         <f>'Table1 &amp; Fig1'!E7</f>
         <v/>
       </c>
-      <c r="G23" s="75" t="n"/>
-      <c r="H23" s="81" t="n"/>
+      <c r="G23" s="75" t="s"/>
+      <c r="H23" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="68" spans="1:8">
       <c r="A24" s="101" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="75" t="n">
-        <v>0.123072661464681</v>
+        <v>0.1257021522003958</v>
       </c>
       <c r="C24" s="93" t="n">
         <v>10</v>
@@ -3043,15 +3118,15 @@
         <f>'Table1 &amp; Fig1'!E23</f>
         <v/>
       </c>
-      <c r="G24" s="75" t="n"/>
-      <c r="H24" s="81" t="n"/>
+      <c r="G24" s="75" t="s"/>
+      <c r="H24" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="68" spans="1:8">
       <c r="A25" s="101" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="75" t="n">
-        <v>0.177174886840973</v>
+        <v>0.1719159053695435</v>
       </c>
       <c r="C25" s="93" t="n">
         <v>10</v>
@@ -3067,15 +3142,15 @@
         <f>'Table1 &amp; Fig1'!E14</f>
         <v/>
       </c>
-      <c r="G25" s="75" t="n"/>
-      <c r="H25" s="81" t="n"/>
+      <c r="G25" s="75" t="s"/>
+      <c r="H25" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="68" spans="1:8">
       <c r="A26" s="101" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="75" t="n">
-        <v>0.123072661464681</v>
+        <v>0.1257021522003958</v>
       </c>
       <c r="C26" s="93" t="n">
         <v>10</v>
@@ -3091,15 +3166,15 @@
         <f>'Table1 &amp; Fig1'!E18</f>
         <v/>
       </c>
-      <c r="G26" s="81" t="n"/>
-      <c r="H26" s="81" t="n"/>
+      <c r="G26" s="81" t="s"/>
+      <c r="H26" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="68" spans="1:8">
       <c r="A27" s="101" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="81" t="n">
-        <v>0.306594194335118</v>
+        <v>0.3065941943351184</v>
       </c>
       <c r="C27" s="97" t="n">
         <v>10</v>
@@ -3114,15 +3189,15 @@
       <c r="F27" s="93" t="n">
         <v>10</v>
       </c>
-      <c r="G27" s="81" t="n"/>
-      <c r="H27" s="81" t="n"/>
+      <c r="G27" s="81" t="s"/>
+      <c r="H27" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="68" spans="1:8">
       <c r="A28" s="101" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="67" t="n">
-        <v>0.279463772249642</v>
+        <v>0.2794637722496416</v>
       </c>
       <c r="C28" s="93" t="n">
         <v>10</v>
@@ -3137,12 +3212,13 @@
       <c r="F28" s="93" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="81" t="n"/>
-      <c r="H28" s="81" t="n"/>
+      <c r="G28" s="81" t="s"/>
+      <c r="H28" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="68" spans="1:8">
-      <c r="A29" s="107" t="n"/>
-      <c r="C29" s="93" t="n"/>
+      <c r="A29" s="107" t="s"/>
+      <c r="B29" t="s"/>
+      <c r="C29" s="93" t="s"/>
       <c r="D29" s="81" t="s">
         <v>41</v>
       </c>
@@ -3154,12 +3230,13 @@
         <f>Fig2A!D23</f>
         <v/>
       </c>
-      <c r="G29" s="81" t="n"/>
-      <c r="H29" s="81" t="n"/>
+      <c r="G29" s="81" t="s"/>
+      <c r="H29" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="68" spans="1:8">
-      <c r="A30" s="107" t="n"/>
-      <c r="C30" s="93" t="n"/>
+      <c r="A30" s="107" t="s"/>
+      <c r="B30" t="s"/>
+      <c r="C30" s="93" t="s"/>
       <c r="D30" s="81" t="s">
         <v>20</v>
       </c>
@@ -3170,13 +3247,13 @@
       <c r="F30" s="93" t="n">
         <v>10</v>
       </c>
-      <c r="G30" s="81" t="n"/>
-      <c r="H30" s="81" t="n"/>
+      <c r="G30" s="81" t="s"/>
+      <c r="H30" s="81" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="68" spans="1:8">
-      <c r="A31" s="109" t="n"/>
-      <c r="B31" s="78" t="n"/>
-      <c r="C31" s="98" t="n"/>
+      <c r="A31" s="109" t="s"/>
+      <c r="B31" s="78" t="s"/>
+      <c r="C31" s="98" t="s"/>
       <c r="D31" s="83" t="s">
         <v>12</v>
       </c>
@@ -3187,22 +3264,36 @@
       <c r="F31" s="98" t="n">
         <v>10</v>
       </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s"/>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s"/>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s"/>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s"/>
     </row>
     <row customHeight="1" ht="37.5" r="33" s="68" spans="1:8">
-      <c r="A33" s="104" t="n"/>
+      <c r="A33" s="104" t="s"/>
       <c r="B33" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="104" t="n"/>
+      <c r="D33" s="104" t="s"/>
       <c r="E33" s="85" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="108" t="s">
         <v>58</v>
       </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="34" s="68" spans="1:8">
       <c r="A34" s="102" t="s">
@@ -3225,6 +3316,8 @@
       <c r="F34" s="98" t="n">
         <v>5</v>
       </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="1048576" s="68" spans="1:8"/>
   </sheetData>
@@ -4414,14 +4507,14 @@
       <c r="D1" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="70" t="s"/>
-      <c r="F1" s="70" t="s"/>
-      <c r="G1" s="70" t="s"/>
-      <c r="H1" s="70" t="s"/>
-      <c r="I1" s="70" t="s"/>
-      <c r="J1" s="70" t="s"/>
-      <c r="K1" s="70" t="s"/>
-      <c r="L1" s="70" t="s"/>
+      <c r="E1" s="70" t="n"/>
+      <c r="F1" s="70" t="n"/>
+      <c r="G1" s="70" t="n"/>
+      <c r="H1" s="70" t="n"/>
+      <c r="I1" s="70" t="n"/>
+      <c r="J1" s="70" t="n"/>
+      <c r="K1" s="70" t="n"/>
+      <c r="L1" s="70" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="68" spans="1:12">
       <c r="A2" s="70" t="s">
@@ -4434,15 +4527,7 @@
       <c r="C2" s="76" t="n">
         <v>550</v>
       </c>
-      <c r="D2" s="93" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
+      <c r="D2" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="68" spans="1:12">
       <c r="A3" s="70" t="s">
@@ -4455,15 +4540,7 @@
       <c r="C3" s="76" t="n">
         <v>450</v>
       </c>
-      <c r="D3" s="93" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
+      <c r="D3" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" s="68" spans="1:12">
       <c r="A4" s="70" t="s">
@@ -4476,15 +4553,7 @@
       <c r="C4" s="76" t="n">
         <v>0.8</v>
       </c>
-      <c r="D4" s="93" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
+      <c r="D4" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="5" s="68" spans="1:12">
       <c r="A5" s="70" t="s">
@@ -4497,15 +4566,7 @@
       <c r="C5" s="76" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="93" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
+      <c r="D5" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="68" spans="1:12">
       <c r="A6" s="70" t="s">
@@ -4518,15 +4579,7 @@
       <c r="C6" s="76" t="n">
         <v>0.15</v>
       </c>
-      <c r="D6" s="93" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
+      <c r="D6" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="68" spans="1:12">
       <c r="A7" s="70" t="s">
@@ -4539,15 +4592,7 @@
       <c r="C7" s="76" t="n">
         <v>320</v>
       </c>
-      <c r="D7" s="93" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
+      <c r="D7" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="68" spans="1:12">
       <c r="A8" s="70" t="s">
@@ -4560,15 +4605,7 @@
       <c r="C8" s="76" t="n">
         <v>0.6</v>
       </c>
-      <c r="D8" s="93" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
+      <c r="D8" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="68" spans="1:12">
       <c r="A9" s="70" t="s">
@@ -4581,15 +4618,7 @@
       <c r="C9" s="76" t="n">
         <v>230</v>
       </c>
-      <c r="D9" s="93" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
+      <c r="D9" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="68" spans="1:12">
       <c r="A10" s="70" t="s">
@@ -4601,15 +4630,8 @@
       <c r="C10" s="76" t="n">
         <v>130</v>
       </c>
-      <c r="D10" s="93" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" s="130" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
+      <c r="D10" s="93" t="n"/>
+      <c r="G10" s="130" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="68" spans="1:12">
       <c r="A11" s="70" t="s">
@@ -4622,15 +4644,7 @@
       <c r="C11" s="76" t="n">
         <v>100</v>
       </c>
-      <c r="D11" s="93" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
+      <c r="D11" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="68" spans="1:12">
       <c r="A12" s="70" t="s">
@@ -4643,15 +4657,7 @@
       <c r="C12" s="76" t="n">
         <v>0.7</v>
       </c>
-      <c r="D12" s="93" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
+      <c r="D12" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="13" s="68" spans="1:12">
       <c r="A13" s="70" t="s">
@@ -4664,15 +4670,7 @@
       <c r="C13" s="76" t="n">
         <v>0.9</v>
       </c>
-      <c r="D13" s="93" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
+      <c r="D13" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="14" s="68" spans="1:12">
       <c r="A14" s="70" t="s">
@@ -4685,15 +4683,7 @@
       <c r="C14" s="76" t="n">
         <v>150</v>
       </c>
-      <c r="D14" s="93" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+      <c r="D14" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="15" s="68" spans="1:12">
       <c r="A15" s="70" t="s">
@@ -4706,15 +4696,7 @@
       <c r="C15" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="93" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+      <c r="D15" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="16" s="68" spans="1:12">
       <c r="A16" s="70" t="s">
@@ -4727,15 +4709,7 @@
       <c r="C16" s="76" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="93" t="s"/>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+      <c r="D16" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="68" spans="1:12">
       <c r="A17" s="70" t="s">
@@ -4748,15 +4722,7 @@
       <c r="C17" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="D17" s="93" t="s"/>
-      <c r="E17" t="s"/>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+      <c r="D17" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="68" spans="1:12">
       <c r="A18" s="70" t="s">
@@ -4769,15 +4735,7 @@
       <c r="C18" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="D18" s="93" t="s"/>
-      <c r="E18" t="s"/>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+      <c r="D18" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="68" spans="1:12">
       <c r="A19" s="70" t="s">
@@ -4790,15 +4748,7 @@
       <c r="C19" s="76" t="n">
         <v>0.01</v>
       </c>
-      <c r="D19" s="93" t="s"/>
-      <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+      <c r="D19" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="68" spans="1:12">
       <c r="A20" s="70" t="s">
@@ -4811,15 +4761,7 @@
       <c r="C20" s="76" t="n">
         <v>0.007</v>
       </c>
-      <c r="D20" s="93" t="s"/>
-      <c r="E20" t="s"/>
-      <c r="F20" t="s"/>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
+      <c r="D20" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="68" spans="1:12">
       <c r="A21" s="70" t="s">
@@ -4831,15 +4773,7 @@
       <c r="C21" s="76" t="n">
         <v>0.005</v>
       </c>
-      <c r="D21" s="93" t="s"/>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+      <c r="D21" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="68" spans="1:12">
       <c r="A22" s="70" t="s">
@@ -4852,15 +4786,7 @@
       <c r="C22" s="76" t="n">
         <v>0.002</v>
       </c>
-      <c r="D22" s="93" t="s"/>
-      <c r="E22" t="s"/>
-      <c r="F22" t="s"/>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
+      <c r="D22" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="68" spans="1:12">
       <c r="A23" s="70" t="s">
@@ -4873,15 +4799,7 @@
       <c r="C23" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="93" t="s"/>
-      <c r="E23" t="s"/>
-      <c r="F23" t="s"/>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+      <c r="D23" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="24" s="68" spans="1:12">
       <c r="A24" s="70" t="s">
@@ -4894,15 +4812,7 @@
       <c r="C24" s="76" t="n">
         <v>0.25</v>
       </c>
-      <c r="D24" s="93" t="s"/>
-      <c r="E24" t="s"/>
-      <c r="F24" t="s"/>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
+      <c r="D24" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="68" spans="1:12">
       <c r="A25" s="70" t="s">
@@ -4916,15 +4826,7 @@
         <f>'Table1 &amp; Fig1'!G12</f>
         <v/>
       </c>
-      <c r="D25" s="93" t="s"/>
-      <c r="E25" t="s"/>
-      <c r="F25" t="s"/>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s"/>
-      <c r="J25" t="s"/>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
+      <c r="D25" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="68" spans="1:12">
       <c r="A26" s="70" t="s">
@@ -4937,15 +4839,7 @@
       <c r="C26" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="93" t="s"/>
-      <c r="E26" t="s"/>
-      <c r="F26" t="s"/>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s"/>
-      <c r="J26" t="s"/>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+      <c r="D26" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="68" spans="1:12">
       <c r="A27" s="70" t="s">
@@ -4959,15 +4853,7 @@
         <f>'Table1 &amp; Fig1'!D18</f>
         <v/>
       </c>
-      <c r="D27" s="93" t="s"/>
-      <c r="E27" t="s"/>
-      <c r="F27" t="s"/>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s"/>
-      <c r="J27" t="s"/>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+      <c r="D27" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="28" s="68" spans="1:12">
       <c r="A28" s="70" t="s">
@@ -4982,14 +4868,6 @@
       <c r="D28" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="E28" t="s"/>
-      <c r="F28" t="s"/>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s"/>
-      <c r="J28" t="s"/>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="68" spans="1:12">
       <c r="A29" s="70" t="s">
@@ -5002,15 +4880,7 @@
       <c r="C29" s="76" t="n">
         <v>0.003</v>
       </c>
-      <c r="D29" s="96" t="s"/>
-      <c r="E29" t="s"/>
-      <c r="F29" t="s"/>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s"/>
-      <c r="J29" t="s"/>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
+      <c r="D29" s="96" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="30" s="68" spans="1:12">
       <c r="A30" s="70" t="s">
@@ -5023,15 +4893,7 @@
       <c r="C30" s="76" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="96" t="s"/>
-      <c r="E30" t="s"/>
-      <c r="F30" t="s"/>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s"/>
-      <c r="J30" t="s"/>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+      <c r="D30" s="96" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="31" s="68" spans="1:12">
       <c r="A31" s="70" t="s">
@@ -5046,14 +4908,6 @@
       <c r="D31" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="E31" t="s"/>
-      <c r="F31" t="s"/>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s"/>
-      <c r="J31" t="s"/>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="32" s="68" spans="1:12">
       <c r="A32" s="70" t="s">
@@ -5066,15 +4920,7 @@
       <c r="C32" s="76" t="n">
         <v>0.004</v>
       </c>
-      <c r="D32" s="93" t="s"/>
-      <c r="E32" t="s"/>
-      <c r="F32" t="s"/>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s"/>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+      <c r="D32" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="33" s="68" spans="1:12">
       <c r="A33" s="70" t="s">
@@ -5087,15 +4933,7 @@
       <c r="C33" s="76" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="93" t="s"/>
-      <c r="E33" t="s"/>
-      <c r="F33" t="s"/>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s"/>
-      <c r="J33" t="s"/>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+      <c r="D33" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="34" s="68" spans="1:12">
       <c r="A34" s="135" t="s">
@@ -5108,15 +4946,7 @@
       <c r="C34" s="76" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="93" t="s"/>
-      <c r="E34" t="s"/>
-      <c r="F34" t="s"/>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s"/>
-      <c r="J34" t="s"/>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+      <c r="D34" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="35" s="68" spans="1:12">
       <c r="A35" s="135" t="s">
@@ -5129,15 +4959,7 @@
       <c r="C35" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="93" t="s"/>
-      <c r="E35" t="s"/>
-      <c r="F35" t="s"/>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s"/>
-      <c r="J35" t="s"/>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+      <c r="D35" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="68" spans="1:12">
       <c r="A36" s="70" t="s">
@@ -5150,15 +4972,7 @@
       <c r="C36" s="76" t="n">
         <v>0.04</v>
       </c>
-      <c r="D36" s="93" t="s"/>
-      <c r="E36" t="s"/>
-      <c r="F36" t="s"/>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s"/>
-      <c r="J36" t="s"/>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+      <c r="D36" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="68" spans="1:12">
       <c r="A37" s="70" t="s">
@@ -5171,15 +4985,7 @@
       <c r="C37" s="76" t="n">
         <v>0.16</v>
       </c>
-      <c r="D37" s="93" t="s"/>
-      <c r="E37" t="s"/>
-      <c r="F37" t="s"/>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s"/>
-      <c r="J37" t="s"/>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+      <c r="D37" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="68" spans="1:12">
       <c r="A38" s="70" t="s">
@@ -5191,15 +4997,7 @@
       <c r="C38" s="76" t="n">
         <v>0.2</v>
       </c>
-      <c r="D38" s="93" t="s"/>
-      <c r="E38" t="s"/>
-      <c r="F38" t="s"/>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s"/>
-      <c r="J38" t="s"/>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
+      <c r="D38" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="39" s="68" spans="1:12">
       <c r="A39" s="70" t="s">
@@ -5215,14 +5013,6 @@
       <c r="D39" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="E39" t="s"/>
-      <c r="F39" t="s"/>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
-      <c r="J39" t="s"/>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="68" spans="1:12">
       <c r="A40" s="70" t="s">
@@ -5235,15 +5025,7 @@
       <c r="C40" s="76" t="n">
         <v>470</v>
       </c>
-      <c r="D40" s="93" t="s"/>
-      <c r="E40" t="s"/>
-      <c r="F40" t="s"/>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s"/>
-      <c r="J40" t="s"/>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+      <c r="D40" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="68" spans="1:12">
       <c r="A41" s="70" t="s">
@@ -5256,15 +5038,7 @@
       <c r="C41" s="76" t="n">
         <v>6</v>
       </c>
-      <c r="D41" s="93" t="s"/>
-      <c r="E41" t="s"/>
-      <c r="F41" t="s"/>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s"/>
-      <c r="J41" t="s"/>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+      <c r="D41" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="42" s="68" spans="1:12">
       <c r="A42" s="70" t="s">
@@ -5277,15 +5051,7 @@
       <c r="C42" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="93" t="s"/>
-      <c r="E42" t="s"/>
-      <c r="F42" t="s"/>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s"/>
-      <c r="J42" t="s"/>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
+      <c r="D42" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="43" s="68" spans="1:12">
       <c r="A43" s="70" t="s">
@@ -5298,15 +5064,7 @@
       <c r="C43" s="76" t="n">
         <v>5</v>
       </c>
-      <c r="D43" s="93" t="s"/>
-      <c r="E43" t="s"/>
-      <c r="F43" t="s"/>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s"/>
-      <c r="J43" t="s"/>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+      <c r="D43" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="68" spans="1:12">
       <c r="A44" s="70" t="s">
@@ -5319,15 +5077,7 @@
       <c r="C44" s="76" t="n">
         <v>0.7</v>
       </c>
-      <c r="D44" s="93" t="s"/>
-      <c r="E44" t="s"/>
-      <c r="F44" t="s"/>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s"/>
-      <c r="J44" t="s"/>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+      <c r="D44" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="45" s="68" spans="1:12">
       <c r="A45" s="70" t="s">
@@ -5340,15 +5090,7 @@
       <c r="C45" s="76" t="n">
         <v>0.15</v>
       </c>
-      <c r="D45" s="93" t="s"/>
-      <c r="E45" t="s"/>
-      <c r="F45" t="s"/>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s"/>
-      <c r="J45" t="s"/>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+      <c r="D45" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="68" spans="1:12">
       <c r="A46" s="70" t="s">
@@ -5360,15 +5102,7 @@
       <c r="C46" s="78" t="n">
         <v>0.05</v>
       </c>
-      <c r="D46" s="98" t="s"/>
-      <c r="E46" t="s"/>
-      <c r="F46" t="s"/>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s"/>
-      <c r="J46" t="s"/>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+      <c r="D46" s="98" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1689,7 +1689,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="75" t="n">
-        <v>0.922339995959687</v>
+        <v>0.9403551483445159</v>
       </c>
       <c r="D14" s="76" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="75" t="n">
-        <v>0.08961683000340349</v>
+        <v>0.08961683000340352</v>
       </c>
       <c r="D15" s="76" t="n">
         <v>0.1</v>
@@ -1716,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="75" t="n">
-        <v>0.181984847615171</v>
+        <v>0.1819848476151713</v>
       </c>
       <c r="D16" s="76" t="n">
         <v>0.2</v>
@@ -2705,27 +2705,15 @@
       <c r="A1" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
-      <c r="E1" t="s"/>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="68" spans="1:8">
       <c r="A2" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
       <c r="D2" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" s="81" t="s"/>
-      <c r="H2" t="s"/>
+      <c r="G2" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="68" spans="1:8">
       <c r="A3" s="104" t="s">
@@ -2746,8 +2734,6 @@
       <c r="F3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" s="68" spans="1:8">
       <c r="A4" s="101" t="s">
@@ -2771,13 +2757,11 @@
         <f>'Table1 &amp; Fig1'!E4</f>
         <v/>
       </c>
-      <c r="G4" s="75" t="s"/>
-      <c r="H4" t="s"/>
+      <c r="G4" s="75" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="5" s="68" spans="1:8">
-      <c r="A5" s="107" t="s"/>
-      <c r="B5" t="s"/>
-      <c r="C5" s="93" t="s"/>
+      <c r="A5" s="107" t="n"/>
+      <c r="C5" s="93" t="n"/>
       <c r="D5" s="76" t="s">
         <v>55</v>
       </c>
@@ -2789,13 +2773,11 @@
         <f>'Table1 &amp; Fig1'!E8</f>
         <v/>
       </c>
-      <c r="G5" s="81" t="s"/>
-      <c r="H5" t="s"/>
+      <c r="G5" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="68" spans="1:8">
-      <c r="A6" s="107" t="s"/>
-      <c r="B6" t="s"/>
-      <c r="C6" s="93" t="s"/>
+      <c r="A6" s="107" t="n"/>
+      <c r="C6" s="93" t="n"/>
       <c r="D6" s="76" t="s">
         <v>56</v>
       </c>
@@ -2807,13 +2789,11 @@
         <f>'Table1 &amp; Fig1'!E10</f>
         <v/>
       </c>
-      <c r="G6" s="81" t="s"/>
-      <c r="H6" t="s"/>
+      <c r="G6" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="68" spans="1:8">
-      <c r="A7" s="107" t="s"/>
-      <c r="B7" t="s"/>
-      <c r="C7" s="93" t="s"/>
+      <c r="A7" s="107" t="n"/>
+      <c r="C7" s="93" t="n"/>
       <c r="D7" s="81" t="s">
         <v>57</v>
       </c>
@@ -2825,13 +2805,11 @@
         <f>'Table1 &amp; Fig1'!E24</f>
         <v/>
       </c>
-      <c r="G7" s="81" t="s"/>
-      <c r="H7" t="s"/>
+      <c r="G7" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="68" spans="1:8">
-      <c r="A8" s="107" t="s"/>
-      <c r="B8" t="s"/>
-      <c r="C8" s="93" t="s"/>
+      <c r="A8" s="107" t="n"/>
+      <c r="C8" s="93" t="n"/>
       <c r="D8" s="81" t="s">
         <v>16</v>
       </c>
@@ -2843,13 +2821,11 @@
         <f>'Table1 &amp; Fig1'!E13</f>
         <v/>
       </c>
-      <c r="G8" s="81" t="s"/>
-      <c r="H8" t="s"/>
+      <c r="G8" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="68" spans="1:8">
-      <c r="A9" s="107" t="s"/>
-      <c r="B9" t="s"/>
-      <c r="C9" s="93" t="s"/>
+      <c r="A9" s="107" t="n"/>
+      <c r="C9" s="93" t="n"/>
       <c r="D9" s="81" t="s">
         <v>23</v>
       </c>
@@ -2857,14 +2833,12 @@
         <f>'Table1 &amp; Fig1'!C20</f>
         <v/>
       </c>
-      <c r="F9" s="97" t="s"/>
-      <c r="G9" s="81" t="s"/>
-      <c r="H9" t="s"/>
+      <c r="F9" s="97" t="n"/>
+      <c r="G9" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="68" spans="1:8">
-      <c r="A10" s="107" t="s"/>
-      <c r="B10" t="s"/>
-      <c r="C10" s="93" t="s"/>
+      <c r="A10" s="107" t="n"/>
+      <c r="C10" s="93" t="n"/>
       <c r="D10" s="81" t="s">
         <v>22</v>
       </c>
@@ -2872,14 +2846,12 @@
         <f>'Table1 &amp; Fig1'!C19</f>
         <v/>
       </c>
-      <c r="F10" s="97" t="s"/>
-      <c r="G10" s="81" t="s"/>
-      <c r="H10" t="s"/>
+      <c r="F10" s="97" t="n"/>
+      <c r="G10" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="68" spans="1:8">
-      <c r="A11" s="107" t="s"/>
-      <c r="B11" t="s"/>
-      <c r="C11" s="93" t="s"/>
+      <c r="A11" s="107" t="n"/>
+      <c r="C11" s="93" t="n"/>
       <c r="D11" s="81" t="s">
         <v>34</v>
       </c>
@@ -2891,13 +2863,11 @@
         <f>Fig2A!D9</f>
         <v/>
       </c>
-      <c r="G11" s="81" t="s"/>
-      <c r="H11" t="s"/>
+      <c r="G11" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="68" spans="1:8">
-      <c r="A12" s="107" t="s"/>
-      <c r="B12" t="s"/>
-      <c r="C12" s="93" t="s"/>
+      <c r="A12" s="107" t="n"/>
+      <c r="C12" s="93" t="n"/>
       <c r="D12" s="81" t="s">
         <v>24</v>
       </c>
@@ -2905,14 +2875,12 @@
         <f>'Table1 &amp; Fig1'!C21</f>
         <v/>
       </c>
-      <c r="F12" s="97" t="s"/>
-      <c r="G12" s="81" t="s"/>
-      <c r="H12" t="s"/>
+      <c r="F12" s="97" t="n"/>
+      <c r="G12" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="68" spans="1:8">
-      <c r="A13" s="107" t="s"/>
-      <c r="B13" t="s"/>
-      <c r="C13" s="93" t="s"/>
+      <c r="A13" s="107" t="n"/>
+      <c r="C13" s="93" t="n"/>
       <c r="D13" s="81" t="s">
         <v>15</v>
       </c>
@@ -2920,14 +2888,12 @@
         <f>'Table1 &amp; Fig1'!C12</f>
         <v/>
       </c>
-      <c r="F13" s="93" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
+      <c r="F13" s="93" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="14" s="68" spans="1:8">
-      <c r="A14" s="102" t="s"/>
-      <c r="B14" s="83" t="s"/>
-      <c r="C14" s="95" t="s"/>
+      <c r="A14" s="102" t="n"/>
+      <c r="B14" s="83" t="n"/>
+      <c r="C14" s="95" t="n"/>
       <c r="D14" s="83" t="s">
         <v>20</v>
       </c>
@@ -2935,37 +2901,23 @@
         <f>Fig2A!C12</f>
         <v/>
       </c>
-      <c r="F14" s="98" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s"/>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
+      <c r="F14" s="98" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="16" s="68" spans="1:8">
-      <c r="A16" s="104" t="s"/>
+      <c r="A16" s="104" t="n"/>
       <c r="B16" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="104" t="s"/>
+      <c r="D16" s="104" t="n"/>
       <c r="E16" s="85" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="68" spans="1:8">
       <c r="A17" s="102" t="s">
@@ -2988,44 +2940,19 @@
       <c r="F17" s="98" t="n">
         <v>20</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s"/>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="68" spans="1:8">
       <c r="A19" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
-      <c r="D19" t="s"/>
-      <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="68" spans="1:8">
       <c r="A20" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
       <c r="D20" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s"/>
-      <c r="F20" t="s"/>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="68" spans="1:8">
       <c r="A21" s="104" t="s">
@@ -3046,8 +2973,6 @@
       <c r="F21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="68" spans="1:8">
       <c r="A22" s="101" t="s">
@@ -3070,8 +2995,8 @@
         <f>'Table1 &amp; Fig1'!E3</f>
         <v/>
       </c>
-      <c r="G22" s="75" t="s"/>
-      <c r="H22" s="81" t="s"/>
+      <c r="G22" s="75" t="n"/>
+      <c r="H22" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="68" spans="1:8">
       <c r="A23" s="101" t="s">
@@ -3094,8 +3019,8 @@
         <f>'Table1 &amp; Fig1'!E7</f>
         <v/>
       </c>
-      <c r="G23" s="75" t="s"/>
-      <c r="H23" s="81" t="s"/>
+      <c r="G23" s="75" t="n"/>
+      <c r="H23" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="68" spans="1:8">
       <c r="A24" s="101" t="s">
@@ -3118,8 +3043,8 @@
         <f>'Table1 &amp; Fig1'!E23</f>
         <v/>
       </c>
-      <c r="G24" s="75" t="s"/>
-      <c r="H24" s="81" t="s"/>
+      <c r="G24" s="75" t="n"/>
+      <c r="H24" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="68" spans="1:8">
       <c r="A25" s="101" t="s">
@@ -3142,8 +3067,8 @@
         <f>'Table1 &amp; Fig1'!E14</f>
         <v/>
       </c>
-      <c r="G25" s="75" t="s"/>
-      <c r="H25" s="81" t="s"/>
+      <c r="G25" s="75" t="n"/>
+      <c r="H25" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="68" spans="1:8">
       <c r="A26" s="101" t="s">
@@ -3166,8 +3091,8 @@
         <f>'Table1 &amp; Fig1'!E18</f>
         <v/>
       </c>
-      <c r="G26" s="81" t="s"/>
-      <c r="H26" s="81" t="s"/>
+      <c r="G26" s="81" t="n"/>
+      <c r="H26" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="68" spans="1:8">
       <c r="A27" s="101" t="s">
@@ -3189,8 +3114,8 @@
       <c r="F27" s="93" t="n">
         <v>10</v>
       </c>
-      <c r="G27" s="81" t="s"/>
-      <c r="H27" s="81" t="s"/>
+      <c r="G27" s="81" t="n"/>
+      <c r="H27" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="68" spans="1:8">
       <c r="A28" s="101" t="s">
@@ -3212,13 +3137,12 @@
       <c r="F28" s="93" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="81" t="s"/>
-      <c r="H28" s="81" t="s"/>
+      <c r="G28" s="81" t="n"/>
+      <c r="H28" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="68" spans="1:8">
-      <c r="A29" s="107" t="s"/>
-      <c r="B29" t="s"/>
-      <c r="C29" s="93" t="s"/>
+      <c r="A29" s="107" t="n"/>
+      <c r="C29" s="93" t="n"/>
       <c r="D29" s="81" t="s">
         <v>41</v>
       </c>
@@ -3230,13 +3154,12 @@
         <f>Fig2A!D23</f>
         <v/>
       </c>
-      <c r="G29" s="81" t="s"/>
-      <c r="H29" s="81" t="s"/>
+      <c r="G29" s="81" t="n"/>
+      <c r="H29" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="68" spans="1:8">
-      <c r="A30" s="107" t="s"/>
-      <c r="B30" t="s"/>
-      <c r="C30" s="93" t="s"/>
+      <c r="A30" s="107" t="n"/>
+      <c r="C30" s="93" t="n"/>
       <c r="D30" s="81" t="s">
         <v>20</v>
       </c>
@@ -3247,13 +3170,13 @@
       <c r="F30" s="93" t="n">
         <v>10</v>
       </c>
-      <c r="G30" s="81" t="s"/>
-      <c r="H30" s="81" t="s"/>
+      <c r="G30" s="81" t="n"/>
+      <c r="H30" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="68" spans="1:8">
-      <c r="A31" s="109" t="s"/>
-      <c r="B31" s="78" t="s"/>
-      <c r="C31" s="98" t="s"/>
+      <c r="A31" s="109" t="n"/>
+      <c r="B31" s="78" t="n"/>
+      <c r="C31" s="98" t="n"/>
       <c r="D31" s="83" t="s">
         <v>12</v>
       </c>
@@ -3264,36 +3187,22 @@
       <c r="F31" s="98" t="n">
         <v>10</v>
       </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s"/>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
-      <c r="D32" t="s"/>
-      <c r="E32" t="s"/>
-      <c r="F32" t="s"/>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s"/>
     </row>
     <row customHeight="1" ht="37.5" r="33" s="68" spans="1:8">
-      <c r="A33" s="104" t="s"/>
+      <c r="A33" s="104" t="n"/>
       <c r="B33" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="104" t="s"/>
+      <c r="D33" s="104" t="n"/>
       <c r="E33" s="85" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="34" s="68" spans="1:8">
       <c r="A34" s="102" t="s">
@@ -3316,8 +3225,6 @@
       <c r="F34" s="98" t="n">
         <v>5</v>
       </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s"/>
     </row>
     <row customHeight="1" ht="15.75" r="1048576" s="68" spans="1:8"/>
   </sheetData>
@@ -4058,6 +3965,7 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="3" s="68" spans="1:7">
+      <c r="A3" s="70" t="n"/>
       <c r="B3" s="70" t="s">
         <v>8</v>
       </c>
@@ -4071,8 +3979,11 @@
       <c r="E3" s="121" t="n">
         <v>9.999999999999999e+28</v>
       </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="68" spans="1:7">
+      <c r="A4" s="70" t="n"/>
       <c r="B4" s="70" t="s">
         <v>9</v>
       </c>
@@ -4086,8 +3997,11 @@
       <c r="E4" s="121" t="n">
         <v>9.999999999999999e+28</v>
       </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="68" spans="1:7">
+      <c r="A5" s="70" t="n"/>
       <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
@@ -4101,6 +4015,8 @@
       <c r="E5" s="122" t="n">
         <v>9.999999999999999e+28</v>
       </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="68" spans="1:7">
       <c r="A6" s="70" t="s">
@@ -4128,6 +4044,7 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="68" spans="1:7">
+      <c r="A7" s="70" t="n"/>
       <c r="B7" s="70" t="s">
         <v>8</v>
       </c>
@@ -4141,8 +4058,11 @@
       <c r="E7" s="121" t="n">
         <v>1e+28</v>
       </c>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="8" s="68" spans="1:7">
+      <c r="A8" s="70" t="n"/>
       <c r="B8" s="70" t="s">
         <v>9</v>
       </c>
@@ -4156,8 +4076,11 @@
       <c r="E8" s="121" t="n">
         <v>1e+28</v>
       </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="68" spans="1:7">
+      <c r="A9" s="70" t="n"/>
       <c r="B9" s="70" t="s">
         <v>10</v>
       </c>
@@ -4171,6 +4094,8 @@
       <c r="E9" s="122" t="n">
         <v>9.999999999999999e+28</v>
       </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="10" s="68" spans="1:7">
       <c r="A10" s="70" t="s">
@@ -4186,7 +4111,7 @@
       <c r="D10" s="118" t="n">
         <v>7.8680031944364e+26</v>
       </c>
-      <c r="E10" s="119" t="n"/>
+      <c r="E10" s="119" t="s"/>
       <c r="F10" s="119">
         <f>SUM(D10:D11)</f>
         <v/>
@@ -4196,6 +4121,7 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="68" spans="1:7">
+      <c r="A11" s="70" t="n"/>
       <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
@@ -4206,6 +4132,9 @@
       <c r="D11" s="75" t="n">
         <v>2.16546766429017e+25</v>
       </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="68" spans="1:7">
       <c r="A12" s="70" t="s">
@@ -4233,6 +4162,7 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="68" spans="1:7">
+      <c r="A13" s="70" t="n"/>
       <c r="B13" s="70" t="s">
         <v>16</v>
       </c>
@@ -4246,8 +4176,11 @@
       <c r="E13" s="121" t="n">
         <v>1e+18</v>
       </c>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="14" s="68" spans="1:7">
+      <c r="A14" s="70" t="n"/>
       <c r="B14" s="70" t="s">
         <v>17</v>
       </c>
@@ -4261,8 +4194,11 @@
       <c r="E14" s="121" t="n">
         <v>1e+20</v>
       </c>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="68" spans="1:7">
+      <c r="A15" s="70" t="n"/>
       <c r="B15" s="70" t="s">
         <v>18</v>
       </c>
@@ -4271,13 +4207,16 @@
         <v/>
       </c>
       <c r="D15" s="111" t="n">
-        <v>1.96566735744801e+16</v>
+        <v>1.965667357448014e+16</v>
       </c>
       <c r="E15" s="121" t="n">
         <v>1e+16</v>
       </c>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="16" s="68" spans="1:7">
+      <c r="A16" s="70" t="n"/>
       <c r="B16" s="70" t="s">
         <v>19</v>
       </c>
@@ -4286,13 +4225,16 @@
         <v/>
       </c>
       <c r="D16" s="111" t="n">
-        <v>4.97230526735166e+17</v>
+        <v>4.972305267351656e+17</v>
       </c>
       <c r="E16" s="121" t="n">
         <v>1e+18</v>
       </c>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="17" s="68" spans="1:7">
+      <c r="A17" s="70" t="n"/>
       <c r="B17" s="70" t="s">
         <v>20</v>
       </c>
@@ -4306,8 +4248,11 @@
       <c r="E17" s="121" t="n">
         <v>1e+21</v>
       </c>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="68" spans="1:7">
+      <c r="A18" s="70" t="n"/>
       <c r="B18" s="70" t="s">
         <v>21</v>
       </c>
@@ -4321,8 +4266,11 @@
       <c r="E18" s="121" t="n">
         <v>1000000000000000</v>
       </c>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="19" s="68" spans="1:7">
+      <c r="A19" s="70" t="n"/>
       <c r="B19" s="70" t="s">
         <v>22</v>
       </c>
@@ -4336,8 +4284,11 @@
       <c r="E19" s="121" t="n">
         <v>10000000000</v>
       </c>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="68" spans="1:7">
+      <c r="A20" s="70" t="n"/>
       <c r="B20" s="70" t="s">
         <v>23</v>
       </c>
@@ -4351,8 +4302,11 @@
       <c r="E20" s="121" t="n">
         <v>10000000000</v>
       </c>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="68" spans="1:7">
+      <c r="A21" s="70" t="n"/>
       <c r="B21" s="70" t="s">
         <v>24</v>
       </c>
@@ -4366,8 +4320,11 @@
       <c r="E21" s="121" t="n">
         <v>300000000000</v>
       </c>
+      <c r="F21" t="s"/>
+      <c r="G21" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="68" spans="1:7">
+      <c r="A22" s="70" t="n"/>
       <c r="B22" s="70" t="s">
         <v>25</v>
       </c>
@@ -4375,8 +4332,10 @@
         <f>'Table1 &amp; Fig1'!D22</f>
         <v/>
       </c>
-      <c r="D22" s="83" t="n"/>
-      <c r="E22" s="78" t="n"/>
+      <c r="D22" s="83" t="s"/>
+      <c r="E22" s="78" t="s"/>
+      <c r="F22" t="s"/>
+      <c r="G22" t="s"/>
     </row>
     <row customHeight="1" ht="13.8" r="23" s="68" spans="1:7">
       <c r="A23" s="70" t="s">
@@ -4392,7 +4351,7 @@
       <c r="D23" s="118" t="n">
         <v>4.72121469726706e+26</v>
       </c>
-      <c r="E23" s="119" t="n"/>
+      <c r="E23" s="119" t="s"/>
       <c r="F23" s="119">
         <f>SUM(D23:D23)</f>
         <v/>
@@ -4418,7 +4377,7 @@
       <c r="E24" s="124" t="n">
         <v>1e+31</v>
       </c>
-      <c r="F24" s="85" t="n"/>
+      <c r="F24" s="85" t="s"/>
       <c r="G24" s="125" t="n">
         <v>1e+31</v>
       </c>
@@ -4440,7 +4399,7 @@
       <c r="E25" s="124" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="F25" s="85" t="n"/>
+      <c r="F25" s="85" t="s"/>
       <c r="G25" s="125" t="n">
         <v>10000000000000</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -233,24 +233,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="153">
-  <si>
-    <t xml:space="preserve">The Biomass Distribution on Earth</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="154">
+  <si>
+    <t xml:space="preserve">Summary table for “The Biomass Distribution on Earth”</t>
   </si>
   <si>
     <t xml:space="preserve">Yinon M. Bar-On, Ron Phillips &amp; Ron Milo</t>
   </si>
   <si>
-    <t xml:space="preserve">Supplementary Information</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table of Contents</t>
   </si>
   <si>
     <t xml:space="preserve">These spreadsheets describe the results of our analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Each of the sheets describes the data supporting each table and figure in the text and SI</t>
+    <t xml:space="preserve">Each sheet describes the data supporting each table and figure in the text and SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content</t>
   </si>
   <si>
     <t xml:space="preserve">Table1 &amp; Fig1</t>
@@ -708,7 +711,7 @@
     <numFmt numFmtId="170" formatCode="0E+00"/>
     <numFmt numFmtId="171" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -750,6 +753,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1010,7 +1021,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1027,6 +1038,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1035,559 +1054,559 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1610,13 +1629,14 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,13 +1665,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1660,73 +1680,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>20</v>
+      <c r="A17" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1752,579 +1775,579 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="6" width="7.69387755102041"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
+    <row r="1" s="7" customFormat="true" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>58.0692937973419</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="14" t="n">
         <v>60</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="15" t="n">
         <v>20.7465055197393</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="15" t="n">
         <v>73.3967423596307</v>
       </c>
-      <c r="G2" s="12" t="n">
+      <c r="G2" s="14" t="n">
         <v>70</v>
       </c>
-      <c r="H2" s="14" t="n">
+      <c r="H2" s="16" t="n">
         <v>9.75646880590096</v>
       </c>
       <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17" t="n">
+        <v>1.32693409580242</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>1.81122948632623</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="L3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="19" t="n">
+        <v>7.3522978635168</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <v>6.38735131388308</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="L4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="20" t="n">
+        <v>6.6482166029696</v>
+      </c>
+      <c r="D5" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="n">
+        <v>7.64307456472352</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="L5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="n">
-        <v>1.32693409580242</v>
-      </c>
-      <c r="D3" s="16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>1.81122948632623</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="L3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="C6" s="15" t="n">
+        <v>3.70655066791544</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>62.0115692516205</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>7.4032252097726</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>13.0983425029663</v>
+      </c>
+      <c r="L6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="n">
-        <v>7.3522978635168</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <v>6.38735131388308</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="L4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="C7" s="17" t="n">
+        <v>0.331733523950604</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>2.68803432424406</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="L7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18" t="n">
-        <v>6.6482166029696</v>
-      </c>
-      <c r="D5" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="18" t="n">
-        <v>7.64307456472352</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="L5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="C8" s="17" t="n">
+        <v>0.515705330919589</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>3.64387348782425</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="L8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>3.70655066791544</v>
-      </c>
-      <c r="D6" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>62.0115692516205</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>7.4032252097726</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>13.0983425029663</v>
-      </c>
-      <c r="L6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0.331733523950604</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="17" t="n">
-        <v>2.68803432424406</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="L7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="15" t="n">
-        <v>0.515705330919589</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="17" t="n">
-        <v>3.64387348782425</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="L8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="20" t="n">
         <v>2.84923568698697</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="20" t="n">
         <v>7.93154470620712</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>11.8020047916546</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="15" t="n">
         <v>3.45975114741402</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="15" t="n">
         <f aca="false">SUM(C10:C11)</f>
         <v>12.1268249412981</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="16" t="n">
         <v>3.322420948501</v>
       </c>
       <c r="L10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="15" t="n">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="n">
         <v>0.324820149643526</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="22" t="n">
         <v>0.3</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="23" t="n">
         <v>0.198506447237222</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21" t="n">
+      <c r="E12" s="24"/>
+      <c r="F12" s="23" t="n">
         <v>2.4807754682911</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="16" t="n">
         <v>4.84656158736822</v>
       </c>
       <c r="L12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15" t="n">
+    <row r="13" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="17" t="n">
         <v>0.211567950397808</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="18" t="n">
         <v>0.2</v>
       </c>
-      <c r="E13" s="17" t="n">
+      <c r="E13" s="19" t="n">
         <v>14.8813474357469</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="L13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="15" t="n">
+    <row r="14" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="17" t="n">
         <v>0.940355148344516</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="L14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="15" t="n">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="17" t="n">
         <v>0.0896168300034035</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="18" t="n">
         <v>0.1</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="15" t="n">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="17" t="n">
         <v>0.181984847615171</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="18" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="25" t="n">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="27" t="n">
         <v>0.0196116584681631</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="18" t="n">
         <v>0.02</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="15" t="n">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="17" t="n">
         <v>0.667610883535102</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="18" t="n">
         <v>0.7</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="19" t="n">
         <v>8.25329923708148</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="15" t="n">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="17" t="n">
         <v>0.10714686353151</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="18" t="n">
         <v>0.1</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="25" t="n">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="27" t="n">
         <v>0.05537256615</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="18" t="n">
         <v>0.06</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="26" t="n">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="28" t="n">
         <v>0.00165801916787227</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="18" t="n">
         <v>0.002</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="27" t="n">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="29" t="n">
         <v>0.00734425384032944</v>
       </c>
-      <c r="D22" s="28" t="n">
+      <c r="D22" s="30" t="n">
         <v>0.007</v>
       </c>
-      <c r="E22" s="29" t="n">
+      <c r="E22" s="31" t="n">
         <v>1.81017500849861</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="21" t="n">
+      <c r="A23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="23" t="n">
         <v>2.06772391138456</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="15" t="n">
         <f aca="false">SUM(C23:C24)</f>
         <v>3.67320012734965</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G23" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H23" s="16" t="n">
         <v>4.47644430526447</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="15" t="n">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="17" t="n">
         <v>1.60547621596509</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="22" t="n">
         <v>1.6</v>
       </c>
-      <c r="E24" s="17" t="n">
+      <c r="E24" s="19" t="n">
         <v>3.73047280407657</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="31" t="n">
+      <c r="A25" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="33" t="n">
         <v>0.220215672587211</v>
       </c>
-      <c r="D25" s="32" t="n">
+      <c r="D25" s="34" t="n">
         <v>0.2</v>
       </c>
-      <c r="E25" s="33" t="n">
+      <c r="E25" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="35" t="n">
+      <c r="F25" s="36"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="37" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="36" t="n">
+      <c r="A26" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="38" t="n">
         <v>450</v>
       </c>
-      <c r="D26" s="32" t="n">
+      <c r="D26" s="34" t="n">
         <v>450</v>
       </c>
-      <c r="E26" s="33" t="n">
+      <c r="E26" s="35" t="n">
         <v>1.19395460482905</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="31" t="n">
+      <c r="F26" s="36"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33" t="n">
         <v>1.19395460482905</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="37" t="n">
+      <c r="A27" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="39" t="n">
         <f aca="false">SUM(C2:C27)</f>
         <v>549.300983778929</v>
       </c>
-      <c r="G27" s="16" t="n">
+      <c r="G27" s="18" t="n">
         <v>550</v>
       </c>
-      <c r="H27" s="38" t="n">
+      <c r="H27" s="40" t="n">
         <v>1.68692416420702</v>
       </c>
     </row>
@@ -2369,501 +2392,501 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="40"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="42" t="n">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="43" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>450</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="D2" s="44" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E26</f>
         <v>1.19395460482905</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41"/>
-      <c r="B3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="46" t="n">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.3522978635168</v>
       </c>
-      <c r="D3" s="47" t="n">
+      <c r="D3" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E4</f>
         <v>6.38735131388308</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41"/>
-      <c r="B4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="49" t="n">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.515705330919589</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E8</f>
         <v>3.64387348782425</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41"/>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="46" t="n">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>11.8020047916546</v>
       </c>
-      <c r="D5" s="47" t="n">
+      <c r="D5" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E10</f>
         <v>3.45975114741402</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41"/>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="49" t="n">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.211567950397808</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41"/>
-      <c r="B7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="50" t="n">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="51" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.05537256615</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="45"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41"/>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="49" t="n">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.10714686353151</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="45"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41"/>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="51" t="n">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="52" t="n">
         <v>0.00289064584032944</v>
       </c>
-      <c r="D9" s="47" t="n">
+      <c r="D9" s="48" t="n">
         <v>3.6917824251731</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41"/>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="51" t="n">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="52" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.00165801916787227</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41"/>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="49" t="n">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.198506447237222</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="45"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41"/>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="51" t="n">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="52" t="n">
         <v>0.00561165846816304</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41"/>
-      <c r="B13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="49" t="n">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>1.60547621596509</v>
       </c>
-      <c r="D13" s="47" t="n">
+      <c r="D13" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E24</f>
         <v>3.73047280407657</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41"/>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="52" t="n">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="53" t="n">
         <f aca="false">SUM(C2:C13)</f>
         <v>471.858238352849</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="n">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55" t="n">
         <v>470</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="49" t="n">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.32693409580242</v>
       </c>
-      <c r="D16" s="43" t="n">
+      <c r="D16" s="44" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E3</f>
         <v>1.81122948632623</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="49" t="n">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.331733523950604</v>
       </c>
-      <c r="D17" s="47" t="n">
+      <c r="D17" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E7</f>
         <v>2.68803432424406</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="49" t="n">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.940355148344516</v>
       </c>
-      <c r="D18" s="53" t="n">
+      <c r="D18" s="54" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E14</f>
         <v>10</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41"/>
-      <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="49" t="n">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.181984847615171</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="45"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
-      <c r="B20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="49" t="n">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.0896168300034035</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="45"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="B21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="49" t="n">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>2.06772391138456</v>
       </c>
-      <c r="D21" s="53" t="n">
+      <c r="D21" s="54" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E23</f>
         <v>10</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="45"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41"/>
-      <c r="B22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="49" t="n">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0.667610883535102</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="45"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
-      <c r="B23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="51" t="n">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="52" t="n">
         <v>0.004453608</v>
       </c>
-      <c r="D23" s="43" t="n">
+      <c r="D23" s="44" t="n">
         <v>1.4375</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="45"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="50" t="n">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="51" t="n">
         <v>0.014</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="45"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41"/>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="49" t="n">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.324820149643526</v>
       </c>
-      <c r="D25" s="53" t="n">
+      <c r="D25" s="54" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E11</f>
         <v>10</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="45"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41"/>
-      <c r="B26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="52" t="n">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="53" t="n">
         <f aca="false">SUM(C16:C25)</f>
         <v>5.9492329982793</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="57" t="n">
+      <c r="D26" s="54"/>
+      <c r="E26" s="58" t="n">
         <v>6</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="46" t="n">
+      <c r="B28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>6.6482166029696</v>
       </c>
-      <c r="D28" s="47" t="n">
+      <c r="D28" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E5</f>
         <v>7.64307456472352</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="45"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58"/>
-      <c r="B29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="46" t="n">
+      <c r="A29" s="59"/>
+      <c r="B29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C2</f>
         <v>58.0692937973419</v>
       </c>
-      <c r="D29" s="47" t="n">
+      <c r="D29" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E2</f>
         <v>20.7465055197393</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="45"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="58"/>
-      <c r="B30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="46" t="n">
+      <c r="A30" s="59"/>
+      <c r="B30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C9</f>
         <v>2.84923568698697</v>
       </c>
-      <c r="D30" s="47" t="n">
+      <c r="D30" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E9</f>
         <v>7.93154470620712</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="45"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58"/>
-      <c r="B31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="46" t="n">
+      <c r="A31" s="59"/>
+      <c r="B31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6</f>
         <v>3.70655066791544</v>
       </c>
-      <c r="D31" s="47" t="n">
+      <c r="D31" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E6</f>
         <v>62.0115692516205</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="45"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58"/>
-      <c r="B32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="59" t="n">
+      <c r="A32" s="59"/>
+      <c r="B32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="60" t="n">
         <f aca="false">SUM(C28:C31)</f>
         <v>71.2732967552139</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61" t="n">
+      <c r="D32" s="61"/>
+      <c r="E32" s="62" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2896,277 +2919,277 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="4" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="6" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>69</v>
+      <c r="A1" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="66" t="n">
+      <c r="A2" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="67" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>450</v>
       </c>
-      <c r="D2" s="49" t="n">
+      <c r="D2" s="50" t="n">
         <f aca="false">Fig2C!B22+Fig2C!B23+0.12</f>
         <v>0.370793166859394</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="48" t="s">
-        <v>70</v>
+      <c r="E2" s="67"/>
+      <c r="F2" s="49" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="46" t="n">
+      <c r="A3" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>11.8020047916546</v>
       </c>
-      <c r="D3" s="49" t="n">
+      <c r="D3" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.324820149643526</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="49" t="n">
+      <c r="A4" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>1.60547621596509</v>
       </c>
-      <c r="D4" s="49" t="n">
+      <c r="D4" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>2.06772391138456</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="49" t="n">
+      <c r="A5" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.211567950397808</v>
       </c>
-      <c r="D5" s="69" t="n">
+      <c r="D5" s="70" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.940355148344516</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="49" t="n">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.10714686353151</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="50" t="n">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="51" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.05537256615</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="48"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="51" t="n">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="52" t="n">
         <f aca="false">Fig2A!C9</f>
         <v>0.00289064584032944</v>
       </c>
-      <c r="D8" s="70" t="n">
+      <c r="D8" s="71" t="n">
         <f aca="false">Fig2A!C23</f>
         <v>0.004453608</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="51" t="n">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="52" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.00165801916787227</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="49" t="n">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.198506447237222</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="51" t="n">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="52" t="n">
         <f aca="false">Fig2A!C12</f>
         <v>0.00561165846816304</v>
       </c>
-      <c r="D11" s="71" t="n">
+      <c r="D11" s="72" t="n">
         <f aca="false">Fig2A!C24</f>
         <v>0.014</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="48"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="49" t="n">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0.667610883535102</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="49" t="n">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.181984847615171</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="49" t="n">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.0896168300034035</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="69" t="n">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="70" t="n">
         <f aca="false">SUM(C5:C14)</f>
         <v>0.582754150792905</v>
       </c>
-      <c r="D15" s="69" t="n">
+      <c r="D15" s="70" t="n">
         <f aca="false">SUM(D5:D14)</f>
         <v>1.89802131749819</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="72" t="n">
+      <c r="A16" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="73" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.3522978635168</v>
       </c>
-      <c r="D16" s="69" t="n">
+      <c r="D16" s="70" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.32693409580242</v>
       </c>
-      <c r="E16" s="72" t="n">
+      <c r="E16" s="73" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C5</f>
         <v>64.7175104003115</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="73" t="n">
+      <c r="A17" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="74" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.515705330919589</v>
       </c>
-      <c r="D17" s="73" t="n">
+      <c r="D17" s="74" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.331733523950604</v>
       </c>
-      <c r="E17" s="52" t="n">
+      <c r="E17" s="53" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C9</f>
         <v>6.55578635490241</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3202,620 +3225,620 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="80" t="n">
+      <c r="A4" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="81" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>450</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="17" t="n">
+      <c r="C4" s="82"/>
+      <c r="D4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="19" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.3522978635168</v>
       </c>
-      <c r="F4" s="82" t="n">
+      <c r="F4" s="83" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E4</f>
         <v>6.38735131388308</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="84" t="n">
+      <c r="A5" s="80"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="85" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.515705330919589</v>
       </c>
-      <c r="F5" s="85" t="n">
+      <c r="F5" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E8</f>
         <v>3.64387348782425</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="37" t="n">
+      <c r="A6" s="80"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="39" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>11.8020047916546</v>
       </c>
-      <c r="F6" s="85" t="n">
+      <c r="F6" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E10</f>
         <v>3.45975114741402</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="15" t="n">
+      <c r="A7" s="80"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>1.60547621596509</v>
       </c>
-      <c r="F7" s="85" t="n">
+      <c r="F7" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E24</f>
         <v>3.73047280407657</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="15" t="n">
+      <c r="A8" s="80"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.211567950397808</v>
       </c>
-      <c r="F8" s="85" t="n">
+      <c r="F8" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E13</f>
         <v>14.8813474357469</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="25" t="n">
+      <c r="A9" s="80"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="27" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.05537256615</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="15" t="n">
+      <c r="A10" s="80"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.10714686353151</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="26" t="n">
+      <c r="A11" s="80"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="28" t="n">
         <f aca="false">Fig2A!C9</f>
         <v>0.00289064584032944</v>
       </c>
-      <c r="F11" s="85" t="n">
+      <c r="F11" s="86" t="n">
         <f aca="false">Fig2A!D9</f>
         <v>3.6917824251731</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="79"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="26" t="n">
+      <c r="A12" s="80"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="28" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.00165801916787227</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="15" t="n">
+      <c r="A13" s="80"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.198506447237222</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="86"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="27" t="n">
+      <c r="A14" s="87"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <f aca="false">Fig2A!C12</f>
         <v>0.00561165846816304</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="93" t="n">
+      <c r="A17" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="94" t="n">
         <f aca="false">B4</f>
         <v>450</v>
       </c>
-      <c r="C17" s="93" t="n">
+      <c r="C17" s="94" t="n">
         <v>450</v>
       </c>
-      <c r="D17" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="95" t="n">
+      <c r="D17" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="96" t="n">
         <f aca="false">SUM(E4:E14)</f>
         <v>21.858238352849</v>
       </c>
-      <c r="F17" s="96" t="n">
+      <c r="F17" s="97" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74" t="s">
+      <c r="A20" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="15" t="n">
+      <c r="A22" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="17" t="n">
         <v>0.1125</v>
       </c>
-      <c r="C22" s="81" t="n">
+      <c r="C22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="15" t="n">
+      <c r="D22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.32693409580242</v>
       </c>
-      <c r="F22" s="97" t="n">
+      <c r="F22" s="98" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E3</f>
         <v>1.81122948632623</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="75"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="15" t="n">
+      <c r="A23" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="17" t="n">
         <v>0.138293166859394</v>
       </c>
-      <c r="C23" s="81" t="n">
+      <c r="C23" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="15" t="n">
+      <c r="D23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.331733523950604</v>
       </c>
-      <c r="F23" s="85" t="n">
+      <c r="F23" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E7</f>
         <v>2.68803432424406</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="75"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="15" t="n">
+      <c r="A24" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="17" t="n">
         <v>0.125702152200396</v>
       </c>
-      <c r="C24" s="81" t="n">
+      <c r="C24" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="84" t="n">
+      <c r="D24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="85" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23-SUM(B24:B28)</f>
         <v>1.05834573502946</v>
       </c>
-      <c r="F24" s="85" t="n">
+      <c r="F24" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E23</f>
         <v>10</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="75"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="15" t="n">
+      <c r="A25" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="17" t="n">
         <v>0.171915905369543</v>
       </c>
-      <c r="C25" s="81" t="n">
+      <c r="C25" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="15" t="n">
+      <c r="D25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.940355148344516</v>
       </c>
-      <c r="F25" s="85" t="n">
+      <c r="F25" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E14</f>
         <v>10</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="75"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="15" t="n">
+      <c r="A26" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="17" t="n">
         <v>0.125702152200396</v>
       </c>
-      <c r="C26" s="81" t="n">
+      <c r="C26" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="15" t="n">
+      <c r="D26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0.667610883535102</v>
       </c>
-      <c r="F26" s="85" t="n">
+      <c r="F26" s="86" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E18</f>
         <v>8.25329923708148</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="38" t="n">
+      <c r="A27" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="40" t="n">
         <v>0.306594194335118</v>
       </c>
-      <c r="C27" s="81" t="n">
+      <c r="C27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="15" t="n">
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.181984847615171</v>
       </c>
-      <c r="F27" s="85" t="n">
+      <c r="F27" s="86" t="n">
         <v>10</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="84" t="n">
+      <c r="A28" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="85" t="n">
         <v>0.279463772249642</v>
       </c>
-      <c r="C28" s="81" t="n">
+      <c r="C28" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="15" t="n">
+      <c r="D28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.0896168300034035</v>
       </c>
-      <c r="F28" s="85" t="n">
+      <c r="F28" s="86" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="79"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="26" t="n">
+      <c r="A29" s="80"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="28" t="n">
         <f aca="false">Fig2A!C23</f>
         <v>0.004453608</v>
       </c>
-      <c r="F29" s="97" t="n">
+      <c r="F29" s="98" t="n">
         <f aca="false">Fig2A!D23</f>
         <v>1.4375</v>
       </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="79"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="25" t="n">
+      <c r="A30" s="80"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="27" t="n">
         <f aca="false">Fig2A!C24</f>
         <v>0.014</v>
       </c>
-      <c r="F30" s="85" t="n">
+      <c r="F30" s="86" t="n">
         <v>10</v>
       </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="86"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="98" t="n">
+      <c r="A31" s="87"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="99" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.324820149643526</v>
       </c>
-      <c r="F31" s="99" t="n">
+      <c r="F31" s="100" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>79</v>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="29" t="n">
+      <c r="A34" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="31" t="n">
         <f aca="false">SUM(B22:B28)</f>
         <v>1.26017134321449</v>
       </c>
-      <c r="C34" s="19" t="n">
+      <c r="C34" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="100" t="n">
+      <c r="D34" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="101" t="n">
         <f aca="false">SUM(E22:E31)</f>
         <v>4.93985482192421</v>
       </c>
-      <c r="F34" s="87" t="n">
+      <c r="F34" s="88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3847,328 +3870,328 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="53" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="53" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="54" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="101" t="n">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="102" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.32693409580242</v>
       </c>
-      <c r="D2" s="102" t="n">
+      <c r="D2" s="103" t="n">
         <f aca="false">SUM(C2:C3)</f>
         <v>8.67923195931922</v>
       </c>
-      <c r="E2" s="44" t="n">
+      <c r="E2" s="45" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41"/>
-      <c r="B3" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="103" t="n">
+      <c r="A3" s="11"/>
+      <c r="B3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="104" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>7.3522978635168</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="101" t="n">
+      <c r="A4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="102" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.331733523950604</v>
       </c>
-      <c r="D4" s="102" t="n">
+      <c r="D4" s="103" t="n">
         <f aca="false">SUM(C4:C5)</f>
         <v>0.847438854870193</v>
       </c>
-      <c r="E4" s="44" t="n">
+      <c r="E4" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41"/>
-      <c r="B5" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="104" t="n">
+      <c r="A5" s="11"/>
+      <c r="B5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="105" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0.515705330919589</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="102" t="n">
+      <c r="B6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="103" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>11.8020047916546</v>
       </c>
-      <c r="D6" s="102" t="n">
+      <c r="D6" s="103" t="n">
         <f aca="false">SUM(C6:C7)</f>
         <v>12.1268249412981</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="45" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41"/>
-      <c r="B7" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="104" t="n">
+      <c r="A7" s="11"/>
+      <c r="B7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="105" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.324820149643526</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="101" t="n">
+      <c r="B8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="102" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.198506447237222</v>
       </c>
-      <c r="D8" s="102" t="n">
+      <c r="D8" s="103" t="n">
         <f aca="false">SUM(C8:C18)</f>
         <v>2.4807754682911</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="45" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41"/>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="49" t="n">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0.211567950397808</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41"/>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="49" t="n">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0.940355148344516</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41"/>
-      <c r="B11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="49" t="n">
+      <c r="A11" s="11"/>
+      <c r="B11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0.0896168300034035</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41"/>
-      <c r="B12" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="49" t="n">
+      <c r="A12" s="11"/>
+      <c r="B12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0.181984847615171</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41"/>
-      <c r="B13" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="50" t="n">
+      <c r="A13" s="11"/>
+      <c r="B13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="51" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.0196116584681631</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41"/>
-      <c r="B14" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="49" t="n">
+      <c r="A14" s="11"/>
+      <c r="B14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0.667610883535102</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41"/>
-      <c r="B15" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="49" t="n">
+      <c r="A15" s="11"/>
+      <c r="B15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="50" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.10714686353151</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
-      <c r="B16" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="50" t="n">
+      <c r="A16" s="11"/>
+      <c r="B16" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="51" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.05537256615</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
-      <c r="B17" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="51" t="n">
+      <c r="A17" s="11"/>
+      <c r="B17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="52" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.00165801916787227</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
-      <c r="B18" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="105" t="n">
+      <c r="A18" s="11"/>
+      <c r="B18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="106" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
         <v>0.00734425384032944</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="101" t="n">
+      <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="102" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>2.06772391138456</v>
       </c>
-      <c r="D19" s="102" t="n">
+      <c r="D19" s="103" t="n">
         <f aca="false">SUM(C19:C20)</f>
         <v>3.67320012734965</v>
       </c>
-      <c r="E19" s="44" t="n">
+      <c r="E19" s="45" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
-      <c r="B20" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="104" t="n">
+      <c r="A20" s="11"/>
+      <c r="B20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="105" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>1.60547621596509</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="106" t="n">
+      <c r="A21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="107" t="n">
         <v>0.0607263039426007</v>
       </c>
-      <c r="D21" s="106" t="n">
+      <c r="D21" s="107" t="n">
         <f aca="false">C21</f>
         <v>0.0607263039426007</v>
       </c>
-      <c r="E21" s="107" t="n">
+      <c r="E21" s="108" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="108" t="n">
+      <c r="A22" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="109" t="n">
         <v>152.093714855144</v>
       </c>
-      <c r="D22" s="108" t="n">
+      <c r="D22" s="109" t="n">
         <f aca="false">C22</f>
         <v>152.093714855144</v>
       </c>
-      <c r="E22" s="107" t="n">
+      <c r="E22" s="108" t="n">
         <v>150</v>
       </c>
     </row>
@@ -4208,325 +4231,325 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="4" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="6" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="109" t="n">
+      <c r="A2" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26*1000000000000000</f>
         <v>4.5E+017</v>
       </c>
-      <c r="C2" s="110" t="n">
+      <c r="C2" s="111" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E26</f>
         <v>1.19395460482905</v>
       </c>
-      <c r="D2" s="109" t="n">
+      <c r="D2" s="110" t="n">
         <f aca="false">'Table S1'!D25</f>
         <v>3000000000000</v>
       </c>
-      <c r="E2" s="111"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="112" t="n">
+      <c r="A3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="113" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26*1000000000000000</f>
         <v>4.5E+017</v>
       </c>
-      <c r="C3" s="110" t="n">
+      <c r="C3" s="111" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E26</f>
         <v>1.19395460482905</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="111" t="n">
+      <c r="D3" s="110"/>
+      <c r="E3" s="112" t="n">
         <v>400000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="109" t="n">
+      <c r="A4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2*1000000000000000</f>
         <v>73396742359630700</v>
       </c>
-      <c r="C4" s="113" t="n">
+      <c r="C4" s="114" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H2</f>
         <v>9.75646880590096</v>
       </c>
-      <c r="D4" s="109" t="n">
+      <c r="D4" s="110" t="n">
         <f aca="false">'Table S1'!F2</f>
         <v>2.85406660101206E+030</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="109" t="n">
+      <c r="A5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F6*1000000000000000</f>
         <v>7403225209772600</v>
       </c>
-      <c r="C5" s="113" t="n">
+      <c r="C5" s="114" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H6</f>
         <v>13.0983425029663</v>
       </c>
-      <c r="D5" s="109" t="n">
+      <c r="D5" s="110" t="n">
         <f aca="false">'Table S1'!F6</f>
         <v>3.03104623299679E+029</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="112"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="109" t="n">
+      <c r="A6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F10*1000000000000000</f>
         <v>12126824941298100</v>
       </c>
-      <c r="C6" s="113" t="n">
+      <c r="C6" s="114" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H10</f>
         <v>3.322420948501</v>
       </c>
-      <c r="D6" s="109" t="n">
+      <c r="D6" s="110" t="n">
         <f aca="false">'Table S1'!F10</f>
         <v>8.08454996086541E+026</v>
       </c>
-      <c r="E6" s="114" t="n">
+      <c r="E6" s="115" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="109" t="n">
+      <c r="A7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="110" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C13:C14)*1000000000000000</f>
         <v>1151923098742320</v>
       </c>
-      <c r="C7" s="113" t="n">
+      <c r="C7" s="114" t="n">
         <v>7.71401874583687</v>
       </c>
-      <c r="D7" s="109" t="n">
+      <c r="D7" s="110" t="n">
         <f aca="false">'Table S1'!D14</f>
         <v>1.4115435961363E+020</v>
       </c>
-      <c r="E7" s="111" t="n">
+      <c r="E7" s="112" t="n">
         <v>943383</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="109" t="n">
+      <c r="A8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12*1000000000000000</f>
         <v>198506447237222</v>
       </c>
-      <c r="C8" s="113" t="n">
+      <c r="C8" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="109" t="n">
+      <c r="D8" s="110" t="n">
         <f aca="false">'Table S1'!D12</f>
         <v>7.71434503765552E+017</v>
       </c>
-      <c r="E8" s="111" t="n">
+      <c r="E8" s="112" t="n">
         <v>13199</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="109" t="n">
+      <c r="A9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16*1000000000000000</f>
         <v>181984847615171</v>
       </c>
-      <c r="C9" s="113" t="n">
+      <c r="C9" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="D9" s="109" t="n">
+      <c r="D9" s="110" t="n">
         <f aca="false">'Table S1'!D16</f>
         <v>4.97230526735166E+017</v>
       </c>
-      <c r="E9" s="111" t="n">
+      <c r="E9" s="112" t="n">
         <v>41642</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="109" t="n">
+      <c r="A10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15*1000000000000000</f>
         <v>89616830003403.5</v>
       </c>
-      <c r="C10" s="113" t="n">
+      <c r="C10" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="109" t="n">
+      <c r="D10" s="110" t="n">
         <f aca="false">'Table S1'!D15</f>
         <v>19656673574480100</v>
       </c>
-      <c r="E10" s="111" t="n">
+      <c r="E10" s="112" t="n">
         <v>11490</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="109" t="n">
+      <c r="A11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18*1000000000000000</f>
         <v>667610883535102</v>
       </c>
-      <c r="C11" s="113" t="n">
+      <c r="C11" s="114" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E18</f>
         <v>8.25329923708148</v>
       </c>
-      <c r="D11" s="109" t="n">
+      <c r="D11" s="110" t="n">
         <f aca="false">'Table S1'!D18</f>
         <v>1115687524901090</v>
       </c>
-      <c r="E11" s="111" t="n">
+      <c r="E11" s="112" t="n">
         <v>18223</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="109" t="n">
+      <c r="A12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17*1000000000000000</f>
         <v>19611658468163.1</v>
       </c>
-      <c r="C12" s="113" t="n">
+      <c r="C12" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="109" t="n">
+      <c r="D12" s="110" t="n">
         <f aca="false">'Table S1'!D17</f>
         <v>3.92233169363261E+020</v>
       </c>
-      <c r="E12" s="111" t="n">
+      <c r="E12" s="112" t="n">
         <v>9984</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="109" t="n">
+      <c r="A13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20*1000000000000000</f>
         <v>55372566150000</v>
       </c>
-      <c r="C13" s="110" t="n">
+      <c r="C13" s="111" t="n">
         <v>1.1</v>
       </c>
-      <c r="D13" s="109" t="n">
+      <c r="D13" s="110" t="n">
         <f aca="false">'Table S1'!D20</f>
         <v>7383008820</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="109" t="n">
+      <c r="A14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19*1000000000000000</f>
         <v>107146863531510</v>
       </c>
-      <c r="C14" s="110" t="n">
+      <c r="C14" s="111" t="n">
         <v>1.1</v>
       </c>
-      <c r="D14" s="109" t="n">
+      <c r="D14" s="110" t="n">
         <f aca="false">'Table S1'!D19</f>
         <v>4806634619</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="112"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="109" t="n">
+      <c r="A15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F23*1000000000000000</f>
         <v>3673200127349650</v>
       </c>
-      <c r="C15" s="113" t="n">
+      <c r="C15" s="114" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H23</f>
         <v>4.47644430526447</v>
       </c>
-      <c r="D15" s="109" t="n">
+      <c r="D15" s="110" t="n">
         <f aca="false">'Table S1'!F23</f>
         <v>4.82208511121635E+026</v>
       </c>
-      <c r="E15" s="111" t="n">
+      <c r="E15" s="112" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="109" t="n">
+      <c r="A16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="110" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21*1000000000000000</f>
         <v>1658019167872.27</v>
       </c>
-      <c r="C16" s="113" t="n">
+      <c r="C16" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="109" t="n">
+      <c r="D16" s="110" t="n">
         <f aca="false">'Table S1'!D21</f>
         <v>300000000000</v>
       </c>
-      <c r="E16" s="111"/>
+      <c r="E16" s="112"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="115" t="n">
+      <c r="A17" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="116" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C18:C22)*1000000000000000</f>
         <v>839132586224814</v>
       </c>
-      <c r="C17" s="116" t="n">
+      <c r="C17" s="117" t="n">
         <v>9.16476002275488</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="117" t="n">
+      <c r="D17" s="116"/>
+      <c r="E17" s="118" t="n">
         <v>49693</v>
       </c>
     </row>
@@ -4549,502 +4572,502 @@
   <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="4" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="6" width="7.69387755102041"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    <row r="1" s="7" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="118" t="n">
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="119" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D2</f>
         <v>60</v>
       </c>
-      <c r="D2" s="119" t="n">
+      <c r="D2" s="120" t="n">
         <v>2.23343437682084E+030</v>
       </c>
-      <c r="E2" s="120" t="n">
+      <c r="E2" s="121" t="n">
         <v>1E+030</v>
       </c>
-      <c r="F2" s="121" t="n">
+      <c r="F2" s="122" t="n">
         <f aca="false">SUM(D2:D5)</f>
         <v>2.85406660101206E+030</v>
       </c>
-      <c r="G2" s="122" t="n">
+      <c r="G2" s="123" t="n">
         <v>1E+030</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="56" t="n">
+      <c r="A3" s="32"/>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D3</f>
         <v>1.3</v>
       </c>
-      <c r="D3" s="123" t="n">
+      <c r="D3" s="124" t="n">
         <v>9.85466036169242E+028</v>
       </c>
-      <c r="E3" s="124" t="n">
+      <c r="E3" s="125" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="56" t="n">
+      <c r="A4" s="32"/>
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="123" t="n">
+      <c r="D4" s="124" t="n">
         <v>2.4507659545056E+029</v>
       </c>
-      <c r="E4" s="124" t="n">
+      <c r="E4" s="125" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="125" t="n">
+      <c r="A5" s="32"/>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="126" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>6.6482166029696</v>
       </c>
-      <c r="D5" s="126" t="n">
+      <c r="D5" s="127" t="n">
         <v>2.77009025123733E+029</v>
       </c>
-      <c r="E5" s="127" t="n">
+      <c r="E5" s="128" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
     </row>
     <row r="6" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="118" t="n">
+      <c r="A6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="119" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D6</f>
         <v>4</v>
       </c>
-      <c r="D6" s="119" t="n">
+      <c r="D6" s="120" t="n">
         <v>1.42559641073671E+029</v>
       </c>
-      <c r="E6" s="120" t="n">
+      <c r="E6" s="121" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F6" s="121" t="n">
+      <c r="F6" s="122" t="n">
         <f aca="false">SUM(D6:D9)</f>
         <v>3.03104623299679E+029</v>
       </c>
-      <c r="G6" s="122" t="n">
+      <c r="G6" s="123" t="n">
         <v>1E+029</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39"/>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="56" t="n">
+      <c r="A7" s="32"/>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D7</f>
         <v>0.3</v>
       </c>
-      <c r="D7" s="123" t="n">
+      <c r="D7" s="124" t="n">
         <v>2.4636650904231E+028</v>
       </c>
-      <c r="E7" s="124" t="n">
+      <c r="E7" s="125" t="n">
         <v>1E+028</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="56" t="n">
+      <c r="A8" s="32"/>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D8</f>
         <v>0.5</v>
       </c>
-      <c r="D8" s="123" t="n">
+      <c r="D8" s="124" t="n">
         <v>1.71901776973196E+028</v>
       </c>
-      <c r="E8" s="124" t="n">
+      <c r="E8" s="125" t="n">
         <v>1E+028</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
     </row>
     <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39"/>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="128" t="n">
+      <c r="A9" s="32"/>
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="129" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D9</f>
         <v>3</v>
       </c>
-      <c r="D9" s="126" t="n">
+      <c r="D9" s="127" t="n">
         <v>1.18718153624457E+029</v>
       </c>
-      <c r="E9" s="127" t="n">
+      <c r="E9" s="128" t="n">
         <v>1E+029</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="118" t="n">
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="119" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D10</f>
         <v>12</v>
       </c>
-      <c r="D10" s="119" t="n">
+      <c r="D10" s="120" t="n">
         <v>7.86800319443639E+026</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121" t="n">
+      <c r="E10" s="121"/>
+      <c r="F10" s="122" t="n">
         <f aca="false">SUM(D10:D11)</f>
         <v>8.08454996086541E+026</v>
       </c>
-      <c r="G10" s="122" t="n">
+      <c r="G10" s="123" t="n">
         <v>1E+027</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39"/>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="56" t="n">
+      <c r="A11" s="32"/>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D11</f>
         <v>0.3</v>
       </c>
-      <c r="D11" s="123" t="n">
+      <c r="D11" s="124" t="n">
         <v>2.16546766429018E+025</v>
       </c>
       <c r="E11" s="0"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="118" t="n">
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="119" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D12</f>
         <v>0.2</v>
       </c>
-      <c r="D12" s="119" t="n">
+      <c r="D12" s="120" t="n">
         <v>7.71434503765552E+017</v>
       </c>
-      <c r="E12" s="120" t="n">
+      <c r="E12" s="121" t="n">
         <v>1E+018</v>
       </c>
-      <c r="F12" s="121" t="n">
+      <c r="F12" s="122" t="n">
         <f aca="false">SUM(D12:D22)</f>
         <v>5.35676966680681E+020</v>
       </c>
-      <c r="G12" s="122" t="n">
+      <c r="G12" s="123" t="n">
         <v>1E+021</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39"/>
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="56" t="n">
+      <c r="A13" s="32"/>
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D13</f>
         <v>0.2</v>
       </c>
-      <c r="D13" s="129" t="n">
+      <c r="D13" s="130" t="n">
         <v>1E+018</v>
       </c>
-      <c r="E13" s="124" t="n">
+      <c r="E13" s="125" t="n">
         <v>1E+018</v>
       </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
     </row>
     <row r="14" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
-      <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="56" t="n">
+      <c r="A14" s="32"/>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D14</f>
         <v>1</v>
       </c>
-      <c r="D14" s="123" t="n">
+      <c r="D14" s="124" t="n">
         <v>1.4115435961363E+020</v>
       </c>
-      <c r="E14" s="124" t="n">
+      <c r="E14" s="125" t="n">
         <v>1E+020</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39"/>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="56" t="n">
+      <c r="A15" s="32"/>
+      <c r="B15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D15</f>
         <v>0.1</v>
       </c>
-      <c r="D15" s="123" t="n">
+      <c r="D15" s="124" t="n">
         <v>19656673574480100</v>
       </c>
-      <c r="E15" s="124" t="n">
+      <c r="E15" s="125" t="n">
         <v>10000000000000000</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="56" t="n">
+      <c r="A16" s="32"/>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D16</f>
         <v>0.2</v>
       </c>
-      <c r="D16" s="123" t="n">
+      <c r="D16" s="124" t="n">
         <v>4.97230526735166E+017</v>
       </c>
-      <c r="E16" s="124" t="n">
+      <c r="E16" s="125" t="n">
         <v>1E+018</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="56" t="n">
+      <c r="A17" s="32"/>
+      <c r="B17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D17</f>
         <v>0.02</v>
       </c>
-      <c r="D17" s="123" t="n">
+      <c r="D17" s="124" t="n">
         <v>3.92233169363261E+020</v>
       </c>
-      <c r="E17" s="124" t="n">
+      <c r="E17" s="125" t="n">
         <v>1E+021</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="56" t="n">
+      <c r="A18" s="32"/>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D18</f>
         <v>0.7</v>
       </c>
-      <c r="D18" s="123" t="n">
+      <c r="D18" s="124" t="n">
         <v>1115687524901090</v>
       </c>
-      <c r="E18" s="124" t="n">
+      <c r="E18" s="125" t="n">
         <v>1000000000000000</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39"/>
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="56" t="n">
+      <c r="A19" s="32"/>
+      <c r="B19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D19</f>
         <v>0.1</v>
       </c>
-      <c r="D19" s="130" t="n">
+      <c r="D19" s="131" t="n">
         <v>4806634619</v>
       </c>
-      <c r="E19" s="124" t="n">
+      <c r="E19" s="125" t="n">
         <v>10000000000</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39"/>
-      <c r="B20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="56" t="n">
+      <c r="A20" s="32"/>
+      <c r="B20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D20</f>
         <v>0.06</v>
       </c>
-      <c r="D20" s="130" t="n">
+      <c r="D20" s="131" t="n">
         <v>7383008820</v>
       </c>
-      <c r="E20" s="124" t="n">
+      <c r="E20" s="125" t="n">
         <v>10000000000</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39"/>
-      <c r="B21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="56" t="n">
+      <c r="A21" s="32"/>
+      <c r="B21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="57" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D21</f>
         <v>0.002</v>
       </c>
-      <c r="D21" s="130" t="n">
+      <c r="D21" s="131" t="n">
         <v>300000000000</v>
       </c>
-      <c r="E21" s="124" t="n">
+      <c r="E21" s="125" t="n">
         <v>300000000000</v>
       </c>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
-      <c r="B22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="131" t="n">
+      <c r="A22" s="32"/>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="132" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D22</f>
         <v>0.007</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="118" t="n">
+      <c r="A23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="119" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G23</f>
         <v>4</v>
       </c>
-      <c r="D23" s="119" t="n">
+      <c r="D23" s="120" t="n">
         <v>4.82208511121635E+026</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121" t="n">
+      <c r="E23" s="121"/>
+      <c r="F23" s="122" t="n">
         <f aca="false">SUM(D23:D23)</f>
         <v>4.82208511121635E+026</v>
       </c>
-      <c r="G23" s="122" t="n">
+      <c r="G23" s="123" t="n">
         <v>1E+027</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="134" t="n">
+      <c r="A24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="135" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D25</f>
         <v>0.2</v>
       </c>
-      <c r="D24" s="135" t="n">
+      <c r="D24" s="136" t="n">
         <v>9.5367822521308E+030</v>
       </c>
-      <c r="E24" s="136" t="n">
+      <c r="E24" s="137" t="n">
         <v>1E+031</v>
       </c>
-      <c r="F24" s="137"/>
-      <c r="G24" s="138" t="n">
+      <c r="F24" s="138"/>
+      <c r="G24" s="139" t="n">
         <v>1E+031</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="134" t="n">
+      <c r="A25" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="135" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D26</f>
         <v>450</v>
       </c>
-      <c r="D25" s="135" t="n">
+      <c r="D25" s="136" t="n">
         <v>3000000000000</v>
       </c>
-      <c r="E25" s="136" t="n">
+      <c r="E25" s="137" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="F25" s="137"/>
-      <c r="G25" s="138" t="n">
+      <c r="F25" s="138"/>
+      <c r="G25" s="139" t="n">
         <v>10000000000000</v>
       </c>
     </row>
@@ -5082,682 +5105,682 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="4" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="140" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.69387755102041"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="139"/>
-      <c r="B1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" s="10" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="141"/>
+      <c r="B1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>69</v>
+      <c r="C1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="72" t="n">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="73" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F27</f>
         <v>549.300983778929</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="G2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="53" t="n">
+      <c r="A3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="54" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>450</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="25" t="n">
         <v>450</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="69" t="n">
+      <c r="A4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="70" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F11</f>
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="47" t="n">
+      <c r="A5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2</f>
         <v>73.3967423596307</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="47" t="n">
+      <c r="A6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F6</f>
         <v>7.4032252097726</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="142"/>
       <c r="G6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="47" t="n">
+      <c r="A7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="48" t="n">
         <f aca="false">Fig2A!C26</f>
         <v>5.9492329982793</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="142"/>
       <c r="G7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="69" t="n">
+      <c r="A8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="70" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26/'Table1 &amp; Fig1'!F27</f>
         <v>0.819223000301609</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="25" t="n">
         <v>0.8</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="49"/>
       <c r="G8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="71" t="n">
+      <c r="A9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="72" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G2/'Table1 &amp; Fig1'!F27</f>
         <v>0.127434688935806</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="25" t="n">
         <v>0.15</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="49"/>
       <c r="G9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="69" t="n">
+      <c r="A10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="70" t="n">
         <v>0.90056</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="25" t="n">
         <v>0.9</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="49"/>
       <c r="G10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="47" t="n">
+      <c r="A11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26-B14</f>
         <v>316.207142504861</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="25" t="n">
         <v>320</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="49"/>
       <c r="G11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="69" t="n">
+      <c r="A12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="70" t="n">
         <f aca="false">B11/SUM(B13+B11)</f>
         <v>0.582604740443766</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="25" t="n">
         <v>0.6</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="49"/>
       <c r="G12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="47" t="n">
+      <c r="A13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="48" t="n">
         <f aca="false">B14+'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C8+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C24</f>
         <v>226.540144899646</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="49"/>
       <c r="G13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="72" t="n">
+      <c r="A14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="73" t="n">
         <v>133.792857495139</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="G14" s="141"/>
+      <c r="D14" s="49"/>
+      <c r="G14" s="143"/>
     </row>
     <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="47" t="n">
+      <c r="A15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="48" t="n">
         <f aca="false">B13-B14</f>
         <v>92.7472874045073</v>
       </c>
-      <c r="C15" s="23" t="n">
+      <c r="C15" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="69" t="n">
+      <c r="A16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="70" t="n">
         <f aca="false">(B3-B18)/B3</f>
         <v>0.662013966988569</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="25" t="n">
         <v>0.7</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="69" t="n">
+      <c r="A17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="70" t="n">
         <f aca="false">Fig2B!E16/SUM(Fig2B!C16:E16)</f>
         <v>0.881749084764654</v>
       </c>
-      <c r="C17" s="23" t="n">
+      <c r="C17" s="25" t="n">
         <v>0.9</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="72" t="n">
+      <c r="A18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="73" t="n">
         <f aca="false">FigS1!D22</f>
         <v>152.093714855144</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="47" t="n">
+      <c r="A19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="48" t="n">
         <f aca="false">FigS1!D2</f>
         <v>8.67923195931922</v>
       </c>
-      <c r="C19" s="23" t="n">
+      <c r="C19" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="72" t="n">
+      <c r="A20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="73" t="n">
         <f aca="false">FigS1!D6</f>
         <v>12.1268249412981</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="71" t="n">
+      <c r="A21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="72" t="n">
         <f aca="false">379*0.15/1000</f>
         <v>0.05685</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="25" t="n">
         <v>0.05</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="49"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="142" t="n">
+      <c r="A22" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="144" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0.05537256615</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="25" t="n">
         <v>0.06</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="43" t="n">
+      <c r="A23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="44" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0.10714686353151</v>
       </c>
-      <c r="C23" s="23" t="n">
+      <c r="C23" s="25" t="n">
         <v>0.1</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="70" t="n">
+      <c r="A24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="71" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
         <v>0.00734425384032944</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="25" t="n">
         <v>0.007</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="70" t="n">
+      <c r="A25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="71" t="n">
         <v>0.00460820469</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="25" t="n">
         <v>0.005</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="70" t="n">
+      <c r="A26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="71" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0.00165801916787227</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="D26" s="48"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="69" t="n">
+      <c r="A27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="70" t="n">
         <f aca="false">B25/B26</f>
         <v>2.77934343540412</v>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C27" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="69" t="n">
+      <c r="A28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="70" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F12</f>
         <v>2.4807754682911</v>
       </c>
-      <c r="C28" s="23" t="n">
+      <c r="C28" s="25" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G12</f>
         <v>2</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="43" t="n">
+      <c r="A29" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="44" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C13:C14)</f>
         <v>1.15192309874232</v>
       </c>
-      <c r="C29" s="23" t="n">
+      <c r="C29" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="43" t="n">
+      <c r="A30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="44" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0.667610883535102</v>
       </c>
-      <c r="C30" s="53" t="n">
+      <c r="C30" s="54" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D18</f>
         <v>0.7</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="71" t="n">
+      <c r="A31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="72" t="n">
         <v>0.0219326576168507</v>
       </c>
-      <c r="C31" s="23" t="n">
+      <c r="C31" s="25" t="n">
         <v>0.02</v>
       </c>
-      <c r="D31" s="48" t="s">
-        <v>130</v>
+      <c r="D31" s="49" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="70" t="n">
+      <c r="A32" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="71" t="n">
         <f aca="false">Fig2A!C9</f>
         <v>0.00289064584032944</v>
       </c>
-      <c r="C32" s="23" t="n">
+      <c r="C32" s="25" t="n">
         <v>0.003</v>
       </c>
-      <c r="D32" s="48"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="69" t="n">
+      <c r="A33" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="70" t="n">
         <f aca="false">B31/B32</f>
         <v>7.587459283615</v>
       </c>
-      <c r="C33" s="23" t="n">
+      <c r="C33" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="71" t="n">
+      <c r="A34" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="72" t="n">
         <v>0.01892784</v>
       </c>
-      <c r="C34" s="23" t="n">
+      <c r="C34" s="25" t="n">
         <v>0.02</v>
       </c>
-      <c r="D34" s="48" t="s">
-        <v>134</v>
+      <c r="D34" s="49" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="51" t="n">
+      <c r="A35" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="52" t="n">
         <f aca="false">Fig2B!D8</f>
         <v>0.004453608</v>
       </c>
-      <c r="C35" s="23" t="n">
+      <c r="C35" s="25" t="n">
         <v>0.004</v>
       </c>
-      <c r="D35" s="48"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="69" t="n">
+      <c r="A36" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="70" t="n">
         <f aca="false">B34/B35</f>
         <v>4.2500013472223</v>
       </c>
-      <c r="C36" s="23" t="n">
+      <c r="C36" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="49"/>
     </row>
     <row r="37" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="143" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="69" t="n">
+      <c r="A37" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="70" t="n">
         <f aca="false">(B31+B34)/(B32+B35)</f>
         <v>5.56360094642614</v>
       </c>
-      <c r="C37" s="23" t="n">
+      <c r="C37" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="D37" s="48"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="69" t="n">
+      <c r="A38" s="145" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="70" t="n">
         <f aca="false">SUM(B22,B23,B32,B35)/SUM(B31,B34)</f>
         <v>4.15716140108358</v>
       </c>
-      <c r="C38" s="23" t="n">
+      <c r="C38" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="D38" s="48"/>
-    </row>
-    <row r="39" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="71" t="n">
+      <c r="D38" s="49"/>
+    </row>
+    <row r="39" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="72" t="n">
         <f aca="false">B31+B34</f>
         <v>0.0408604976168507</v>
       </c>
-      <c r="C39" s="23" t="n">
+      <c r="C39" s="25" t="n">
         <v>0.04</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="71" t="n">
+      <c r="A40" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="72" t="n">
         <f aca="false">B35+B32+B22+B23</f>
         <v>0.169863683521839</v>
       </c>
-      <c r="C40" s="23" t="n">
+      <c r="C40" s="25" t="n">
         <v>0.17</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="69" t="n">
+      <c r="A41" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="70" t="n">
         <v>0.119230769230769</v>
       </c>
-      <c r="C41" s="23" t="n">
+      <c r="C41" s="25" t="n">
         <v>0.1</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="69" t="n">
+      <c r="A42" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="70" t="n">
         <f aca="false">(916-B3+B2)/B2</f>
         <v>1.84835092920122</v>
       </c>
-      <c r="C42" s="23" t="n">
+      <c r="C42" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="48" t="s">
-        <v>143</v>
+      <c r="D42" s="49" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="72" t="n">
+      <c r="A43" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="73" t="n">
         <v>10</v>
       </c>
-      <c r="C43" s="23" t="n">
+      <c r="C43" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="D43" s="48" t="s">
-        <v>145</v>
+      <c r="D43" s="49" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="72" t="n">
+      <c r="A44" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="73" t="n">
         <f aca="false">Fig2A!C14</f>
         <v>471.858238352849</v>
       </c>
-      <c r="C44" s="23" t="n">
+      <c r="C44" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="D44" s="48"/>
+      <c r="D44" s="49"/>
     </row>
     <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="47" t="n">
+      <c r="A45" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="48" t="n">
         <f aca="false">Fig2A!C26</f>
         <v>5.9492329982793</v>
       </c>
-      <c r="C45" s="23" t="n">
+      <c r="C45" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="D45" s="48"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="47" t="n">
+      <c r="A46" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="48" t="n">
         <f aca="false">Fig2C!B34</f>
         <v>1.26017134321449</v>
       </c>
-      <c r="C46" s="23" t="n">
+      <c r="C46" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="48"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="47" t="n">
+      <c r="A47" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="48" t="n">
         <f aca="false">Fig2C!E34</f>
         <v>4.93985482192421</v>
       </c>
-      <c r="C47" s="23" t="n">
+      <c r="C47" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="D47" s="48"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="69" t="n">
+      <c r="A48" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="70" t="n">
         <f aca="false">SUM(Fig2C!E22,Fig2C!E23,Fig2C!E24,Fig2C!E31,Fig2C!B24,Fig2C!B25,Fig2C!B26,Fig2C!B27,Fig2C!B28)/SUM(Fig2C!B34,Fig2C!E34)</f>
         <v>0.653418481289665</v>
       </c>
-      <c r="C48" s="23" t="n">
+      <c r="C48" s="25" t="n">
         <v>0.7</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="71" t="n">
+      <c r="A49" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="72" t="n">
         <f aca="false">Fig2A!C32/SUM(Fig2A!C32,Fig2A!C26,Fig2A!C14)</f>
         <v>0.129804758962911</v>
       </c>
-      <c r="C49" s="23" t="n">
+      <c r="C49" s="25" t="n">
         <v>0.15</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="144" t="n">
+      <c r="A50" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="146" t="n">
         <v>0.06701412</v>
       </c>
-      <c r="C50" s="133" t="n">
+      <c r="C50" s="134" t="n">
         <v>0.05</v>
       </c>
-      <c r="D50" s="54"/>
+      <c r="D50" s="55"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
